--- a/data/updated_migration.xlsx
+++ b/data/updated_migration.xlsx
@@ -810,16 +810,16 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasPremiumCsvColumns, organizationDefinedRisk, savedQueriesNotifications, stsClassification</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, stsClassification</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Omer</t>
+          <t>omer</t>
         </is>
       </c>
       <c r="AG3" t="n">
-        <v>1764844780</v>
+        <v>1764863925</v>
       </c>
     </row>
     <row r="4">
@@ -913,24 +913,10 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Commodity Trader Core</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, riskRanking, savedQueriesNotifications, searchDraftBreadthFilters, softAoi, uboData</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AG4" t="n">
-        <v>1764846146</v>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1333,24 +1319,10 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Insurer Advanced</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, savedQueriesNotifications, wetCargoData</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AG8" t="n">
-        <v>1764842368</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -35174,7 +35146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35333,7 +35305,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generali France
+          <t xml:space="preserve">Shoreline
 </t>
         </is>
       </c>
@@ -35344,35 +35316,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, savedQueriesNotifications, wetCargoData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, stsClassification</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Omer</t>
+          <t>omer</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1764842368</v>
+        <v>1764863925</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>["hideHistoricalRiskIndicators", "hideMapTimelineOnVesselProfile", "savedQueriesNotifications", "wetCargoData"]</t>
+          <t>["enableODRPermissionsForAllUsers", "hideMapTimelineOnVesselProfile", "maiExpertVesselAdverseMedia", "maiExpertVesselSummary", "nasAddVesselsToVoi", "nasPremiumCsvColumns", "organizationDefinedRisk", "stsClassification"]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["hideBorderSecurityRisk", "hideRuleEngine", "hideSafetyRisk"]</t>
+          <t>["hideBorderSecurityRisk", "hideSafetyRisk", "sendHeartbeat"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -35382,232 +35354,20 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>["darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasAddVesselsToVoi", "newAdvancedSearch", "newNasSideBarDesign", "userAlreadyLoggedInWarning", "warRiskArea"]</t>
+          <t>["activitySequences", "darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasTransmissionInAreaActivityType", "newNasSideBarDesign", "trafficLanes", "userAlreadyLoggedInWarning", "warRiskArea", "weatherLayer"]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasAddVesselsToVoi", "newAdvancedSearch", "newNasSideBarDesign", "warRiskArea"]</t>
+          <t>["activitySequences", "darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasTransmissionInAreaActivityType", "newNasSideBarDesign", "trafficLanes", "warRiskArea"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>["userAlreadyLoggedInWarning"]</t>
+          <t>["userAlreadyLoggedInWarning", "weatherLayer"]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shoreline
-</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurer Core</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasPremiumCsvColumns, organizationDefinedRisk, savedQueriesNotifications, stsClassification</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1764844780</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Insurer Core</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>["enableODRPermissionsForAllUsers", "hideMapTimelineOnVesselProfile", "maiExpertVesselAdverseMedia", "maiExpertVesselSummary", "nasPremiumCsvColumns", "organizationDefinedRisk", "savedQueriesNotifications", "stsClassification"]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>["hideBorderSecurityRisk", "hideSafetyRisk", "sendHeartbeat", "weatherLayer"]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>["activitySequences", "darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasAddVesselsToVoi", "nasTransmissionInAreaActivityType", "newAdvancedSearch", "newNasSideBarDesign", "trafficLanes", "userAlreadyLoggedInWarning", "warRiskArea"]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>["activitySequences", "darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasAddVesselsToVoi", "nasTransmissionInAreaActivityType", "newAdvancedSearch", "newNasSideBarDesign", "trafficLanes", "warRiskArea"]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>["userAlreadyLoggedInWarning"]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Test From Script</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Test Type</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Test Plan</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>extra1, extra2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Test User</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1764844347</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Test Plan</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>["extra1", "extra2"]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>["bloat1", "bloat2"]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>["ga1", "ga2"]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>["ga1"]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>["ga2"]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LITASCO S.A.
-</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Commodity Trader</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Commodity Trader Core</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, riskRanking, savedQueriesNotifications, searchDraftBreadthFilters, softAoi, uboData</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1764846146</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Commodity Trader Core</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>["hideMapTimelineOnVesselProfile", "nasAgGridTable", "riskRanking", "savedQueriesNotifications", "searchDraftBreadthFilters", "softAoi", "uboData"]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk", "sendHeartbeat", "weatherLayer"]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>["darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasAddVesselsToVoi", "newAdvancedSearch", "trafficLanes", "userAlreadyLoggedInWarning"]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>["darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasAddVesselsToVoi", "newAdvancedSearch", "trafficLanes", "userAlreadyLoggedInWarning"]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -35624,7 +35384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35976,7 +35736,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -35988,7 +35748,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36000,7 +35760,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36012,7 +35772,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36024,7 +35784,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36036,7 +35796,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
@@ -36048,19 +35808,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -36072,7 +35832,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
@@ -36084,7 +35844,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -36096,7 +35856,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -36108,7 +35868,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -36120,7 +35880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36132,7 +35892,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36144,7 +35904,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36156,7 +35916,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36168,7 +35928,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36180,7 +35940,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36192,7 +35952,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -36204,7 +35964,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -36216,7 +35976,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -36228,7 +35988,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -36240,7 +36000,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -36252,7 +36012,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -36264,7 +36024,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>newNotificationUI</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36276,7 +36036,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>newNotificationUI</t>
         </is>
       </c>
     </row>
@@ -36288,7 +36048,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36300,7 +36060,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36072,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36324,7 +36084,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
@@ -36336,7 +36096,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -36348,7 +36108,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -36360,19 +36120,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
@@ -36384,7 +36144,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -36396,7 +36156,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -36408,7 +36168,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36420,7 +36180,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -36432,7 +36192,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36444,7 +36204,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36456,7 +36216,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36468,7 +36228,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36480,7 +36240,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36492,7 +36252,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36504,7 +36264,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
@@ -36516,31 +36276,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -36552,7 +36312,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
@@ -36564,7 +36324,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
@@ -36576,7 +36336,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -36588,7 +36348,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -36600,7 +36360,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -36612,7 +36372,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36624,7 +36384,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36636,7 +36396,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36648,7 +36408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -36660,7 +36420,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36672,7 +36432,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36684,7 +36444,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36696,7 +36456,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -36708,7 +36468,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -36720,7 +36480,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -36732,7 +36492,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -36744,7 +36504,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -36756,7 +36516,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -36768,7 +36528,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36780,7 +36540,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36792,7 +36552,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36804,7 +36564,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36816,43 +36576,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -36864,7 +36624,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
@@ -36876,7 +36636,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
@@ -36888,7 +36648,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -36900,7 +36660,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -36912,7 +36672,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -36924,7 +36684,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36936,7 +36696,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36948,7 +36708,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36960,7 +36720,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36972,7 +36732,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36984,7 +36744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36996,7 +36756,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -37008,7 +36768,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -37020,7 +36780,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -37032,7 +36792,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -37044,7 +36804,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -37056,7 +36816,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -37068,7 +36828,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -37080,7 +36840,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -37092,7 +36852,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -37104,7 +36864,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -37116,7 +36876,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
@@ -37128,43 +36888,43 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
@@ -37176,7 +36936,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -37188,7 +36948,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -37200,7 +36960,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -37212,7 +36972,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37224,7 +36984,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37236,7 +36996,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37248,7 +37008,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -37260,7 +37020,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37272,7 +37032,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37284,7 +37044,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37296,7 +37056,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -37308,67 +37068,67 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -37380,7 +37140,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -37392,7 +37152,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -37404,7 +37164,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -37416,7 +37176,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37428,7 +37188,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37440,7 +37200,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37452,7 +37212,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37464,7 +37224,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37476,7 +37236,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37488,7 +37248,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -37500,7 +37260,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -37512,91 +37272,91 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -37608,7 +37368,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
@@ -37620,7 +37380,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -37632,7 +37392,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -37644,7 +37404,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -37656,7 +37416,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37668,7 +37428,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37680,7 +37440,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37692,7 +37452,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37704,7 +37464,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37716,7 +37476,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37728,7 +37488,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -37740,7 +37500,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -37752,7 +37512,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -37764,115 +37524,115 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
@@ -37884,7 +37644,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -37896,7 +37656,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -37908,7 +37668,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -37920,7 +37680,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37932,7 +37692,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37944,139 +37704,139 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -38088,7 +37848,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -38100,7 +37860,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -38112,7 +37872,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38124,7 +37884,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38136,7 +37896,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38148,7 +37908,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -38160,163 +37920,163 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -38328,7 +38088,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
@@ -38340,7 +38100,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -38352,7 +38112,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -38364,7 +38124,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38376,7 +38136,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38388,7 +38148,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38400,7 +38160,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -38412,187 +38172,187 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>nasPremiumCsvColumns</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
@@ -38604,7 +38364,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -38616,7 +38376,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>shadowFleetVOIs</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -38628,7 +38388,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38640,175 +38400,175 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasPremiumCsvColumns</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -38820,7 +38580,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -38832,7 +38592,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>shadowFleetVOIs</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -38844,7 +38604,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38856,7 +38616,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38868,7 +38628,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38880,7 +38640,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -38892,175 +38652,175 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -39072,7 +38832,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -39084,7 +38844,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -39096,7 +38856,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -39108,7 +38868,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>shadowFleetVOIs</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -39120,7 +38880,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -39132,7 +38892,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -39144,7 +38904,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -39156,7 +38916,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -39168,7 +38928,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -39180,470 +38940,470 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>shadowFleetVOIs</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>shadowFleetVOIs</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>vesselsLists</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -39655,7 +39415,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -39667,478 +39427,958 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>shadowFleetVOIs</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>vesselsLists</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>activitySequences</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>darkFleetVOI</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>grayFleetVOI</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>newNasRiskDesign</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>searchDraftBreadthFilters</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>softAoinasAgGridTable</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>trafficLanes</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>uncertaintyArea</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>vesselsLists</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
+          <t>Oil &amp; Energy Advanced</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>wetCargoData</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>cddScreening</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>companyProfile</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>complianceLabel</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>complianceMode</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>enableExportCompanyPdfReport</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>exploreCompanies</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>hideBorderSecurityRisk</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>hideMapTimelineOnVesselProfile</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>hideRuleEngine</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>hideSafetyRisk</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>liveChat</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>maiExpertVesselAdverseMedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>maiExpertVesselSummary</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>nasAddVesselsToVoi</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>newAdvancedSearch</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>newNasSideBarDesign</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>portProfile</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>portStateControl</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>savedQueriesNotifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>sendHeartbeat</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>uboData</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>userAlreadyLoggedInWarning</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>vesselsLists</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>weatherLayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oil &amp; Energy Premium</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>wetCargoData</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr">
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>activitySequences</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>darkFleetVOI</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>grayFleetVOI</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>mapMarkers</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>nasAccidentsActivity</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>nasTransmissionInAreaActivityType</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>newNasRiskDesign</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>newNasSideBarDesign</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>searchDraftBreadthFilters</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>softAoinasAgGridTable</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>trafficLanes</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>uncertaintyArea</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>userAlreadyLoggedInWarning</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>warRiskArea</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
         <is>
           <t>weatherLayer</t>
         </is>
@@ -40267,18 +40507,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, stsClassification</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, stsClassification</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -40312,18 +40548,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, riskRanking, softAoi, uboData</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -40332,7 +40564,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.347826086956522</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -40357,11 +40589,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>cddScreening, enableODRPermissionsForAllUsers, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, underwaterCables</t>
@@ -40402,18 +40630,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData, underwaterCables, wetCargoData</t>
+          <t>cddScreening, enableODRPermissionsForAllUsers, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, uboData, underwaterCables, wetCargoData</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -40482,18 +40706,14 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, wetCargoData</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, wetCargoData</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -40502,7 +40722,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -40597,18 +40817,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAgGridTable, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAgGridTable, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -40747,11 +40963,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile</t>
@@ -40792,18 +41004,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData</t>
+          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi, uboData</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -40812,7 +41020,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -40915,7 +41123,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -41162,18 +41370,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -41277,27 +41481,23 @@
           <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, nasAgGridTable, newAdvancedSearch, organizationDefinedRisk, softAoi, stsClassification</t>
+          <t>enableODRPermissionsForAllUsers, nasAgGridTable, organizationDefinedRisk, softAoi, stsClassification</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.181818181818183</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -42052,18 +42252,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, underwaterCables, vesselsLists</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi, underwaterCables, vesselsLists</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -42072,7 +42268,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -42097,18 +42293,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, underwaterCables, wetCargoData</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi, underwaterCables, wetCargoData</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -42117,7 +42309,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2.347826086956522</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -42142,18 +42334,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, visualLinkAnalysis, vlaMaiExpert, wetCargoData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, visualLinkAnalysis, vlaMaiExpert, wetCargoData</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -42222,18 +42410,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData, wetCargoData</t>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -42242,7 +42426,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -42267,18 +42451,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>nasCompanyToggles, newAdvancedSearch, organizationDefinedRisk, riskRanking, softAoi, stsClassification, uboData, underwaterCables, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>nasCompanyToggles, organizationDefinedRisk, riskRanking, softAoi, stsClassification, uboData, underwaterCables, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -42312,18 +42492,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasPremiumCsvColumns, newAdvancedSearch, planetOverlay, savedQueriesNotifications, softAoi, uboData, vlaMaiExpert, wetCargoData</t>
+          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasPremiumCsvColumns, planetOverlay, softAoi, uboData, vlaMaiExpert, wetCargoData</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -42357,18 +42533,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData, vesselsLists, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>cddScreening, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData, vesselsLists, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -42437,18 +42609,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, uboData, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -42482,18 +42650,14 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, savedQueriesNotifications, wetCargoData</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, wetCargoData</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -42502,7 +42666,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3999999999999986</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -42527,18 +42691,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, vlaMaiExpert</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -42547,7 +42707,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>6.551724137931036</v>
+        <v>9.586206896551722</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -42607,18 +42767,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData, wetCargoData</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -42627,7 +42783,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -42658,7 +42814,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -42695,7 +42851,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -42732,7 +42888,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -42763,18 +42919,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, uboData</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -42783,7 +42935,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3.714285714285715</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -42814,7 +42966,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -43092,11 +43244,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, softAoi</t>
@@ -43137,18 +43285,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasExportLargeCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, stsClassification, uboData, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasExportLargeCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, stsClassification, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -43182,18 +43326,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, underwaterCables</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, underwaterCables</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -43262,27 +43402,23 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, wetCargoData</t>
+          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, wetCargoData</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2.666666666666668</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -43482,18 +43618,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -43502,7 +43634,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>4.363636363636363</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -43527,18 +43659,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, uboData, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -43547,7 +43675,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2.666666666666668</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -43572,18 +43700,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, uboData</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -43592,7 +43716,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>4.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -43654,18 +43778,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, newAdvancedSearch, softAoi, wetCargoData</t>
+          <t>hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, softAoi, wetCargoData</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -43674,7 +43794,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1.652173913043478</v>
+        <v>4.956521739130434</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -43740,7 +43860,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -43777,7 +43897,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -43851,7 +43971,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -43952,21 +44072,17 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, organizationDefinedRisk, riskRanking, wetCargoData</t>
+          <t>exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, wetCargoData</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -44032,27 +44148,23 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, nasAddVesselsToVoi, newAdvancedSearch</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>9.652173913043478</v>
+        <v>3.043478260869565</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -44112,18 +44224,14 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, underwaterCables</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, underwaterCables</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -44157,18 +44265,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, newAdvancedSearch, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -44177,7 +44281,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -44618,21 +44722,17 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, maiExpertLanguageSettings, nasAgGridTable, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>enableODRPermissionsForAllUsers, maiExpertLanguageSettings, nasAgGridTable, organizationDefinedRisk, softAoi, uboData, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -45048,18 +45148,14 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, mapScale, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, savedQueriesNotifications, stsClassification, turnOffTransmissionRuleEngine, visualLinkAnalysis, voiNoLimit</t>
+          <t>IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, mapScale, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, stsClassification, turnOffTransmissionRuleEngine, visualLinkAnalysis, voiNoLimit</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -45093,21 +45189,17 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, newAdvancedSearch, stsClassification, uboData</t>
+          <t>adverseMediaWithinVesselSummary, areaInvestigation, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -45208,27 +45300,23 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, newAdvancedSearch, stsClassification</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, stsClassification</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2.444444444444443</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -45253,11 +45341,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>cddScreening, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, visualLinkAnalysis, vlaMaiExpert</t>
@@ -45333,11 +45417,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
         <v>0</v>
@@ -45409,21 +45489,17 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, newAdvancedSearch, planetOverlay, planetQuota, planetQuotaEnforced, stsClassification, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -45454,18 +45530,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData, voiRemoveCounter</t>
+          <t>adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, organizationDefinedRisk, softAoi, uboData, voiRemoveCounter</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -45569,11 +45641,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>hideMapTimelineOnVesselProfile, nasAgGridTable</t>
@@ -45614,18 +45682,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, smugglingAndComplianceRisksSearchAPI, uboData, voiRemoveCounter</t>
+          <t>adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, uboData, voiRemoveCounter</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -45659,21 +45723,17 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>areaInvestigation, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, newAdvancedSearch, stsClassification</t>
+          <t>areaInvestigation, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, stsClassification</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -45704,27 +45764,23 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, smugglingAndComplianceRisksSearchAPI, stsClassification</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, nasAgGridTable, smugglingAndComplianceRisksSearchAPI, stsClassification</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -46117,18 +46173,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, organizationDefinedRisk, savedQueriesNotifications, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newsFeed, organizationDefinedRisk, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -46162,18 +46214,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, organizationDefinedRisk, savedQueriesNotifications, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newsFeed, organizationDefinedRisk, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -46207,18 +46255,14 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, vlaMaiExpert, wetCargoData</t>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, vlaMaiExpert, wetCargoData</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -46227,7 +46271,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>9.307692307692307</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -46313,27 +46357,23 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk</t>
+          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -46358,21 +46398,17 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideBorderSecurityRisk, maiExpertLanguageSettings, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, uboData</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -46403,21 +46439,17 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>cddScreening, exportCenter, exportTrackVoyages, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, newsFeed, organizationDefinedRisk, riskRanking, stsClassification, wetCargoData</t>
+          <t>cddScreening, exportCenter, exportTrackVoyages, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newsFeed, organizationDefinedRisk, riskRanking, stsClassification, wetCargoData</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -46448,17 +46480,13 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -46489,18 +46517,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapModule, hideMapTimelineOnVesselProfile, nasCompanyToggles, newAdvancedSearch, uboData</t>
+          <t>cddScreening, hideMapModule, hideMapTimelineOnVesselProfile, nasCompanyToggles, uboData</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -46509,7 +46533,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>4.363636363636363</v>
+        <v>7.727272727272727</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -46600,18 +46624,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, softAoi</t>
+          <t>hideMapTimelineOnVesselProfile, softAoi</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -46620,7 +46640,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>9.555555555555555</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -46645,18 +46665,14 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>newAdvancedSearch, newsFeed</t>
+          <t>newsFeed</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -46665,7 +46681,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>14.88888888888889</v>
+        <v>18</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -46690,18 +46706,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, uboData</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -46710,7 +46722,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -46735,18 +46747,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>hideMapModule, hideMapTimelineOnVesselProfile, newAdvancedSearch, riskRanking, uboData, visualLinkAnalysis</t>
+          <t>hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, uboData, visualLinkAnalysis</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -46755,7 +46763,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>6.75</v>
+        <v>10</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -46780,27 +46788,23 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>cddScreening, hideBorderSecurityRisk, hideMapModule, newAdvancedSearch, stsClassification, vesselShare, wetCargoData</t>
+          <t>cddScreening, hideBorderSecurityRisk, hideMapModule, stsClassification, vesselShare, wetCargoData</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>4.363636363636363</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -46825,18 +46829,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, vesselsLists</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, vesselsLists</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>5.652173913043478</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -46870,18 +46870,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, uboData</t>
+          <t>cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, uboData</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -46890,7 +46886,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>3.517241379310345</v>
+        <v>6.551724137931036</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -46915,27 +46911,23 @@
           <t>Financial Institutions Advanced</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cddScreening, containersOfInterest, nasAgGridTable, nasCompanyToggles, newAdvancedSearch, ofvMapLandEvents</t>
+          <t>cddScreening, containersOfInterest, nasAgGridTable, nasCompanyToggles, ofvMapLandEvents</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -46960,18 +46952,14 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi</t>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -46980,7 +46968,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>5</v>
+        <v>11.30769230769231</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -47005,27 +46993,23 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -47087,18 +47071,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, softAoi, uboData, vesselsLists</t>
+          <t>hideMapTimelineOnVesselProfile, softAoi, uboData, vesselsLists</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -47107,7 +47087,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>6.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -47132,11 +47112,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>cddScreening, exportCenter, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, nasAgGridTable</t>
@@ -47177,21 +47153,17 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -47222,11 +47194,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>hideMapTimelineOnVesselProfile, nasAgGridTable, riskRanking, softAoi</t>
@@ -47267,11 +47235,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>cddScreening, exportCenter, hideMapTimelineOnVesselProfile, softAoi</t>
@@ -47347,11 +47311,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>cddScreening, exportCenter, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasPremiumCsvColumns, softAoi</t>
@@ -47392,18 +47352,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData, useRefreshToken, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData, useRefreshToken, wetCargoData</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -47437,27 +47393,23 @@
           <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>nasExportLargeCsv, nasPremiumCsvColumns, newAdvancedSearch, softAoi</t>
+          <t>nasExportLargeCsv, nasPremiumCsvColumns, softAoi</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>12.76923076923077</v>
+        <v>15.92307692307692</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -47593,7 +47545,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -47764,18 +47716,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, turnOffODRErrorEmails</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -47809,11 +47757,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
           <t>cddScreening</t>
@@ -47889,18 +47833,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -47909,7 +47849,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1.043478260869565</v>
+        <v>7.652173913043478</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -47934,18 +47874,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>hideComplianceRisk, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, savedQueriesNotifications, softAoi</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideComplianceRisk, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, softAoi</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -48014,18 +47950,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, softAoi, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, nasExportMediumCsv, nasPremiumCsvColumns, softAoi, uboData</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -48034,7 +47966,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>4.25</v>
+        <v>7.5</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -48059,11 +47991,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
           <t>cddScreening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, softAoi, useRefreshToken</t>
@@ -48104,11 +48032,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
           <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, vesselsLists, visualLinkAnalysis, vlaMaiExpert</t>
@@ -48219,18 +48143,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, newAdvancedSearch, riskRanking, softAoi, uboData</t>
+          <t>cddScreening, hideMapTimelineOnVesselProfile, riskRanking, softAoi, uboData</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -48239,7 +48159,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>5.307692307692307</v>
+        <v>8.461538461538463</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -48264,11 +48184,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
           <t>cddScreening, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, softAoi, underwaterCables</t>
@@ -48344,18 +48260,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, riskRanking, softAoi, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, riskRanking, softAoi, uboData</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -48364,7 +48276,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>6.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -48389,18 +48301,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -48434,18 +48342,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -48479,18 +48383,14 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, uboData</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -48499,7 +48399,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -48524,18 +48424,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -48569,18 +48465,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, softAoi, uboData</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -48614,18 +48506,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasPremiumCsvColumns, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData, underwaterCables, useRefreshToken</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasPremiumCsvColumns, newAdvancedSearch, softAoi, uboData, underwaterCables, useRefreshToken</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -48659,18 +48547,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, newsFeed, savedQueriesNotifications, softAoi</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, newsFeed, softAoi</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -48704,18 +48588,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>companyProfile, exploreCompanies, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, uboData</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -48749,18 +48629,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData, underwaterCables</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, softAoi, uboData, underwaterCables</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -48794,18 +48670,14 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, visualLinkAnalysis, wetCargoData</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, visualLinkAnalysis, wetCargoData</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -48814,7 +48686,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -48839,27 +48711,19 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>newAdvancedSearch</t>
-        </is>
-      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>18.8695652173913</v>
+        <v>22.17391304347826</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -48884,18 +48748,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, hideNasActivitiesForm, newAdvancedSearch, riskRanking, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, uboData, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -48904,7 +48764,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -48929,11 +48789,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
           <t>cddScreening, hideMapTimelineOnVesselProfile, newsFeed, vesselsLists</t>
@@ -48974,18 +48830,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData, useRefreshToken, vesselsLists</t>
+          <t>cddScreening, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, softAoi, uboData, useRefreshToken, vesselsLists</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -49019,11 +48871,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
           <t>hideMapTimelineOnVesselProfile, nasExportMediumCsv, softAoi</t>
@@ -49064,18 +48912,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, newAdvancedSearch, uboData</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -49084,7 +48928,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>6.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -49109,21 +48953,17 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasCompanyToggles, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk</t>
+          <t>cddScreening, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasCompanyToggles, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -49154,27 +48994,23 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>exportCenter, newAdvancedSearch, softAoi, uboData</t>
+          <t>exportCenter, softAoi, uboData</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>9.41935483870968</v>
+        <v>12.38709677419355</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -49202,11 +49038,11 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>hideComplianceRisk, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>hideComplianceRisk, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -49215,7 +49051,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -49240,18 +49076,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, uboData</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -49260,7 +49092,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>11.77777777777778</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -49285,18 +49117,14 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData</t>
+          <t>exportCenter, hideMapTimelineOnVesselProfile, nasExportMediumCsv, organizationDefinedRisk, softAoi, uboData</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G231" t="n">
         <v>4</v>
@@ -49305,7 +49133,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>3.307692307692307</v>
+        <v>6.461538461538463</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -49442,11 +49270,11 @@
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications</t>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G235" t="n">
         <v>5</v>
@@ -49455,7 +49283,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.5882352941176485</v>
+        <v>4.352941176470587</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -49515,18 +49343,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -49535,7 +49359,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -49560,18 +49384,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, uboData</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -49580,7 +49400,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>11.30769230769231</v>
+        <v>14.46153846153846</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -49605,18 +49425,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, wetCargoData</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, wetCargoData</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -49625,7 +49441,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -49650,18 +49466,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -49730,18 +49542,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, vesselsLists, wetCargoData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, softAoi, vesselsLists, wetCargoData</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G242" t="n">
         <v>5</v>
@@ -49775,18 +49583,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -49795,7 +49599,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>7</v>
+        <v>0.6923076923076916</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -49820,27 +49624,23 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>newAdvancedSearch, uboData</t>
+          <t>uboData</t>
         </is>
       </c>
       <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
         <v>2</v>
       </c>
-      <c r="G244" t="n">
-        <v>3</v>
-      </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>14.88888888888889</v>
+        <v>18</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -49900,18 +49700,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, uboData</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -49920,7 +49716,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -49945,18 +49741,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>nasAddVesselsToVoi, nasAgGridTable, uboData</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -49965,7 +49757,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>4.399999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -49990,18 +49782,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, savedQueriesNotifications, uboData, vesselsLists</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, uboData, vesselsLists</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -50035,18 +49823,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, newAdvancedSearch, uboData</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -50055,7 +49839,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -50080,18 +49864,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, vesselsLists</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, vesselsLists</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -50100,7 +49880,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>1.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -50125,18 +49905,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData, wetCargoData</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -50145,7 +49921,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -50240,27 +50016,23 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, newAdvancedSearch, newsFeed, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
+          <t>enableODRPermissionsForAllUsers, newsFeed, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>2.451612903225804</v>
+        <v>5.41935483870968</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -50288,20 +50060,20 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
+          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, riskRanking</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -50326,18 +50098,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, uboData</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -50371,11 +50139,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
           <t>cddScreening, hideMapTimelineOnVesselProfile, newsFeed, stsClassification</t>
@@ -50486,18 +50250,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapModule, hideMapTimelineOnVesselProfile, newAdvancedSearch, softAoi</t>
+          <t>cddScreening, hideMapModule, hideMapTimelineOnVesselProfile, softAoi</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -50506,7 +50266,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>6.071428571428569</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -50531,18 +50291,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, softAoi, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -50646,18 +50402,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, savedQueriesNotifications, uboData</t>
+          <t>cddScreening, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, uboData</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -50907,7 +50659,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -50944,7 +50696,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -50981,7 +50733,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -51012,18 +50764,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData, vesselsLists</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, riskRanking, softAoi, uboData, vesselsLists</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -51057,18 +50805,14 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, softAoi, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, softAoi, uboData</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -51077,7 +50821,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>10.21428571428571</v>
+        <v>13.28571428571429</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -51137,18 +50881,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, newAdvancedSearch, uboData</t>
+          <t>cddScreening, hideMapTimelineOnVesselProfile, uboData</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -51157,7 +50897,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>8.666666666666668</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -51217,11 +50957,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
           <t>hideMapTimelineOnVesselProfile, nasAgGridTable, organizationDefinedRisk, softAoi, underwaterCables, visualLinkAnalysis</t>
@@ -51262,18 +50998,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, savedQueriesNotifications, stsClassification, uboData</t>
+          <t>cddScreening, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, savedQueriesNotifications, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -51307,18 +51039,14 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newAdvancedSearch, newsFeed, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>hideMapTimelineOnVesselProfile, newsFeed, uboData, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -51327,7 +51055,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>4.451612903225804</v>
+        <v>7.41935483870968</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -51492,27 +51220,23 @@
           <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, nasAgGridTable, nasCompanyToggles, nasExportLargeCsv, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk, softAoi, stsClassification</t>
+          <t>enableODRPermissionsForAllUsers, nasAgGridTable, nasCompanyToggles, nasExportLargeCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, stsClassification</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>0.2162162162162176</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -51537,21 +51261,17 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, iuuFishing, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, organizationDefinedRisk, stsClassification, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideBorderSecurityRisk, iuuFishing, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, organizationDefinedRisk, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -51582,27 +51302,23 @@
           <t>Financial Institutions Advanced</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>analyticsProxy, hideSafetyRisk, nasAgGridTable, newAdvancedSearch, vlaMaiExpert, wetCargoData</t>
+          <t>analyticsProxy, hideSafetyRisk, nasAgGridTable, vlaMaiExpert, wetCargoData</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>5.142857142857142</v>
+        <v>8.214285714285712</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -51627,18 +51343,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasPremiumCsvColumns, newAdvancedSearch, savedQueriesNotifications, softAoi</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasPremiumCsvColumns, softAoi</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -51672,27 +51384,23 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, nasAgGridTable, nasExportLargeCsv, newAdvancedSearch, newsFeed, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
+          <t>hideHistoricalRiskIndicators, nasAgGridTable, nasExportLargeCsv, newsFeed, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>0.3636363636363633</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -51752,18 +51460,14 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>areaMapper, cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, planetOverlay, planetQuota, savedQueriesNotifications, stsClassification, underwaterCables, vesselsLists</t>
+          <t>areaMapper, cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, planetOverlay, planetQuota, stsClassification, underwaterCables, vesselsLists</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -51902,21 +51606,17 @@
           <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>areaInvestigation, enableODRPermissionsForAllUsers, exportCenter, fraudulentFlagRegistries, nasAgGridTable, nasCompanyToggles, nasExportLargeCsv, nasPremiumCsvColumns, newAdvancedSearch, newsFeed, organizationDefinedRisk, softAoi, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>areaInvestigation, enableODRPermissionsForAllUsers, exportCenter, fraudulentFlagRegistries, nasAgGridTable, nasCompanyToggles, nasExportLargeCsv, nasPremiumCsvColumns, newsFeed, organizationDefinedRisk, softAoi, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G296" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -51982,18 +51682,14 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, nasCompanyToggles, newAdvancedSearch, newsFeed, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, savedQueriesNotifications, softAoi, stsClassification</t>
+          <t>enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, nasCompanyToggles, newsFeed, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, softAoi, stsClassification</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -52027,18 +51723,14 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, stsClassification, vlaMaiExpert</t>
+          <t>cddScreening, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, organizationDefinedRisk, softAoi, stsClassification, vlaMaiExpert</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -52144,18 +51836,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAgGridTable, newAdvancedSearch, organizationDefinedRisk, stsClassification, vesselsLists</t>
+          <t>cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAgGridTable, organizationDefinedRisk, stsClassification, vesselsLists</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -52164,7 +51852,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -52224,18 +51912,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, stsClassification, uboData, windwardOwnershipData</t>
+          <t>enableODRPermissionsForAllUsers, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, stsClassification, uboData, windwardOwnershipData</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G304" t="n">
         <v>5</v>
@@ -52409,11 +52093,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
           <t>cddScreening, enableODRPermissionsForAllUsers, nasAgGridTable, nasPremiumCsvColumns, nasVesselsExportExtraLargeCSV, organizationDefinedRisk, softAoi, stsClassification</t>
@@ -52454,11 +52134,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
           <t>enableODRPermissionsForAllUsers, nasAgGridTable, nasExportLargeCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, stsClassification</t>
@@ -52499,11 +52175,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
           <t>hideMapTimelineOnVesselProfile, nasAgGridTable, nasCompanyToggles, nasExportMediumCsv, riskRanking, softAoi, stsClassification, underwaterCables, visualLinkAnalysis, vlaMaiExpert</t>
@@ -52964,21 +52636,17 @@
           <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
-          <t>courseDeviationActivity, maiExpertCompanySummary, nasAgGridTable, nasExportLargeCsv, newAdvancedSearch, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, stsClassification, voiNoLimit</t>
+          <t>courseDeviationActivity, maiExpertCompanySummary, nasAgGridTable, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, stsClassification, voiNoLimit</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -53050,11 +52718,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="n">
         <v>0</v>
@@ -53091,18 +52755,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, newAdvancedSearch, softAoi, stsClassification, uboData, vesselsLists</t>
+          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, softAoi, stsClassification, uboData, vesselsLists</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -53111,7 +52771,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>1.517241379310345</v>
+        <v>4.551724137931036</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -53136,11 +52796,7 @@
           <t>Shipowners Premium</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
           <t>cddScreening</t>
@@ -53181,18 +52837,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
-          <t>courseDeviationActivity, maiExpertCompanySummary, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, newAdvancedSearch, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, savedQueriesNotifications, stsClassification, vesselsLists, voiNoLimit, wetCargoData</t>
+          <t>courseDeviationActivity, maiExpertCompanySummary, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, stsClassification, vesselsLists, voiNoLimit, wetCargoData</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -53226,18 +52878,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -53246,7 +52894,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>5.652173913043478</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -53306,18 +52954,14 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -53326,7 +52970,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>11.72727272727273</v>
+        <v>1.636363636363637</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -53357,7 +53001,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -53419,27 +53063,23 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, uboData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, uboData</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G335" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>1.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -53989,18 +53629,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -54009,7 +53645,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>5.714285714285715</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -54034,18 +53670,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, riskRanking, savedQueriesNotifications, softAoi, stsClassification, uboData, wetCargoData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, softAoi, stsClassification, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G352" t="n">
         <v>5</v>
@@ -54149,18 +53781,14 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData, wetCargoData</t>
+          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -54229,18 +53857,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, uboData</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, organizationDefinedRisk, softAoi, uboData</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G357" t="n">
         <v>3</v>
@@ -54249,7 +53873,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>1.652173913043478</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -54274,18 +53898,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, riskRanking, savedQueriesNotifications, softAoi, uboData, underwaterCables, wetCargoData</t>
+          <t>enableODRPermissionsForAllUsers, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, softAoi, uboData, underwaterCables, wetCargoData</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -54354,27 +53974,23 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, stsClassification, vesselsLists, wetCargoData</t>
+          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportMediumCsv, stsClassification, vesselsLists, wetCargoData</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -54399,18 +54015,14 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>companyData</t>
-        </is>
-      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData</t>
+          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, riskRanking, softAoi, uboData</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G361" t="n">
         <v>4</v>
@@ -54419,7 +54031,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>1.714285714285715</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -54545,7 +54157,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -54555,7 +54167,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">

--- a/data/updated_migration.xlsx
+++ b/data/updated_migration.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG363"/>
+  <dimension ref="A1:AH363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,17 +590,22 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Final Extras</t>
+          <t>Approved By</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Approved By</t>
+          <t>Approved At</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Approved At</t>
+          <t>Final Add-ons needed</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Approval Comment</t>
         </is>
       </c>
     </row>
@@ -707,6 +712,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -810,16 +816,21 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, stsClassification</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>omer</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>1764863925</v>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>1765103372</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>omer check 12</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -913,10 +924,29 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Commodity Trader Core</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>1765102941</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>omer check 20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1013,6 +1043,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -1109,6 +1140,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1209,6 +1241,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1319,10 +1352,29 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Insurer Advanced</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>1765108586</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Omer Check 99</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1411,6 +1463,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1507,6 +1560,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1603,6 +1657,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1699,6 +1754,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1795,6 +1851,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1887,6 +1944,7 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1979,6 +2037,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2071,6 +2130,7 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2163,6 +2223,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2245,6 +2306,7 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2331,6 +2393,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2417,6 +2480,7 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2503,6 +2567,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2589,6 +2654,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2675,6 +2741,7 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2761,6 +2828,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2847,6 +2915,7 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2941,6 +3010,7 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3027,6 +3097,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3123,6 +3194,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3219,6 +3291,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3305,6 +3378,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3405,6 +3479,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3501,6 +3576,7 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3597,6 +3673,7 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3697,6 +3774,7 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3803,6 +3881,7 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3905,6 +3984,7 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4007,6 +4087,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4109,6 +4190,7 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4209,6 +4291,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4309,6 +4392,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4405,6 +4489,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4492,6 +4577,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4584,6 +4670,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4676,6 +4763,7 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4762,6 +4850,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4848,6 +4937,7 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4944,6 +5034,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5040,6 +5131,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5132,6 +5224,7 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5218,6 +5311,7 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5314,6 +5408,7 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5410,6 +5505,7 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5510,6 +5606,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5606,6 +5703,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5706,6 +5804,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5802,6 +5901,7 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5894,6 +5994,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5986,6 +6087,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6078,6 +6180,7 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6174,6 +6277,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6270,6 +6374,7 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6384,6 +6489,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6480,6 +6586,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6572,6 +6679,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6658,6 +6766,7 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6744,6 +6853,7 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6830,6 +6940,7 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6922,6 +7033,7 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7008,6 +7120,7 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7104,6 +7217,7 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7200,6 +7314,7 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7296,6 +7411,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7392,6 +7508,7 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7488,6 +7605,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7584,6 +7702,7 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7684,6 +7803,7 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7784,6 +7904,7 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7884,6 +8005,7 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7980,6 +8102,7 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8080,6 +8203,7 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8190,6 +8314,7 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8286,6 +8411,7 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8382,6 +8508,7 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8478,6 +8605,7 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8574,6 +8702,7 @@
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8670,6 +8799,7 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8770,6 +8900,7 @@
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8866,6 +8997,7 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8962,6 +9094,7 @@
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9048,6 +9181,7 @@
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9158,6 +9292,7 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9244,6 +9379,7 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9330,6 +9466,7 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9416,6 +9553,7 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9502,6 +9640,7 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9588,6 +9727,7 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9680,6 +9820,7 @@
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9776,6 +9917,7 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9882,6 +10024,7 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9974,6 +10117,7 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10070,6 +10214,7 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10166,6 +10311,7 @@
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10262,6 +10408,7 @@
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10358,6 +10505,7 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10454,6 +10602,7 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10554,6 +10703,7 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10654,6 +10804,7 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10740,6 +10891,7 @@
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10826,6 +10978,7 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10922,6 +11075,7 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11008,6 +11162,7 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="e">
@@ -11090,6 +11245,7 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11176,6 +11332,7 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11262,6 +11419,7 @@
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11348,6 +11506,7 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11430,6 +11589,7 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11530,6 +11690,7 @@
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="e">
@@ -11604,6 +11765,7 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="e">
@@ -11678,6 +11840,7 @@
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="e">
@@ -11752,6 +11915,7 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="e">
@@ -11826,6 +11990,7 @@
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="e">
@@ -11900,6 +12065,7 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="e">
@@ -11974,6 +12140,7 @@
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="e">
@@ -12048,6 +12215,7 @@
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="e">
@@ -12122,6 +12290,7 @@
       <c r="AE125" t="inlineStr"/>
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="e">
@@ -12196,6 +12365,7 @@
       <c r="AE126" t="inlineStr"/>
       <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="e">
@@ -12270,6 +12440,7 @@
       <c r="AE127" t="inlineStr"/>
       <c r="AF127" t="inlineStr"/>
       <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="e">
@@ -12344,6 +12515,7 @@
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12444,6 +12616,7 @@
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12540,6 +12713,7 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -12632,6 +12806,7 @@
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr"/>
       <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -12724,6 +12899,7 @@
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12824,6 +13000,7 @@
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12924,6 +13101,7 @@
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13024,6 +13202,7 @@
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13120,6 +13299,7 @@
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13216,6 +13396,7 @@
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13316,6 +13497,7 @@
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13416,6 +13598,7 @@
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13516,6 +13699,7 @@
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13616,6 +13800,7 @@
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13712,6 +13897,7 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13808,6 +13994,7 @@
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13900,6 +14087,7 @@
       <c r="AE144" t="inlineStr"/>
       <c r="AF144" t="inlineStr"/>
       <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13992,6 +14180,7 @@
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -14074,6 +14263,7 @@
       <c r="AE146" t="inlineStr"/>
       <c r="AF146" t="inlineStr"/>
       <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -14156,6 +14346,7 @@
       <c r="AE147" t="inlineStr"/>
       <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -14238,6 +14429,7 @@
       <c r="AE148" t="inlineStr"/>
       <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -14320,6 +14512,7 @@
       <c r="AE149" t="inlineStr"/>
       <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -14402,6 +14595,7 @@
       <c r="AE150" t="inlineStr"/>
       <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -14484,6 +14678,7 @@
       <c r="AE151" t="inlineStr"/>
       <c r="AF151" t="inlineStr"/>
       <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -14566,6 +14761,7 @@
       <c r="AE152" t="inlineStr"/>
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -14648,6 +14844,7 @@
       <c r="AE153" t="inlineStr"/>
       <c r="AF153" t="inlineStr"/>
       <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -14730,6 +14927,7 @@
       <c r="AE154" t="inlineStr"/>
       <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14812,6 +15010,7 @@
       <c r="AE155" t="inlineStr"/>
       <c r="AF155" t="inlineStr"/>
       <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14908,6 +15107,7 @@
       <c r="AE156" t="inlineStr"/>
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15004,6 +15204,7 @@
       <c r="AE157" t="inlineStr"/>
       <c r="AF157" t="inlineStr"/>
       <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15096,6 +15297,7 @@
       <c r="AE158" t="inlineStr"/>
       <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="e">
@@ -15157,6 +15359,7 @@
       <c r="AE159" t="inlineStr"/>
       <c r="AF159" t="inlineStr"/>
       <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15255,6 +15458,7 @@
       <c r="AE160" t="inlineStr"/>
       <c r="AF160" t="inlineStr"/>
       <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15377,6 +15581,7 @@
       <c r="AE161" t="inlineStr"/>
       <c r="AF161" t="inlineStr"/>
       <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15485,6 +15690,7 @@
       <c r="AE162" t="inlineStr"/>
       <c r="AF162" t="inlineStr"/>
       <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="e">
@@ -15576,6 +15782,7 @@
       <c r="AE163" t="inlineStr"/>
       <c r="AF163" t="inlineStr"/>
       <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15683,6 +15890,7 @@
       <c r="AE164" t="inlineStr"/>
       <c r="AF164" t="inlineStr"/>
       <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15809,6 +16017,7 @@
       <c r="AE165" t="inlineStr"/>
       <c r="AF165" t="inlineStr"/>
       <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15908,6 +16117,7 @@
       <c r="AE166" t="inlineStr"/>
       <c r="AF166" t="inlineStr"/>
       <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15995,6 +16205,7 @@
       <c r="AE167" t="inlineStr"/>
       <c r="AF167" t="inlineStr"/>
       <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16105,6 +16316,7 @@
       <c r="AE168" t="inlineStr"/>
       <c r="AF168" t="inlineStr"/>
       <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16211,6 +16423,7 @@
       <c r="AE169" t="inlineStr"/>
       <c r="AF169" t="inlineStr"/>
       <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16319,6 +16532,7 @@
       <c r="AE170" t="inlineStr"/>
       <c r="AF170" t="inlineStr"/>
       <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16433,6 +16647,7 @@
       <c r="AE171" t="inlineStr"/>
       <c r="AF171" t="inlineStr"/>
       <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16547,6 +16762,7 @@
       <c r="AE172" t="inlineStr"/>
       <c r="AF172" t="inlineStr"/>
       <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16657,6 +16873,7 @@
       <c r="AE173" t="inlineStr"/>
       <c r="AF173" t="inlineStr"/>
       <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16771,6 +16988,7 @@
       <c r="AE174" t="inlineStr"/>
       <c r="AF174" t="inlineStr"/>
       <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16867,6 +17085,7 @@
       <c r="AE175" t="inlineStr"/>
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16963,6 +17182,7 @@
       <c r="AE176" t="inlineStr"/>
       <c r="AF176" t="inlineStr"/>
       <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17059,6 +17279,7 @@
       <c r="AE177" t="inlineStr"/>
       <c r="AF177" t="inlineStr"/>
       <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17155,6 +17376,7 @@
       <c r="AE178" t="inlineStr"/>
       <c r="AF178" t="inlineStr"/>
       <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17265,6 +17487,7 @@
       <c r="AE179" t="inlineStr"/>
       <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17379,6 +17602,7 @@
       <c r="AE180" t="inlineStr"/>
       <c r="AF180" t="inlineStr"/>
       <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17475,6 +17699,7 @@
       <c r="AE181" t="inlineStr"/>
       <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17601,6 +17826,7 @@
       <c r="AE182" t="inlineStr"/>
       <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17723,6 +17949,7 @@
       <c r="AE183" t="inlineStr"/>
       <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17819,6 +18046,7 @@
       <c r="AE184" t="inlineStr"/>
       <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17945,6 +18173,7 @@
       <c r="AE185" t="inlineStr"/>
       <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18061,6 +18290,7 @@
       <c r="AE186" t="inlineStr"/>
       <c r="AF186" t="inlineStr"/>
       <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18157,6 +18387,7 @@
       <c r="AE187" t="inlineStr"/>
       <c r="AF187" t="inlineStr"/>
       <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18253,6 +18484,7 @@
       <c r="AE188" t="inlineStr"/>
       <c r="AF188" t="inlineStr"/>
       <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18349,6 +18581,7 @@
       <c r="AE189" t="inlineStr"/>
       <c r="AF189" t="inlineStr"/>
       <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18445,6 +18678,7 @@
       <c r="AE190" t="inlineStr"/>
       <c r="AF190" t="inlineStr"/>
       <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18539,6 +18773,7 @@
       <c r="AE191" t="inlineStr"/>
       <c r="AF191" t="inlineStr"/>
       <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18635,6 +18870,7 @@
       <c r="AE192" t="inlineStr"/>
       <c r="AF192" t="inlineStr"/>
       <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18727,6 +18963,7 @@
       <c r="AE193" t="inlineStr"/>
       <c r="AF193" t="inlineStr"/>
       <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18823,6 +19060,7 @@
       <c r="AE194" t="inlineStr"/>
       <c r="AF194" t="inlineStr"/>
       <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18915,6 +19153,7 @@
       <c r="AE195" t="inlineStr"/>
       <c r="AF195" t="inlineStr"/>
       <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19025,6 +19264,7 @@
       <c r="AE196" t="inlineStr"/>
       <c r="AF196" t="inlineStr"/>
       <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19147,6 +19387,7 @@
       <c r="AE197" t="inlineStr"/>
       <c r="AF197" t="inlineStr"/>
       <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19239,6 +19480,7 @@
       <c r="AE198" t="inlineStr"/>
       <c r="AF198" t="inlineStr"/>
       <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -19349,6 +19591,7 @@
       <c r="AE199" t="inlineStr"/>
       <c r="AF199" t="inlineStr"/>
       <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19441,6 +19684,7 @@
       <c r="AE200" t="inlineStr"/>
       <c r="AF200" t="inlineStr"/>
       <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -19533,6 +19777,7 @@
       <c r="AE201" t="inlineStr"/>
       <c r="AF201" t="inlineStr"/>
       <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -19655,6 +19900,7 @@
       <c r="AE202" t="inlineStr"/>
       <c r="AF202" t="inlineStr"/>
       <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19769,6 +20015,7 @@
       <c r="AE203" t="inlineStr"/>
       <c r="AF203" t="inlineStr"/>
       <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19883,6 +20130,7 @@
       <c r="AE204" t="inlineStr"/>
       <c r="AF204" t="inlineStr"/>
       <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -19975,6 +20223,7 @@
       <c r="AE205" t="inlineStr"/>
       <c r="AF205" t="inlineStr"/>
       <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -20067,6 +20316,7 @@
       <c r="AE206" t="inlineStr"/>
       <c r="AF206" t="inlineStr"/>
       <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20177,6 +20427,7 @@
       <c r="AE207" t="inlineStr"/>
       <c r="AF207" t="inlineStr"/>
       <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20299,6 +20550,7 @@
       <c r="AE208" t="inlineStr"/>
       <c r="AF208" t="inlineStr"/>
       <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -20391,6 +20643,7 @@
       <c r="AE209" t="inlineStr"/>
       <c r="AF209" t="inlineStr"/>
       <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -20513,6 +20766,7 @@
       <c r="AE210" t="inlineStr"/>
       <c r="AF210" t="inlineStr"/>
       <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -20639,6 +20893,7 @@
       <c r="AE211" t="inlineStr"/>
       <c r="AF211" t="inlineStr"/>
       <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20735,6 +20990,7 @@
       <c r="AE212" t="inlineStr"/>
       <c r="AF212" t="inlineStr"/>
       <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -20845,6 +21101,7 @@
       <c r="AE213" t="inlineStr"/>
       <c r="AF213" t="inlineStr"/>
       <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20941,6 +21198,7 @@
       <c r="AE214" t="inlineStr"/>
       <c r="AF214" t="inlineStr"/>
       <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -21033,6 +21291,7 @@
       <c r="AE215" t="inlineStr"/>
       <c r="AF215" t="inlineStr"/>
       <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -21125,6 +21384,7 @@
       <c r="AE216" t="inlineStr"/>
       <c r="AF216" t="inlineStr"/>
       <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -21231,6 +21491,7 @@
       <c r="AE217" t="inlineStr"/>
       <c r="AF217" t="inlineStr"/>
       <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21327,6 +21588,7 @@
       <c r="AE218" t="inlineStr"/>
       <c r="AF218" t="inlineStr"/>
       <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -21419,6 +21681,7 @@
       <c r="AE219" t="inlineStr"/>
       <c r="AF219" t="inlineStr"/>
       <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -21541,6 +21804,7 @@
       <c r="AE220" t="inlineStr"/>
       <c r="AF220" t="inlineStr"/>
       <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -21637,6 +21901,7 @@
       <c r="AE221" t="inlineStr"/>
       <c r="AF221" t="inlineStr"/>
       <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -21759,6 +22024,7 @@
       <c r="AE222" t="inlineStr"/>
       <c r="AF222" t="inlineStr"/>
       <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -21863,6 +22129,7 @@
       <c r="AE223" t="inlineStr"/>
       <c r="AF223" t="inlineStr"/>
       <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -21959,6 +22226,7 @@
       <c r="AE224" t="inlineStr"/>
       <c r="AF224" t="inlineStr"/>
       <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -22077,6 +22345,7 @@
       <c r="AE225" t="inlineStr"/>
       <c r="AF225" t="inlineStr"/>
       <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -22169,6 +22438,7 @@
       <c r="AE226" t="inlineStr"/>
       <c r="AF226" t="inlineStr"/>
       <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -22291,6 +22561,7 @@
       <c r="AE227" t="inlineStr"/>
       <c r="AF227" t="inlineStr"/>
       <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -22383,6 +22654,7 @@
       <c r="AE228" t="inlineStr"/>
       <c r="AF228" t="inlineStr"/>
       <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -22477,6 +22749,7 @@
       <c r="AE229" t="inlineStr"/>
       <c r="AF229" t="inlineStr"/>
       <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -22595,6 +22868,7 @@
       <c r="AE230" t="inlineStr"/>
       <c r="AF230" t="inlineStr"/>
       <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -22693,6 +22967,7 @@
       <c r="AE231" t="inlineStr"/>
       <c r="AF231" t="inlineStr"/>
       <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -22785,6 +23060,7 @@
       <c r="AE232" t="inlineStr"/>
       <c r="AF232" t="inlineStr"/>
       <c r="AG232" t="inlineStr"/>
+      <c r="AH232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -22881,6 +23157,7 @@
       <c r="AE233" t="inlineStr"/>
       <c r="AF233" t="inlineStr"/>
       <c r="AG233" t="inlineStr"/>
+      <c r="AH233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -22977,6 +23254,7 @@
       <c r="AE234" t="inlineStr"/>
       <c r="AF234" t="inlineStr"/>
       <c r="AG234" t="inlineStr"/>
+      <c r="AH234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -23073,6 +23351,7 @@
       <c r="AE235" t="inlineStr"/>
       <c r="AF235" t="inlineStr"/>
       <c r="AG235" t="inlineStr"/>
+      <c r="AH235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -23171,6 +23450,7 @@
       <c r="AE236" t="inlineStr"/>
       <c r="AF236" t="inlineStr"/>
       <c r="AG236" t="inlineStr"/>
+      <c r="AH236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -23263,6 +23543,7 @@
       <c r="AE237" t="inlineStr"/>
       <c r="AF237" t="inlineStr"/>
       <c r="AG237" t="inlineStr"/>
+      <c r="AH237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -23369,6 +23650,7 @@
       <c r="AE238" t="inlineStr"/>
       <c r="AF238" t="inlineStr"/>
       <c r="AG238" t="inlineStr"/>
+      <c r="AH238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -23467,6 +23749,7 @@
       <c r="AE239" t="inlineStr"/>
       <c r="AF239" t="inlineStr"/>
       <c r="AG239" t="inlineStr"/>
+      <c r="AH239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -23559,6 +23842,7 @@
       <c r="AE240" t="inlineStr"/>
       <c r="AF240" t="inlineStr"/>
       <c r="AG240" t="inlineStr"/>
+      <c r="AH240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -23651,6 +23935,7 @@
       <c r="AE241" t="inlineStr"/>
       <c r="AF241" t="inlineStr"/>
       <c r="AG241" t="inlineStr"/>
+      <c r="AH241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -23749,6 +24034,7 @@
       <c r="AE242" t="inlineStr"/>
       <c r="AF242" t="inlineStr"/>
       <c r="AG242" t="inlineStr"/>
+      <c r="AH242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -23841,6 +24127,7 @@
       <c r="AE243" t="inlineStr"/>
       <c r="AF243" t="inlineStr"/>
       <c r="AG243" t="inlineStr"/>
+      <c r="AH243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -23933,6 +24220,7 @@
       <c r="AE244" t="inlineStr"/>
       <c r="AF244" t="inlineStr"/>
       <c r="AG244" t="inlineStr"/>
+      <c r="AH244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -24025,6 +24313,7 @@
       <c r="AE245" t="inlineStr"/>
       <c r="AF245" t="inlineStr"/>
       <c r="AG245" t="inlineStr"/>
+      <c r="AH245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -24119,6 +24408,7 @@
       <c r="AE246" t="inlineStr"/>
       <c r="AF246" t="inlineStr"/>
       <c r="AG246" t="inlineStr"/>
+      <c r="AH246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -24211,6 +24501,7 @@
       <c r="AE247" t="inlineStr"/>
       <c r="AF247" t="inlineStr"/>
       <c r="AG247" t="inlineStr"/>
+      <c r="AH247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -24303,6 +24594,7 @@
       <c r="AE248" t="inlineStr"/>
       <c r="AF248" t="inlineStr"/>
       <c r="AG248" t="inlineStr"/>
+      <c r="AH248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -24395,6 +24687,7 @@
       <c r="AE249" t="inlineStr"/>
       <c r="AF249" t="inlineStr"/>
       <c r="AG249" t="inlineStr"/>
+      <c r="AH249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -24487,6 +24780,7 @@
       <c r="AE250" t="inlineStr"/>
       <c r="AF250" t="inlineStr"/>
       <c r="AG250" t="inlineStr"/>
+      <c r="AH250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -24581,6 +24875,7 @@
       <c r="AE251" t="inlineStr"/>
       <c r="AF251" t="inlineStr"/>
       <c r="AG251" t="inlineStr"/>
+      <c r="AH251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -24679,6 +24974,7 @@
       <c r="AE252" t="inlineStr"/>
       <c r="AF252" t="inlineStr"/>
       <c r="AG252" t="inlineStr"/>
+      <c r="AH252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -24777,6 +25073,7 @@
       <c r="AE253" t="inlineStr"/>
       <c r="AF253" t="inlineStr"/>
       <c r="AG253" t="inlineStr"/>
+      <c r="AH253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -24875,6 +25172,7 @@
       <c r="AE254" t="inlineStr"/>
       <c r="AF254" t="inlineStr"/>
       <c r="AG254" t="inlineStr"/>
+      <c r="AH254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -24967,6 +25265,7 @@
       <c r="AE255" t="inlineStr"/>
       <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="inlineStr"/>
+      <c r="AH255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -25063,6 +25362,7 @@
       <c r="AE256" t="inlineStr"/>
       <c r="AF256" t="inlineStr"/>
       <c r="AG256" t="inlineStr"/>
+      <c r="AH256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -25169,6 +25469,7 @@
       <c r="AE257" t="inlineStr"/>
       <c r="AF257" t="inlineStr"/>
       <c r="AG257" t="inlineStr"/>
+      <c r="AH257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -25267,6 +25568,7 @@
       <c r="AE258" t="inlineStr"/>
       <c r="AF258" t="inlineStr"/>
       <c r="AG258" t="inlineStr"/>
+      <c r="AH258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -25362,6 +25664,7 @@
       <c r="AE259" t="inlineStr"/>
       <c r="AF259" t="inlineStr"/>
       <c r="AG259" t="inlineStr"/>
+      <c r="AH259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -25474,6 +25777,7 @@
       <c r="AE260" t="inlineStr"/>
       <c r="AF260" t="inlineStr"/>
       <c r="AG260" t="inlineStr"/>
+      <c r="AH260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -25570,6 +25874,7 @@
       <c r="AE261" t="inlineStr"/>
       <c r="AF261" t="inlineStr"/>
       <c r="AG261" t="inlineStr"/>
+      <c r="AH261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -25668,6 +25973,7 @@
       <c r="AE262" t="inlineStr"/>
       <c r="AF262" t="inlineStr"/>
       <c r="AG262" t="inlineStr"/>
+      <c r="AH262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -25760,6 +26066,7 @@
       <c r="AE263" t="inlineStr"/>
       <c r="AF263" t="inlineStr"/>
       <c r="AG263" t="inlineStr"/>
+      <c r="AH263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -25852,6 +26159,7 @@
       <c r="AE264" t="inlineStr"/>
       <c r="AF264" t="inlineStr"/>
       <c r="AG264" t="inlineStr"/>
+      <c r="AH264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -25938,6 +26246,7 @@
       <c r="AE265" t="inlineStr"/>
       <c r="AF265" t="inlineStr"/>
       <c r="AG265" t="inlineStr"/>
+      <c r="AH265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -26024,6 +26333,7 @@
       <c r="AE266" t="inlineStr"/>
       <c r="AF266" t="inlineStr"/>
       <c r="AG266" t="inlineStr"/>
+      <c r="AH266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -26123,6 +26433,7 @@
       <c r="AE267" t="inlineStr"/>
       <c r="AF267" t="inlineStr"/>
       <c r="AG267" t="inlineStr"/>
+      <c r="AH267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -26215,6 +26526,7 @@
       <c r="AE268" t="inlineStr"/>
       <c r="AF268" t="inlineStr"/>
       <c r="AG268" t="inlineStr"/>
+      <c r="AH268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -26313,6 +26625,7 @@
       <c r="AE269" t="inlineStr"/>
       <c r="AF269" t="inlineStr"/>
       <c r="AG269" t="inlineStr"/>
+      <c r="AH269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -26407,6 +26720,7 @@
       <c r="AE270" t="inlineStr"/>
       <c r="AF270" t="inlineStr"/>
       <c r="AG270" t="inlineStr"/>
+      <c r="AH270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -26493,6 +26807,7 @@
       <c r="AE271" t="inlineStr"/>
       <c r="AF271" t="inlineStr"/>
       <c r="AG271" t="inlineStr"/>
+      <c r="AH271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -26579,6 +26894,7 @@
       <c r="AE272" t="inlineStr"/>
       <c r="AF272" t="inlineStr"/>
       <c r="AG272" t="inlineStr"/>
+      <c r="AH272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -26665,6 +26981,7 @@
       <c r="AE273" t="inlineStr"/>
       <c r="AF273" t="inlineStr"/>
       <c r="AG273" t="inlineStr"/>
+      <c r="AH273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -26761,6 +27078,7 @@
       <c r="AE274" t="inlineStr"/>
       <c r="AF274" t="inlineStr"/>
       <c r="AG274" t="inlineStr"/>
+      <c r="AH274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -26853,6 +27171,7 @@
       <c r="AE275" t="inlineStr"/>
       <c r="AF275" t="inlineStr"/>
       <c r="AG275" t="inlineStr"/>
+      <c r="AH275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -26945,6 +27264,7 @@
       <c r="AE276" t="inlineStr"/>
       <c r="AF276" t="inlineStr"/>
       <c r="AG276" t="inlineStr"/>
+      <c r="AH276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -27051,6 +27371,7 @@
       <c r="AE277" t="inlineStr"/>
       <c r="AF277" t="inlineStr"/>
       <c r="AG277" t="inlineStr"/>
+      <c r="AH277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="e">
@@ -27129,6 +27450,7 @@
       <c r="AE278" t="inlineStr"/>
       <c r="AF278" t="inlineStr"/>
       <c r="AG278" t="inlineStr"/>
+      <c r="AH278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -27235,6 +27557,7 @@
       <c r="AE279" t="inlineStr"/>
       <c r="AF279" t="inlineStr"/>
       <c r="AG279" t="inlineStr"/>
+      <c r="AH279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -27342,6 +27665,7 @@
       <c r="AE280" t="inlineStr"/>
       <c r="AF280" t="inlineStr"/>
       <c r="AG280" t="inlineStr"/>
+      <c r="AH280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -27434,6 +27758,7 @@
       <c r="AE281" t="inlineStr"/>
       <c r="AF281" t="inlineStr"/>
       <c r="AG281" t="inlineStr"/>
+      <c r="AH281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -27520,6 +27845,7 @@
       <c r="AE282" t="inlineStr"/>
       <c r="AF282" t="inlineStr"/>
       <c r="AG282" t="inlineStr"/>
+      <c r="AH282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -27616,6 +27942,7 @@
       <c r="AE283" t="inlineStr"/>
       <c r="AF283" t="inlineStr"/>
       <c r="AG283" t="inlineStr"/>
+      <c r="AH283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -27708,6 +28035,7 @@
       <c r="AE284" t="inlineStr"/>
       <c r="AF284" t="inlineStr"/>
       <c r="AG284" t="inlineStr"/>
+      <c r="AH284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -27800,6 +28128,7 @@
       <c r="AE285" t="inlineStr"/>
       <c r="AF285" t="inlineStr"/>
       <c r="AG285" t="inlineStr"/>
+      <c r="AH285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -27900,6 +28229,7 @@
       <c r="AE286" t="inlineStr"/>
       <c r="AF286" t="inlineStr"/>
       <c r="AG286" t="inlineStr"/>
+      <c r="AH286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -27996,6 +28326,7 @@
       <c r="AE287" t="inlineStr"/>
       <c r="AF287" t="inlineStr"/>
       <c r="AG287" t="inlineStr"/>
+      <c r="AH287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -28092,6 +28423,7 @@
       <c r="AE288" t="inlineStr"/>
       <c r="AF288" t="inlineStr"/>
       <c r="AG288" t="inlineStr"/>
+      <c r="AH288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -28192,6 +28524,7 @@
       <c r="AE289" t="inlineStr"/>
       <c r="AF289" t="inlineStr"/>
       <c r="AG289" t="inlineStr"/>
+      <c r="AH289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -28292,6 +28625,7 @@
       <c r="AE290" t="inlineStr"/>
       <c r="AF290" t="inlineStr"/>
       <c r="AG290" t="inlineStr"/>
+      <c r="AH290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -28392,6 +28726,7 @@
       <c r="AE291" t="inlineStr"/>
       <c r="AF291" t="inlineStr"/>
       <c r="AG291" t="inlineStr"/>
+      <c r="AH291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -28492,6 +28827,7 @@
       <c r="AE292" t="inlineStr"/>
       <c r="AF292" t="inlineStr"/>
       <c r="AG292" t="inlineStr"/>
+      <c r="AH292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -28592,6 +28928,7 @@
       <c r="AE293" t="inlineStr"/>
       <c r="AF293" t="inlineStr"/>
       <c r="AG293" t="inlineStr"/>
+      <c r="AH293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -28688,6 +29025,7 @@
       <c r="AE294" t="inlineStr"/>
       <c r="AF294" t="inlineStr"/>
       <c r="AG294" t="inlineStr"/>
+      <c r="AH294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -28780,6 +29118,7 @@
       <c r="AE295" t="inlineStr"/>
       <c r="AF295" t="inlineStr"/>
       <c r="AG295" t="inlineStr"/>
+      <c r="AH295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -28880,6 +29219,7 @@
       <c r="AE296" t="inlineStr"/>
       <c r="AF296" t="inlineStr"/>
       <c r="AG296" t="inlineStr"/>
+      <c r="AH296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -28972,6 +29312,7 @@
       <c r="AE297" t="inlineStr"/>
       <c r="AF297" t="inlineStr"/>
       <c r="AG297" t="inlineStr"/>
+      <c r="AH297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -29068,6 +29409,7 @@
       <c r="AE298" t="inlineStr"/>
       <c r="AF298" t="inlineStr"/>
       <c r="AG298" t="inlineStr"/>
+      <c r="AH298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -29164,6 +29506,7 @@
       <c r="AE299" t="inlineStr"/>
       <c r="AF299" t="inlineStr"/>
       <c r="AG299" t="inlineStr"/>
+      <c r="AH299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -29246,6 +29589,7 @@
       <c r="AE300" t="inlineStr"/>
       <c r="AF300" t="inlineStr"/>
       <c r="AG300" t="inlineStr"/>
+      <c r="AH300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -29342,6 +29686,7 @@
       <c r="AE301" t="inlineStr"/>
       <c r="AF301" t="inlineStr"/>
       <c r="AG301" t="inlineStr"/>
+      <c r="AH301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -29438,6 +29783,7 @@
       <c r="AE302" t="inlineStr"/>
       <c r="AF302" t="inlineStr"/>
       <c r="AG302" t="inlineStr"/>
+      <c r="AH302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -29534,6 +29880,7 @@
       <c r="AE303" t="inlineStr"/>
       <c r="AF303" t="inlineStr"/>
       <c r="AG303" t="inlineStr"/>
+      <c r="AH303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -29630,6 +29977,7 @@
       <c r="AE304" t="inlineStr"/>
       <c r="AF304" t="inlineStr"/>
       <c r="AG304" t="inlineStr"/>
+      <c r="AH304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -29716,6 +30064,7 @@
       <c r="AE305" t="inlineStr"/>
       <c r="AF305" t="inlineStr"/>
       <c r="AG305" t="inlineStr"/>
+      <c r="AH305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -29802,6 +30151,7 @@
       <c r="AE306" t="inlineStr"/>
       <c r="AF306" t="inlineStr"/>
       <c r="AG306" t="inlineStr"/>
+      <c r="AH306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -29896,6 +30246,7 @@
       <c r="AE307" t="inlineStr"/>
       <c r="AF307" t="inlineStr"/>
       <c r="AG307" t="inlineStr"/>
+      <c r="AH307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -29988,6 +30339,7 @@
       <c r="AE308" t="inlineStr"/>
       <c r="AF308" t="inlineStr"/>
       <c r="AG308" t="inlineStr"/>
+      <c r="AH308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -30084,6 +30436,7 @@
       <c r="AE309" t="inlineStr"/>
       <c r="AF309" t="inlineStr"/>
       <c r="AG309" t="inlineStr"/>
+      <c r="AH309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -30180,6 +30533,7 @@
       <c r="AE310" t="inlineStr"/>
       <c r="AF310" t="inlineStr"/>
       <c r="AG310" t="inlineStr"/>
+      <c r="AH310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -30272,6 +30626,7 @@
       <c r="AE311" t="inlineStr"/>
       <c r="AF311" t="inlineStr"/>
       <c r="AG311" t="inlineStr"/>
+      <c r="AH311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -30372,6 +30727,7 @@
       <c r="AE312" t="inlineStr"/>
       <c r="AF312" t="inlineStr"/>
       <c r="AG312" t="inlineStr"/>
+      <c r="AH312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -30472,6 +30828,7 @@
       <c r="AE313" t="inlineStr"/>
       <c r="AF313" t="inlineStr"/>
       <c r="AG313" t="inlineStr"/>
+      <c r="AH313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -30572,6 +30929,7 @@
       <c r="AE314" t="inlineStr"/>
       <c r="AF314" t="inlineStr"/>
       <c r="AG314" t="inlineStr"/>
+      <c r="AH314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -30672,6 +31030,7 @@
       <c r="AE315" t="inlineStr"/>
       <c r="AF315" t="inlineStr"/>
       <c r="AG315" t="inlineStr"/>
+      <c r="AH315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -30764,6 +31123,7 @@
       <c r="AE316" t="inlineStr"/>
       <c r="AF316" t="inlineStr"/>
       <c r="AG316" t="inlineStr"/>
+      <c r="AH316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -30860,6 +31220,7 @@
       <c r="AE317" t="inlineStr"/>
       <c r="AF317" t="inlineStr"/>
       <c r="AG317" t="inlineStr"/>
+      <c r="AH317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -30956,6 +31317,7 @@
       <c r="AE318" t="inlineStr"/>
       <c r="AF318" t="inlineStr"/>
       <c r="AG318" t="inlineStr"/>
+      <c r="AH318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -31056,6 +31418,7 @@
       <c r="AE319" t="inlineStr"/>
       <c r="AF319" t="inlineStr"/>
       <c r="AG319" t="inlineStr"/>
+      <c r="AH319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -31148,6 +31511,7 @@
       <c r="AE320" t="inlineStr"/>
       <c r="AF320" t="inlineStr"/>
       <c r="AG320" t="inlineStr"/>
+      <c r="AH320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -31248,6 +31612,7 @@
       <c r="AE321" t="inlineStr"/>
       <c r="AF321" t="inlineStr"/>
       <c r="AG321" t="inlineStr"/>
+      <c r="AH321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -31340,6 +31705,7 @@
       <c r="AE322" t="inlineStr"/>
       <c r="AF322" t="inlineStr"/>
       <c r="AG322" t="inlineStr"/>
+      <c r="AH322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -31436,6 +31802,7 @@
       <c r="AE323" t="inlineStr"/>
       <c r="AF323" t="inlineStr"/>
       <c r="AG323" t="inlineStr"/>
+      <c r="AH323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -31528,6 +31895,7 @@
       <c r="AE324" t="inlineStr"/>
       <c r="AF324" t="inlineStr"/>
       <c r="AG324" t="inlineStr"/>
+      <c r="AH324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -31620,6 +31988,7 @@
       <c r="AE325" t="inlineStr"/>
       <c r="AF325" t="inlineStr"/>
       <c r="AG325" t="inlineStr"/>
+      <c r="AH325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -31712,6 +32081,7 @@
       <c r="AE326" t="inlineStr"/>
       <c r="AF326" t="inlineStr"/>
       <c r="AG326" t="inlineStr"/>
+      <c r="AH326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -31804,6 +32174,7 @@
       <c r="AE327" t="inlineStr"/>
       <c r="AF327" t="inlineStr"/>
       <c r="AG327" t="inlineStr"/>
+      <c r="AH327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -31896,6 +32267,7 @@
       <c r="AE328" t="inlineStr"/>
       <c r="AF328" t="inlineStr"/>
       <c r="AG328" t="inlineStr"/>
+      <c r="AH328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -31988,6 +32360,7 @@
       <c r="AE329" t="inlineStr"/>
       <c r="AF329" t="inlineStr"/>
       <c r="AG329" t="inlineStr"/>
+      <c r="AH329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -32080,6 +32453,7 @@
       <c r="AE330" t="inlineStr"/>
       <c r="AF330" t="inlineStr"/>
       <c r="AG330" t="inlineStr"/>
+      <c r="AH330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -32162,6 +32536,7 @@
       <c r="AE331" t="inlineStr"/>
       <c r="AF331" t="inlineStr"/>
       <c r="AG331" t="inlineStr"/>
+      <c r="AH331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -32254,6 +32629,7 @@
       <c r="AE332" t="inlineStr"/>
       <c r="AF332" t="inlineStr"/>
       <c r="AG332" t="inlineStr"/>
+      <c r="AH332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -32348,6 +32724,7 @@
       <c r="AE333" t="inlineStr"/>
       <c r="AF333" t="inlineStr"/>
       <c r="AG333" t="inlineStr"/>
+      <c r="AH333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -32442,6 +32819,7 @@
       <c r="AE334" t="inlineStr"/>
       <c r="AF334" t="inlineStr"/>
       <c r="AG334" t="inlineStr"/>
+      <c r="AH334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -32534,6 +32912,7 @@
       <c r="AE335" t="inlineStr"/>
       <c r="AF335" t="inlineStr"/>
       <c r="AG335" t="inlineStr"/>
+      <c r="AH335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -32626,6 +33005,7 @@
       <c r="AE336" t="inlineStr"/>
       <c r="AF336" t="inlineStr"/>
       <c r="AG336" t="inlineStr"/>
+      <c r="AH336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -32718,6 +33098,7 @@
       <c r="AE337" t="inlineStr"/>
       <c r="AF337" t="inlineStr"/>
       <c r="AG337" t="inlineStr"/>
+      <c r="AH337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -32810,6 +33191,7 @@
       <c r="AE338" t="inlineStr"/>
       <c r="AF338" t="inlineStr"/>
       <c r="AG338" t="inlineStr"/>
+      <c r="AH338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -32896,6 +33278,7 @@
       <c r="AE339" t="inlineStr"/>
       <c r="AF339" t="inlineStr"/>
       <c r="AG339" t="inlineStr"/>
+      <c r="AH339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -32982,6 +33365,7 @@
       <c r="AE340" t="inlineStr"/>
       <c r="AF340" t="inlineStr"/>
       <c r="AG340" t="inlineStr"/>
+      <c r="AH340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -33068,6 +33452,7 @@
       <c r="AE341" t="inlineStr"/>
       <c r="AF341" t="inlineStr"/>
       <c r="AG341" t="inlineStr"/>
+      <c r="AH341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -33154,6 +33539,7 @@
       <c r="AE342" t="inlineStr"/>
       <c r="AF342" t="inlineStr"/>
       <c r="AG342" t="inlineStr"/>
+      <c r="AH342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -33240,6 +33626,7 @@
       <c r="AE343" t="inlineStr"/>
       <c r="AF343" t="inlineStr"/>
       <c r="AG343" t="inlineStr"/>
+      <c r="AH343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -33326,6 +33713,7 @@
       <c r="AE344" t="inlineStr"/>
       <c r="AF344" t="inlineStr"/>
       <c r="AG344" t="inlineStr"/>
+      <c r="AH344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -33426,6 +33814,7 @@
       <c r="AE345" t="inlineStr"/>
       <c r="AF345" t="inlineStr"/>
       <c r="AG345" t="inlineStr"/>
+      <c r="AH345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -33522,6 +33911,7 @@
       <c r="AE346" t="inlineStr"/>
       <c r="AF346" t="inlineStr"/>
       <c r="AG346" t="inlineStr"/>
+      <c r="AH346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -33622,6 +34012,7 @@
       <c r="AE347" t="inlineStr"/>
       <c r="AF347" t="inlineStr"/>
       <c r="AG347" t="inlineStr"/>
+      <c r="AH347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -33718,6 +34109,7 @@
       <c r="AE348" t="inlineStr"/>
       <c r="AF348" t="inlineStr"/>
       <c r="AG348" t="inlineStr"/>
+      <c r="AH348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -33818,6 +34210,7 @@
       <c r="AE349" t="inlineStr"/>
       <c r="AF349" t="inlineStr"/>
       <c r="AG349" t="inlineStr"/>
+      <c r="AH349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -33918,6 +34311,7 @@
       <c r="AE350" t="inlineStr"/>
       <c r="AF350" t="inlineStr"/>
       <c r="AG350" t="inlineStr"/>
+      <c r="AH350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -34014,6 +34408,7 @@
       <c r="AE351" t="inlineStr"/>
       <c r="AF351" t="inlineStr"/>
       <c r="AG351" t="inlineStr"/>
+      <c r="AH351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -34114,6 +34509,7 @@
       <c r="AE352" t="inlineStr"/>
       <c r="AF352" t="inlineStr"/>
       <c r="AG352" t="inlineStr"/>
+      <c r="AH352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -34208,6 +34604,7 @@
       <c r="AE353" t="inlineStr"/>
       <c r="AF353" t="inlineStr"/>
       <c r="AG353" t="inlineStr"/>
+      <c r="AH353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -34300,6 +34697,7 @@
       <c r="AE354" t="inlineStr"/>
       <c r="AF354" t="inlineStr"/>
       <c r="AG354" t="inlineStr"/>
+      <c r="AH354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -34396,6 +34794,7 @@
       <c r="AE355" t="inlineStr"/>
       <c r="AF355" t="inlineStr"/>
       <c r="AG355" t="inlineStr"/>
+      <c r="AH355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -34488,6 +34887,7 @@
       <c r="AE356" t="inlineStr"/>
       <c r="AF356" t="inlineStr"/>
       <c r="AG356" t="inlineStr"/>
+      <c r="AH356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -34584,6 +34984,7 @@
       <c r="AE357" t="inlineStr"/>
       <c r="AF357" t="inlineStr"/>
       <c r="AG357" t="inlineStr"/>
+      <c r="AH357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -34680,6 +35081,7 @@
       <c r="AE358" t="inlineStr"/>
       <c r="AF358" t="inlineStr"/>
       <c r="AG358" t="inlineStr"/>
+      <c r="AH358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -34772,6 +35174,7 @@
       <c r="AE359" t="inlineStr"/>
       <c r="AF359" t="inlineStr"/>
       <c r="AG359" t="inlineStr"/>
+      <c r="AH359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -34864,6 +35267,7 @@
       <c r="AE360" t="inlineStr"/>
       <c r="AF360" t="inlineStr"/>
       <c r="AG360" t="inlineStr"/>
+      <c r="AH360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -34952,6 +35356,7 @@
       <c r="AE361" t="inlineStr"/>
       <c r="AF361" t="inlineStr"/>
       <c r="AG361" t="inlineStr"/>
+      <c r="AH361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -35038,6 +35443,7 @@
       <c r="AE362" t="inlineStr"/>
       <c r="AF362" t="inlineStr"/>
       <c r="AG362" t="inlineStr"/>
+      <c r="AH362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -35134,6 +35540,7 @@
       <c r="AE363" t="inlineStr"/>
       <c r="AF363" t="inlineStr"/>
       <c r="AG363" t="inlineStr"/>
+      <c r="AH363" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35146,7 +35553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35172,7 +35579,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Extras</t>
+          <t>Add-ons needed</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -35223,6 +35630,16 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>irrelevantFeatures</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Gained by plan (not currently in project)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
@@ -35263,44 +35680,65 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS NORDEN</t>
+          <t xml:space="preserve">LITASCO S.A.
+</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shipowner</t>
+          <t>Commodity Trader</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAccidentsActivity, nasAgGridTable, riskRanking, shadowFleetVOIs, softAoi</t>
+          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>omer</t>
+          <t>Omer</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1764173801</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1765102941</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Commodity Trader Core</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk", "sendHeartbeat", "weatherLayer"]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>omer check 20</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -35321,55 +35759,98 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, stsClassification</t>
+          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>omer</t>
+          <t>Omer</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1764863925</v>
+        <v>1765103372</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>["enableODRPermissionsForAllUsers", "hideMapTimelineOnVesselProfile", "maiExpertVesselAdverseMedia", "maiExpertVesselSummary", "nasAddVesselsToVoi", "nasPremiumCsvColumns", "organizationDefinedRisk", "stsClassification"]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>["hideBorderSecurityRisk", "hideSafetyRisk", "sendHeartbeat"]</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>["activitySequences", "darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasTransmissionInAreaActivityType", "newNasSideBarDesign", "trafficLanes", "userAlreadyLoggedInWarning", "warRiskArea", "weatherLayer"]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>["activitySequences", "darkFleetVOI", "grayFleetVOI", "nasAccidentsActivity", "nasTransmissionInAreaActivityType", "newNasSideBarDesign", "trafficLanes", "warRiskArea"]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>["userAlreadyLoggedInWarning", "weatherLayer"]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>["Companies Add-on", "MAI Expert", "NAS Premium CSV Columns", "STS Classification", "hideBorderSecurityRisk", "hideSafetyRisk", "sendHeartbeat", "userAlreadyLoggedInWarning", "weatherLayer"]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>omer check 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Generali France
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Insurer Advanced</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1765108586</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Insurer Advanced</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>["Companies Add-on", "MAI Expert", "UBO", "Wet Cargo", "hideBorderSecurityRisk", "hideRuleEngine", "hideSafetyRisk", "userAlreadyLoggedInWarning"]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Omer Check 99</t>
         </is>
       </c>
     </row>
@@ -35384,7 +35865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40272,7 +40753,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>nasAgGridTable</t>
         </is>
       </c>
     </row>
@@ -40284,7 +40765,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>newNasRiskDesign</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -40296,7 +40777,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>newNasRiskDesign</t>
         </is>
       </c>
     </row>
@@ -40308,7 +40789,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>searchDraftBreadthFilters</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -40320,7 +40801,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>softAoinasAgGridTable</t>
+          <t>searchDraftBreadthFilters</t>
         </is>
       </c>
     </row>
@@ -40332,7 +40813,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>trafficLanes</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -40344,7 +40825,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>uncertaintyArea</t>
+          <t>trafficLanes</t>
         </is>
       </c>
     </row>
@@ -40356,7 +40837,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>uncertaintyArea</t>
         </is>
       </c>
     </row>
@@ -40368,7 +40849,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -40379,6 +40860,18 @@
         </is>
       </c>
       <c r="B416" t="inlineStr">
+        <is>
+          <t>warRiskArea</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
         <is>
           <t>weatherLayer</t>
         </is>
@@ -40421,12 +40914,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Add-on Plans</t>
+          <t>Add-ons needed</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Extras</t>
+          <t>Applied Add-on Plans</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -40507,14 +41000,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -40523,7 +41020,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -40548,14 +41045,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking, Companies Add-on, UBO</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, riskRanking, softAoi, uboData</t>
+          <t>Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -40564,7 +41065,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.347826086956522</v>
+        <v>9.652173913043478</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -40586,26 +41087,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, underwaterCables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.529411764705884</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -40630,14 +41135,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, uboData, underwaterCables, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -40646,7 +41155,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.647058823529413</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -40706,14 +41215,18 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -40722,7 +41235,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9.5</v>
+        <v>12.75</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -40817,14 +41330,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, hideMapTimelineOnVesselProfile, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAgGridTable, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -40833,7 +41350,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -40960,20 +41477,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -41004,14 +41525,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Export Center, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, UBO, Export Center</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi, uboData</t>
+          <t>Companies Add-on, UBO, Export Center</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -41020,7 +41545,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -41370,14 +41895,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -41386,7 +41915,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -41478,17 +42007,21 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Oil &amp; Energy Advanced</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, nasAgGridTable, organizationDefinedRisk, softAoi, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -41497,7 +42030,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.09090909090909</v>
+        <v>16</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -42252,14 +42785,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Companies Add-on, Underwater Cables, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, vesselsLists, Companies Add-on, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi, underwaterCables, vesselsLists</t>
+          <t>Companies Add-on, Underwater Cables</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -42268,7 +42805,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -42293,14 +42830,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Companies Add-on, Wet Cargo, Underwater Cables, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, Wet Cargo, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi, underwaterCables, wetCargoData</t>
+          <t>Companies Add-on, Wet Cargo, Underwater Cables</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -42309,7 +42850,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2.347826086956522</v>
+        <v>10.95652173913043</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -42334,14 +42875,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasPremiumCsvColumns, organizationDefinedRisk, visualLinkAnalysis, vlaMaiExpert, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -42350,7 +42895,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>7.586206896551722</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -42410,14 +42955,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -42426,7 +42975,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3999999999999986</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -42451,14 +43000,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, nasCompanyToggles, organizationDefinedRisk, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>nasCompanyToggles, organizationDefinedRisk, riskRanking, softAoi, stsClassification, uboData, underwaterCables, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -42467,7 +43020,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -42492,14 +43045,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasPremiumCsvColumns, planetOverlay, softAoi, uboData, vlaMaiExpert, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -42508,7 +43065,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -42533,14 +43090,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, vesselsLists, vlaMaiExpert, Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cddScreening, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, uboData, vesselsLists, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -42549,7 +43110,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -42609,14 +43170,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, uboData, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -42625,7 +43190,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2.444444444444443</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -42650,14 +43215,18 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -42666,7 +43235,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -42691,10 +43260,14 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -42767,14 +43340,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -42783,7 +43360,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3.199999999999999</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -42919,14 +43496,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -42935,7 +43516,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3.714285714285715</v>
+        <v>14</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -43241,26 +43822,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -43285,14 +43870,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasExportLargeCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasExportLargeCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, softAoi, stsClassification, uboData, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -43326,14 +43915,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Companies Add-on, Export Center, Underwater Cables, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, Export Center, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, exportCenter, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, underwaterCables</t>
+          <t>Companies Add-on, Export Center, Underwater Cables</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -43342,7 +43935,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -43402,23 +43995,27 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2.666666666666668</v>
+        <v>12</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -43618,14 +44215,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -43634,7 +44235,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>4.363636363636363</v>
+        <v>11.09090909090909</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -43659,14 +44260,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -43675,7 +44280,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>2.666666666666668</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -43700,14 +44305,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -43716,7 +44325,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>13.2</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -43778,14 +44387,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, Companies Add-on, MAI Expert, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, softAoi, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -43794,7 +44407,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>4.956521739130434</v>
+        <v>10.26086956521739</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -44072,14 +44685,18 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -44088,7 +44705,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1.483870967741936</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -44148,23 +44765,27 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Companies Add-on, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi</t>
+          <t>Companies Add-on</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>3.043478260869565</v>
+        <v>12.95652173913043</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -44224,14 +44845,18 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, underwaterCables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -44240,7 +44865,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>4.285714285714285</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -44265,14 +44890,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -44281,7 +44910,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4444444444444429</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -44722,14 +45351,18 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, maiExpertLanguageSettings, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, maiExpertLanguageSettings, nasAgGridTable, organizationDefinedRisk, softAoi, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -44738,7 +45371,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>8.875</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -45148,14 +45781,18 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, mapScale, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, turnOffTransmissionRuleEngine, voiNoLimit, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, mapScale, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, stsClassification, turnOffTransmissionRuleEngine, visualLinkAnalysis, voiNoLimit</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -45189,14 +45826,18 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>adverseMediaWithinVesselSummary, areaInvestigation, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, stsClassification, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -45205,7 +45846,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>7.586206896551722</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -45300,14 +45941,18 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Companies Add-on, STS Classification, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportLargeCsv, Companies Add-on, STS Classification</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, stsClassification</t>
+          <t>Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -45316,7 +45961,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>9.555555555555555</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -45338,26 +45983,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>8</v>
-      </c>
-      <c r="G134" t="n">
-        <v>4</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -45414,16 +46063,24 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -45489,14 +46146,18 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, STS Classification, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, Companies Add-on, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, stsClassification, uboData</t>
+          <t>Companies Add-on, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -45505,7 +46166,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>2.516129032258064</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -45530,14 +46191,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, organizationDefinedRisk, softAoi, uboData, voiRemoveCounter</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -45638,26 +46303,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>15.2</v>
+        <v>17.2</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -45682,14 +46351,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, nasAddVesselsToVoi, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, uboData, voiRemoveCounter</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -45723,14 +46396,18 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Companies Add-on, STS Classification, areaInvestigation, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportLargeCsv, Companies Add-on, STS Classification</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>areaInvestigation, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, stsClassification</t>
+          <t>Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -45739,7 +46416,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -45764,23 +46441,27 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, smugglingAndComplianceRisksSearchAPI, Companies Add-on, STS Classification</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, nasAgGridTable, smugglingAndComplianceRisksSearchAPI, stsClassification</t>
+          <t>Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -46173,14 +46854,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newsFeed, organizationDefinedRisk, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -46189,7 +46874,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -46214,14 +46899,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newsFeed, organizationDefinedRisk, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -46230,7 +46919,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -46255,14 +46944,18 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, vlaMaiExpert, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -46271,7 +46964,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>9.307692307692307</v>
+        <v>12.46153846153846</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -46357,14 +47050,18 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -46373,7 +47070,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -46398,23 +47095,27 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideBorderSecurityRisk, maiExpertLanguageSettings, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -46439,14 +47140,18 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed, exportTrackVoyages, hideBorderSecurityRisk, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>cddScreening, exportCenter, exportTrackVoyages, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newsFeed, organizationDefinedRisk, riskRanking, stsClassification, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -46455,7 +47160,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>4.764705882352942</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -46480,8 +47185,16 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
@@ -46517,14 +47230,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, nasCompanyToggles, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapModule, hideMapTimelineOnVesselProfile, nasCompanyToggles, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -46533,7 +47250,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>7.727272727272727</v>
+        <v>14.45454545454545</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -46624,14 +47341,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, softAoi</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -46640,7 +47361,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>12.66666666666667</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -46665,14 +47386,18 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed, Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>newsFeed</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -46681,7 +47406,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>18</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -46706,14 +47431,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, uboData</t>
+          <t>Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -46722,7 +47451,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>10.95652173913043</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -46747,14 +47476,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, uboData, visualLinkAnalysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -46763,7 +47496,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -46788,14 +47521,18 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, CDD Screening, STS Classification, hideBorderSecurityRisk, hideMapModule, vesselShare, Companies Add-on, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>cddScreening, hideBorderSecurityRisk, hideMapModule, stsClassification, vesselShare, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -46804,7 +47541,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>4.363636363636363</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -46829,14 +47566,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, vesselsLists</t>
+          <t>Companies Add-on</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -46845,7 +47586,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>7.652173913043478</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -46870,14 +47611,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -46886,7 +47631,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>6.551724137931036</v>
+        <v>12.62068965517241</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -46911,23 +47656,27 @@
           <t>Financial Institutions Advanced</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, containersOfInterest, nasCompanyToggles, ofvMapLandEvents, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cddScreening, containersOfInterest, nasAgGridTable, nasCompanyToggles, ofvMapLandEvents</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>9.199999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -46952,14 +47701,18 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -46968,7 +47721,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>11.30769230769231</v>
+        <v>13.30769230769231</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -46993,14 +47746,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -47009,7 +47766,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>11.72727272727273</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -47071,14 +47828,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, softAoi, uboData, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -47087,7 +47848,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>10</v>
+        <v>15.2</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -47109,26 +47870,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>cddScreening, exportCenter, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, nasAgGridTable</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>9.615384615384617</v>
+        <v>17.92307692307692</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -47153,14 +47918,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -47169,7 +47938,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>12.26086956521739</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -47191,26 +47960,30 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, riskRanking, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F182" t="n">
+        <v>2</v>
+      </c>
+      <c r="G182" t="n">
         <v>4</v>
       </c>
-      <c r="G182" t="n">
-        <v>5</v>
-      </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>11.56521739130435</v>
+        <v>15.56521739130435</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -47232,26 +48005,30 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>cddScreening, exportCenter, hideMapTimelineOnVesselProfile, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>12</v>
+        <v>20.5</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -47308,26 +48085,30 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>cddScreening, exportCenter, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasPremiumCsvColumns, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>6.461538461538463</v>
+        <v>17.92307692307692</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -47352,14 +48133,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, useRefreshToken, Companies Add-on, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData, useRefreshToken, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -47368,7 +48153,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -47390,17 +48175,21 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>Oil &amp; Energy Advanced</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>nasExportLargeCsv, nasPremiumCsvColumns, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -47409,7 +48198,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>15.92307692307692</v>
+        <v>21.07692307692308</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -47716,14 +48505,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Companies Add-on, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails, Companies Add-on, STS Classification</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails</t>
+          <t>Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -47732,7 +48525,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>2.482758620689657</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -47754,26 +48547,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>19.92307692307692</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -47833,14 +48630,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -47849,7 +48650,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>7.652173913043478</v>
+        <v>14.26086956521739</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -47874,14 +48675,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Companies Add-on, STS Classification, News Feed, hideComplianceRisk, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideComplianceRisk, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, softAoi</t>
+          <t>Companies Add-on, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -47890,7 +48695,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>6.444444444444443</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -47950,14 +48755,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasExportMediumCsv, nasPremiumCsvColumns, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -47966,7 +48775,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -47988,26 +48797,30 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>cddScreening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, softAoi, useRefreshToken</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>5.777777777777779</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -48029,26 +48842,30 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, softAoi, vesselsLists, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>4.620689655172413</v>
+        <v>9.655172413793103</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -48143,14 +48960,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, riskRanking, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -48159,7 +48980,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>8.461538461538463</v>
+        <v>16.76923076923077</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -48181,26 +49002,30 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>cddScreening, exportCenter, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, softAoi, underwaterCables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>11.41176470588236</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -48260,14 +49085,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, riskRanking, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -48276,7 +49105,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>10</v>
+        <v>15.2</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -48301,14 +49130,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, Companies Add-on, UBO</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, softAoi, uboData</t>
+          <t>Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -48317,7 +49150,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -48342,14 +49175,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -48358,7 +49195,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -48383,14 +49220,18 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -48399,7 +49240,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -48424,14 +49265,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -48440,7 +49285,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -48465,14 +49310,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, newAdvancedSearch, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, newAdvancedSearch, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -48481,7 +49330,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>15.09090909090909</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -48506,14 +49355,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasPremiumCsvColumns, newAdvancedSearch, softAoi, uboData, underwaterCables, useRefreshToken</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -48522,7 +49375,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -48547,14 +49400,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, newsFeed, softAoi</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -48563,7 +49420,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -48588,14 +49445,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>companyProfile, exploreCompanies, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -48604,7 +49465,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>10.36363636363636</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -48629,14 +49490,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, nasPremiumCsvColumns, newAdvancedSearch, softAoi, uboData, underwaterCables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -48645,7 +49510,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>6.875</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -48670,14 +49535,18 @@
           <t>Insurer Core</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, visualLinkAnalysis, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -48686,7 +49555,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1.928571428571429</v>
+        <v>14.21428571428571</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -48711,8 +49580,16 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Companies Add-on, MAI Expert, Wet Cargo</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
+        </is>
+      </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
@@ -48748,14 +49625,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -48764,7 +49645,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -48786,26 +49667,30 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, newsFeed, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>10.62068965517241</v>
+        <v>16.68965517241379</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -48830,14 +49715,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, nasAddVesselsToVoi, useRefreshToken, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, softAoi, uboData, useRefreshToken, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -48846,7 +49735,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>6.451612903225804</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -48868,26 +49757,30 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasExportMediumCsv, softAoi</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>15.6</v>
+        <v>17.6</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -48912,14 +49805,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, newAdvancedSearch, uboData</t>
+          <t>Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -48928,7 +49825,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>12.95652173913043</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -48953,14 +49850,18 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasCompanyToggles, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -48969,7 +49870,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>7.8125</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -48994,14 +49895,18 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>exportCenter, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -49010,7 +49915,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>12.38709677419355</v>
+        <v>20.32258064516129</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -49035,14 +49940,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>STS Classification, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, STS Classification</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>hideComplianceRisk, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
+          <t>STS Classification</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -49051,7 +49960,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -49076,14 +49985,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -49092,7 +50005,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>14.88888888888889</v>
+        <v>18</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -49117,14 +50030,18 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>exportCenter, hideMapTimelineOnVesselProfile, nasExportMediumCsv, organizationDefinedRisk, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G231" t="n">
         <v>4</v>
@@ -49133,7 +50050,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>6.461538461538463</v>
+        <v>14.76923076923077</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -49267,12 +50184,12 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
         <v>4</v>
       </c>
@@ -49343,14 +50260,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch</t>
+          <t>Companies Add-on</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -49359,7 +50280,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0.5</v>
+        <v>10.25</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -49384,14 +50305,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -49400,7 +50325,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>14.46153846153846</v>
+        <v>17.61538461538462</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -49425,14 +50350,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -49441,7 +50370,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>5</v>
+        <v>14.46153846153846</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -49466,14 +50395,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -49482,7 +50415,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>12.21428571428571</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -49542,14 +50475,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, softAoi, vesselsLists, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G242" t="n">
         <v>5</v>
@@ -49558,7 +50495,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -49583,14 +50520,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch</t>
+          <t>Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -49599,7 +50540,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0.6923076923076916</v>
+        <v>12.15384615384615</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -49624,14 +50565,18 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -49640,7 +50585,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>18</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -49700,14 +50645,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -49716,7 +50665,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>5.555555555555555</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -49741,14 +50690,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, Companies Add-on, UBO</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, nasAgGridTable, uboData</t>
+          <t>Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -49757,7 +50710,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>10.8</v>
+        <v>16</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -49782,14 +50735,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, STS Classification, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, uboData, vesselsLists</t>
+          <t>Companies Add-on, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -49798,7 +50755,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -49823,14 +50780,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, newAdvancedSearch, uboData</t>
+          <t>Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -49839,7 +50800,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -49864,14 +50825,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, softAoi, vesselsLists</t>
+          <t>Companies Add-on</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -49880,7 +50845,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>6.444444444444443</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -49905,14 +50870,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -49921,7 +50890,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -50016,14 +50985,18 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, newsFeed, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -50032,7 +51005,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>5.41935483870968</v>
+        <v>16.32258064516129</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -50057,14 +51030,18 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>MAI Expert, nasAddVesselsToVoi, riskRanking, MAI Expert</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, riskRanking</t>
+          <t>MAI Expert</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -50073,7 +51050,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -50098,14 +51075,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -50114,7 +51095,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>6.071428571428569</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -50136,26 +51117,30 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, newsFeed, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -50250,14 +51235,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, CDD Screening</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapModule, hideMapTimelineOnVesselProfile, softAoi</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -50266,7 +51255,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>9.142857142857142</v>
+        <v>14.21428571428571</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -50291,14 +51280,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -50307,7 +51300,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -50402,14 +51395,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>cddScreening, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, uboData</t>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -50418,7 +51415,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -50764,14 +51761,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, riskRanking, softAoi, uboData, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -50780,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>10.46153846153846</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -50805,14 +51806,18 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -50821,7 +51826,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>13.28571428571429</v>
+        <v>18.35714285714286</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -50881,14 +51886,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -50897,7 +51906,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>11.77777777777778</v>
+        <v>18</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -50954,26 +51963,30 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, organizationDefinedRisk, softAoi, underwaterCables, visualLinkAnalysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>4.764705882352942</v>
+        <v>14.52941176470588</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -50998,14 +52011,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>cddScreening, companyProfile, enableExportCompanyPdfReport, exploreCompanies, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, newAdvancedSearch, newsFeed, savedQueriesNotifications, stsClassification, uboData</t>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -51014,7 +52031,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>8.071428571428569</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -51039,14 +52056,18 @@
           <t>Bunkering Advanced</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, hideMapTimelineOnVesselProfile, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, newsFeed, uboData, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -51055,7 +52076,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>7.41935483870968</v>
+        <v>16.32258064516129</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -51217,17 +52238,21 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>Oil &amp; Energy Advanced</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, nasAgGridTable, nasCompanyToggles, nasExportLargeCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -51236,7 +52261,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0.2162162162162176</v>
+        <v>9.837837837837839</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -51261,14 +52286,18 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, iuuFishing, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideBorderSecurityRisk, iuuFishing, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, organizationDefinedRisk, stsClassification, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -51277,7 +52306,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>5.454545454545453</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -51299,26 +52328,30 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t>Financial Institutions Core</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, analyticsProxy, nasAddVesselsToVoi, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+        </is>
+      </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>analyticsProxy, hideSafetyRisk, nasAgGridTable, vlaMaiExpert, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>8.214285714285712</v>
+        <v>13.28571428571429</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -51343,14 +52376,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasPremiumCsvColumns, softAoi</t>
+          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -51359,7 +52396,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -51384,14 +52421,18 @@
           <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, nasAgGridTable, nasExportLargeCsv, newsFeed, organizationDefinedRisk, softAoi, stsClassification, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -51400,7 +52441,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0.3636363636363633</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -51460,14 +52501,18 @@
           <t>Insurer Advanced</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, areaMapper, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, planetOverlay, planetQuota, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>areaMapper, cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, planetOverlay, planetQuota, stsClassification, underwaterCables, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -51476,7 +52521,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>1.405405405405405</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -51603,17 +52648,21 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
+          <t>Oil &amp; Energy Advanced</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>areaInvestigation, enableODRPermissionsForAllUsers, exportCenter, fraudulentFlagRegistries, nasAgGridTable, nasCompanyToggles, nasExportLargeCsv, nasPremiumCsvColumns, newsFeed, organizationDefinedRisk, softAoi, stsClassification, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G296" t="n">
         <v>4</v>
@@ -51622,7 +52671,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>2.046511627906977</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -51682,14 +52731,18 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed</t>
+        </is>
+      </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, nasCompanyToggles, newsFeed, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, softAoi, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -51723,14 +52776,18 @@
           <t>Commodity Trader Advanced</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>cddScreening, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasAgGridTable, organizationDefinedRisk, softAoi, stsClassification, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -51739,7 +52796,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>9.8125</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -51836,14 +52893,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
+        </is>
+      </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAgGridTable, organizationDefinedRisk, stsClassification, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -51852,7 +52913,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>8.875</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -51912,14 +52973,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, windwardOwnershipData, Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportMediumCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, stsClassification, uboData, windwardOwnershipData</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G304" t="n">
         <v>5</v>
@@ -51928,7 +52993,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>4.516129032258064</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -52090,26 +53155,30 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasVesselsExportExtraLargeCSV, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>cddScreening, enableODRPermissionsForAllUsers, nasAgGridTable, nasPremiumCsvColumns, nasVesselsExportExtraLargeCSV, organizationDefinedRisk, softAoi, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>11.64705882352941</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
@@ -52131,26 +53200,30 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns</t>
+        </is>
+      </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, nasAgGridTable, nasExportLargeCsv, nasPremiumCsvColumns, organizationDefinedRisk, softAoi, stsClassification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G310" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>10.875</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
@@ -52172,26 +53245,30 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, nasCompanyToggles, nasExportMediumCsv, riskRanking, softAoi, stsClassification, underwaterCables, visualLinkAnalysis, vlaMaiExpert</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
@@ -52633,17 +53710,21 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>Oil &amp; Energy Advanced</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, voiNoLimit, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+        </is>
+      </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>courseDeviationActivity, maiExpertCompanySummary, nasAgGridTable, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, stsClassification, voiNoLimit</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -52652,7 +53733,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -52677,23 +53758,27 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Wet Cargo, hideBorderSecurityRisk, nasAddVesselsToVoi, Wet Cargo</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk, nasAddVesselsToVoi, wetCargoData</t>
+          <t>Wet Cargo</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>9</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
@@ -52715,16 +53800,24 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -52755,14 +53848,18 @@
           <t>Shipowners Advanced</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+        </is>
+      </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAgGridTable, softAoi, stsClassification, uboData, vesselsLists</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -52771,7 +53868,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>4.551724137931036</v>
+        <v>14.62068965517241</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -52793,26 +53890,30 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr"/>
+          <t>Shipowners Advanced</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+        </is>
+      </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>19.92307692307692</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -52837,14 +53938,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasAddVesselsToVoi, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, vesselsLists, voiNoLimit, Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>courseDeviationActivity, maiExpertCompanySummary, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasAgGridTable, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, stsClassification, vesselsLists, voiNoLimit, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -52878,14 +53983,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, newAdvancedSearch</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -52894,7 +54003,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>15.56521739130435</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -52954,14 +54063,18 @@
           <t>Shipowners Core</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, exploreCompanies, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications</t>
+          <t>Companies Add-on</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -52970,7 +54083,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1.636363636363637</v>
+        <v>11.72727272727273</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -53063,23 +54176,27 @@
           <t>Oil &amp; Energy Core</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G335" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -53629,14 +54746,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, Companies Add-on, MAI Expert</t>
+        </is>
+      </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasCompanyToggles</t>
+          <t>Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -53645,7 +54766,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>5.714285714285715</v>
+        <v>12.57142857142857</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -53670,14 +54791,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, softAoi, stsClassification, uboData, wetCargoData</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G352" t="n">
         <v>5</v>
@@ -53686,7 +54811,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>6.956521739130434</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -53781,14 +54906,18 @@
           <t>Bunkering Core</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>companyProfile, enableExportCompanyPdfReport, enableODRPermissionsForAllUsers, exploreCompanies, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, softAoi, uboData, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -53797,7 +54926,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>5.142857142857142</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -53857,14 +54986,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, organizationDefinedRisk, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G357" t="n">
         <v>3</v>
@@ -53873,7 +55006,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>1.652173913043478</v>
+        <v>13.56521739130435</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -53898,14 +55031,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr"/>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
+        </is>
+      </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, exportCenter, hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, softAoi, uboData, underwaterCables, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -53914,7 +55051,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>7.41935483870968</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -53974,14 +55111,18 @@
           <t>Financial Institutions Core</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasAddVesselsToVoi, nasExportMediumCsv, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, nasExportMediumCsv, stsClassification, vesselsLists, wetCargoData</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -53990,7 +55131,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -54015,14 +55156,18 @@
           <t>Commodity Trader Core</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking, Companies Add-on, MAI Expert, UBO</t>
+        </is>
+      </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, maiExpertVesselAdverseMedia, maiExpertVesselSummary, nasAddVesselsToVoi, riskRanking, softAoi, uboData</t>
+          <t>Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G361" t="n">
         <v>4</v>
@@ -54031,7 +55176,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>1.714285714285715</v>
+        <v>14</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -54157,7 +55302,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">

--- a/data/updated_migration.xlsx
+++ b/data/updated_migration.xlsx
@@ -809,29 +809,11 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Insurer Core</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
-        <v>1765103372</v>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>omer check 12</t>
-        </is>
-      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -35553,7 +35535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35743,7 +35725,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shoreline
+          <t xml:space="preserve">Generali France
 </t>
         </is>
       </c>
@@ -35754,12 +35736,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
+          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -35768,11 +35750,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1765103372</v>
+        <v>1765108586</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -35788,67 +35770,10 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>["Companies Add-on", "MAI Expert", "NAS Premium CSV Columns", "STS Classification", "hideBorderSecurityRisk", "hideSafetyRisk", "sendHeartbeat", "userAlreadyLoggedInWarning", "weatherLayer"]</t>
+          <t>["Companies Add-on", "MAI Expert", "UBO", "Wet Cargo", "hideBorderSecurityRisk", "hideRuleEngine", "hideSafetyRisk", "userAlreadyLoggedInWarning"]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
-        <is>
-          <t>omer check 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Generali France
-</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurer Advanced</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1765108586</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Insurer Advanced</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>["Companies Add-on", "MAI Expert", "UBO", "Wet Cargo", "hideBorderSecurityRisk", "hideRuleEngine", "hideSafetyRisk", "userAlreadyLoggedInWarning"]</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Omer Check 99</t>
         </is>
@@ -55302,7 +55227,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">

--- a/data/updated_migration.xlsx
+++ b/data/updated_migration.xlsx
@@ -917,16 +917,16 @@
         </is>
       </c>
       <c r="AF4" t="n">
-        <v>1765102941</v>
+        <v>1765120173</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking</t>
+          <t>riskRanking, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>omer check 20</t>
+          <t>Omer check</t>
         </is>
       </c>
     </row>
@@ -1334,29 +1334,11 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Insurer Advanced</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AF8" t="n">
-        <v>1765108586</v>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Omer Check 99</t>
-        </is>
-      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1635,11 +1617,29 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Bunkering Core</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>1765120257</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Omer Check</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -35535,7 +35535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35628,22 +35628,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Heidmar Inc</t>
+          <t xml:space="preserve">LITASCO S.A.
+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shipowner</t>
+          <t>Commodity Trader</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, nasAccidentsActivity, newAdvancedSearch, shadowFleetVOIs, softAoi, wetCargoData</t>
+          <t>riskRanking, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -35652,39 +35653,55 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1764168981</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1765120173</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Commodity Trader Core</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk"]}</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Omer check</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">LITASCO S.A.
+          <t xml:space="preserve">Arte Bunkering
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commodity Trader</t>
+          <t>Bunkering</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking</t>
+          <t>nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -35693,11 +35710,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1765102941</v>
+        <v>1765120257</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -35713,69 +35730,12 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk", "sendHeartbeat", "weatherLayer"]</t>
+          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideMapModule"]}</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>omer check 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Generali France
-</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Insurer Advanced</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1765108586</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Insurer Advanced</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>["Companies Add-on", "MAI Expert", "UBO", "Wet Cargo", "hideBorderSecurityRisk", "hideRuleEngine", "hideSafetyRisk", "userAlreadyLoggedInWarning"]</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Omer Check 99</t>
+          <t>Omer Check</t>
         </is>
       </c>
     </row>
@@ -35790,7 +35750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35926,7 +35886,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -35938,19 +35898,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shipowners Core</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
@@ -35962,7 +35922,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -35974,7 +35934,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -35986,7 +35946,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -35998,7 +35958,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36010,7 +35970,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36022,7 +35982,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36034,7 +35994,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36046,7 +36006,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36058,7 +36018,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36070,7 +36030,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -36082,7 +36042,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -36094,7 +36054,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -36106,7 +36066,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -36118,7 +36078,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -36130,7 +36090,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -36142,7 +36102,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36154,7 +36114,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36166,7 +36126,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36178,7 +36138,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36190,7 +36150,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -36202,31 +36162,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -36238,7 +36198,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -36250,7 +36210,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -36262,7 +36222,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36274,7 +36234,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36286,7 +36246,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36298,7 +36258,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36310,7 +36270,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36322,7 +36282,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36334,7 +36294,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -36346,7 +36306,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -36358,7 +36318,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -36370,7 +36330,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -36382,7 +36342,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -36394,7 +36354,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -36406,7 +36366,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36418,7 +36378,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>newNotificationUI</t>
         </is>
       </c>
     </row>
@@ -36430,7 +36390,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36442,7 +36402,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>newNotificationUI</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36454,7 +36414,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36466,7 +36426,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -36478,7 +36438,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -36490,7 +36450,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -36502,43 +36462,43 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36550,7 +36510,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -36562,7 +36522,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -36574,7 +36534,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36586,7 +36546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36598,7 +36558,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36610,7 +36570,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36622,7 +36582,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36634,7 +36594,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36646,7 +36606,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
@@ -36658,7 +36618,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -36670,43 +36630,43 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -36718,7 +36678,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -36730,7 +36690,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -36742,7 +36702,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36754,7 +36714,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36766,7 +36726,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -36778,7 +36738,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -36790,7 +36750,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -36802,7 +36762,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -36814,7 +36774,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -36826,7 +36786,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36838,7 +36798,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -36850,7 +36810,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -36862,7 +36822,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -36874,7 +36834,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -36886,7 +36846,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -36898,7 +36858,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -36910,7 +36870,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36922,7 +36882,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36934,7 +36894,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36946,7 +36906,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36958,7 +36918,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
@@ -36970,7 +36930,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -36982,43 +36942,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -37030,7 +36990,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -37042,7 +37002,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -37054,7 +37014,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37066,7 +37026,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37078,7 +37038,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37090,7 +37050,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37102,7 +37062,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37114,7 +37074,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37126,7 +37086,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -37138,7 +37098,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -37150,7 +37110,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -37162,7 +37122,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -37174,7 +37134,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -37186,7 +37146,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -37198,7 +37158,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -37210,7 +37170,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -37222,7 +37182,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -37234,7 +37194,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -37246,7 +37206,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
@@ -37258,7 +37218,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -37270,7 +37230,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -37282,55 +37242,55 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37342,7 +37302,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37354,7 +37314,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37366,7 +37326,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -37378,7 +37338,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -37390,7 +37350,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37402,7 +37362,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37414,7 +37374,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37426,7 +37386,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -37438,7 +37398,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -37450,7 +37410,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -37462,7 +37422,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -37474,7 +37434,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -37486,55 +37446,55 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37546,7 +37506,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37558,7 +37518,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37570,7 +37530,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -37582,7 +37542,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37594,7 +37554,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37606,7 +37566,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37618,7 +37578,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -37630,7 +37590,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -37642,7 +37602,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -37654,7 +37614,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -37666,7 +37626,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -37678,7 +37638,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -37690,7 +37650,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -37702,7 +37662,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -37714,55 +37674,55 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -37774,7 +37734,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -37786,7 +37746,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -37798,7 +37758,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -37810,7 +37770,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -37822,7 +37782,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -37834,7 +37794,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -37846,7 +37806,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -37858,7 +37818,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -37870,7 +37830,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -37882,7 +37842,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -37894,7 +37854,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -37906,7 +37866,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -37918,7 +37878,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -37930,7 +37890,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -37942,7 +37902,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -37954,7 +37914,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -37966,7 +37926,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
@@ -37978,7 +37938,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -37990,55 +37950,55 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38050,7 +38010,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38062,7 +38022,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -38074,7 +38034,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -38086,7 +38046,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -38098,7 +38058,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -38110,7 +38070,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -38122,7 +38082,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -38134,7 +38094,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -38146,7 +38106,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -38158,7 +38118,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -38170,7 +38130,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -38182,7 +38142,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -38194,7 +38154,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -38206,43 +38166,43 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38254,7 +38214,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38266,7 +38226,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38278,7 +38238,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -38290,7 +38250,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -38302,7 +38262,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -38314,7 +38274,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -38326,7 +38286,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -38338,7 +38298,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -38350,7 +38310,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -38362,7 +38322,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -38374,7 +38334,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -38386,7 +38346,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -38398,7 +38358,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -38410,7 +38370,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -38422,7 +38382,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -38434,7 +38394,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -38446,7 +38406,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
@@ -38458,31 +38418,31 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
@@ -38494,7 +38454,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -38506,7 +38466,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38518,7 +38478,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38530,7 +38490,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38542,7 +38502,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -38554,7 +38514,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -38566,7 +38526,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -38578,7 +38538,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -38590,7 +38550,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -38602,7 +38562,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -38614,7 +38574,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -38626,7 +38586,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -38638,7 +38598,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -38650,7 +38610,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -38662,7 +38622,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -38674,7 +38634,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -38686,7 +38646,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -38698,7 +38658,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -38710,7 +38670,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
@@ -38722,7 +38682,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -38734,31 +38694,31 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -38770,7 +38730,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38782,7 +38742,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38794,7 +38754,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -38806,7 +38766,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -38818,7 +38778,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -38830,7 +38790,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -38842,7 +38802,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
@@ -38854,7 +38814,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -38866,7 +38826,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>nasPremiumCsvColumns</t>
         </is>
       </c>
     </row>
@@ -38878,7 +38838,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -38890,7 +38850,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>nasPremiumCsvColumns</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -38902,7 +38862,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -38914,7 +38874,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -38926,7 +38886,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -38938,43 +38898,43 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -38986,7 +38946,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -38998,7 +38958,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -39010,7 +38970,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -39022,7 +38982,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -39034,7 +38994,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -39046,7 +39006,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -39058,7 +39018,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
@@ -39070,7 +39030,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -39082,7 +39042,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -39094,7 +39054,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -39106,7 +39066,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -39118,7 +39078,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -39130,7 +39090,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -39142,7 +39102,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -39154,7 +39114,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -39166,7 +39126,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
@@ -39178,55 +39138,55 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -39238,7 +39198,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -39250,7 +39210,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -39262,7 +39222,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -39274,7 +39234,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -39286,7 +39246,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -39298,7 +39258,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -39310,7 +39270,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
@@ -39322,7 +39282,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -39334,7 +39294,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -39346,7 +39306,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -39358,7 +39318,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -39370,7 +39330,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -39382,7 +39342,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -39394,7 +39354,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -39406,7 +39366,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -39418,7 +39378,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -39430,7 +39390,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
@@ -39442,7 +39402,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
@@ -39454,67 +39414,67 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -39526,7 +39486,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -39538,7 +39498,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -39550,7 +39510,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -39562,7 +39522,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -39574,7 +39534,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -39586,7 +39546,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -39598,7 +39558,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
@@ -39610,7 +39570,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -39622,7 +39582,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -39634,7 +39594,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -39646,7 +39606,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -39658,7 +39618,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -39670,7 +39630,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -39682,7 +39642,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -39694,7 +39654,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -39706,7 +39666,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -39718,7 +39678,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
@@ -39730,7 +39690,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
@@ -39742,7 +39702,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -39754,79 +39714,79 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -39838,7 +39798,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
@@ -39850,7 +39810,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -39862,7 +39822,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -39874,7 +39834,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -39886,7 +39846,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -39898,7 +39858,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -39910,7 +39870,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -39922,7 +39882,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -39934,7 +39894,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -39946,7 +39906,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
@@ -39958,79 +39918,79 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -40042,7 +40002,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -40054,7 +40014,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -40066,7 +40026,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -40078,7 +40038,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -40090,7 +40050,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -40102,7 +40062,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -40114,7 +40074,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -40126,7 +40086,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -40138,7 +40098,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -40150,7 +40110,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -40162,7 +40122,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -40174,7 +40134,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -40186,7 +40146,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -40198,7 +40158,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>vesselsLists</t>
         </is>
       </c>
     </row>
@@ -40210,7 +40170,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -40222,91 +40182,91 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>vesselsLists</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>hideBorderSecurityRisk</t>
         </is>
       </c>
     </row>
@@ -40318,7 +40278,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
@@ -40330,7 +40290,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideRuleEngine</t>
         </is>
       </c>
     </row>
@@ -40342,7 +40302,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
@@ -40354,7 +40314,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -40366,7 +40326,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -40378,7 +40338,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -40390,7 +40350,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -40402,7 +40362,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -40414,7 +40374,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -40426,7 +40386,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -40438,7 +40398,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -40450,7 +40410,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -40462,7 +40422,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -40474,7 +40434,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -40486,7 +40446,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>vesselsLists</t>
         </is>
       </c>
     </row>
@@ -40498,7 +40458,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>weatherLayer</t>
         </is>
       </c>
     </row>
@@ -40510,103 +40470,103 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>activitySequences</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>darkFleetVOI</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>sendHeartbeat</t>
+          <t>grayFleetVOI</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>vesselsLists</t>
+          <t>nasAgGridTable</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>newNasRiskDesign</t>
         </is>
       </c>
     </row>
@@ -40618,7 +40578,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>activitySequences</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -40630,7 +40590,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>darkFleetVOI</t>
+          <t>searchDraftBreadthFilters</t>
         </is>
       </c>
     </row>
@@ -40642,7 +40602,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>grayFleetVOI</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -40654,7 +40614,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>trafficLanes</t>
         </is>
       </c>
     </row>
@@ -40666,7 +40626,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>uncertaintyArea</t>
         </is>
       </c>
     </row>
@@ -40678,7 +40638,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>nasAgGridTable</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
@@ -40690,7 +40650,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
@@ -40701,102 +40661,6 @@
         </is>
       </c>
       <c r="B409" t="inlineStr">
-        <is>
-          <t>newNasRiskDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>newNasSideBarDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>searchDraftBreadthFilters</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>softAoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>trafficLanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>uncertaintyArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>userAlreadyLoggedInWarning</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>warRiskArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
         <is>
           <t>weatherLayer</t>
         </is>
@@ -40927,7 +40791,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -40936,16 +40800,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.142857142857142</v>
+        <v>12.21428571428571</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -40972,7 +40836,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, riskRanking, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -40981,16 +40845,16 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.652173913043478</v>
+        <v>16.26086956521739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -41017,7 +40881,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -41026,7 +40890,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -41035,7 +40899,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.529411764705884</v>
+        <v>3.647058823529413</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -41062,7 +40926,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -41071,7 +40935,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -41080,7 +40944,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.647058823529413</v>
+        <v>6.529411764705884</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -41142,7 +41006,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -41257,7 +41121,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, hideMapTimelineOnVesselProfile, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -41407,7 +41271,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -41416,7 +41280,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -41425,7 +41289,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.35714285714286</v>
+        <v>13.28571428571429</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -41452,7 +41316,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Export Center, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, UBO, Export Center</t>
+          <t>Companies Add-on, UBO, Export Center, Companies Add-on, UBO, Export Center</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -41461,16 +41325,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -41536,7 +41400,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -41822,7 +41686,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -41937,7 +41801,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -41946,7 +41810,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -41955,7 +41819,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>16</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -42712,7 +42576,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Companies Add-on, Underwater Cables, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, vesselsLists, Companies Add-on, Underwater Cables</t>
+          <t>Companies Add-on, Underwater Cables, hideHistoricalRiskIndicators, nasAddVesselsToVoi, vesselsLists, Companies Add-on, Underwater Cables</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -42721,16 +42585,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -42757,7 +42621,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Companies Add-on, Wet Cargo, Underwater Cables, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, Wet Cargo, Underwater Cables</t>
+          <t>Companies Add-on, Wet Cargo, Underwater Cables, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, Wet Cargo, Underwater Cables</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -42766,16 +42630,16 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
         <v>3</v>
       </c>
-      <c r="G52" t="n">
-        <v>4</v>
-      </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>10.95652173913043</v>
+        <v>14.26086956521739</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -42802,7 +42666,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -42882,7 +42746,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, sendHeartbeat, Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -42927,7 +42791,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, nasCompanyToggles, organizationDefinedRisk, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, nasCompanyToggles, organizationDefinedRisk, riskRanking, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -42936,7 +42800,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -42945,7 +42809,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -42972,7 +42836,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, sendHeartbeat, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -43017,7 +42881,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, vesselsLists, vlaMaiExpert, Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, sendHeartbeat, vesselsLists, vlaMaiExpert, Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -43026,7 +42890,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -43035,7 +42899,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -43097,7 +42961,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -43142,7 +43006,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -43187,7 +43051,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -43196,7 +43060,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -43205,7 +43069,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>9.586206896551722</v>
+        <v>6.551724137931036</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -43267,7 +43131,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -43423,7 +43287,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -43432,7 +43296,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -43441,7 +43305,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>14</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -43764,7 +43628,7 @@
         <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -43809,7 +43673,7 @@
         <v>8</v>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -43842,7 +43706,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Companies Add-on, Export Center, Underwater Cables, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, Export Center, Underwater Cables, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, Export Center, Underwater Cables</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -43922,7 +43786,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -43931,7 +43795,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -43940,7 +43804,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -44142,7 +44006,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -44151,16 +44015,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>11.09090909090909</v>
+        <v>17.81818181818182</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -44187,7 +44051,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -44196,7 +44060,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -44205,7 +44069,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>10.88888888888889</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -44232,7 +44096,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -44241,7 +44105,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -44250,7 +44114,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>13.2</v>
+        <v>10</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -44281,7 +44145,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -44326,7 +44190,7 @@
         <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -44472,7 +44336,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -44612,7 +44476,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -44621,7 +44485,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -44630,7 +44494,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1.483870967741936</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -44692,7 +44556,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on</t>
+          <t>Companies Add-on, hideHistoricalRiskIndicators, sendHeartbeat, Companies Add-on</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -44772,7 +44636,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -44781,7 +44645,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -44790,7 +44654,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>4.285714285714285</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -44817,7 +44681,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -44826,7 +44690,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -44835,7 +44699,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>8.666666666666668</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -45273,7 +45137,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -45290,7 +45154,7 @@
         <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -45708,7 +45572,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, mapScale, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, turnOffTransmissionRuleEngine, voiNoLimit, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, mapScale, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, turnOffTransmissionRuleEngine, voiNoLimit, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -45717,10 +45581,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -45753,7 +45617,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -45868,7 +45732,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportLargeCsv, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, sendHeartbeat, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -45925,7 +45789,7 @@
         <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -46005,7 +45869,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -46073,7 +45937,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, UBO, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, sendHeartbeat, Companies Add-on, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -46118,7 +45982,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, maiComplianceConfiguration001, nasExportMediumCsv, organizationDefinedRisk, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -46127,16 +45991,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1.9375</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -46245,7 +46109,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -46278,7 +46142,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, hideMapTimelineOnVesselProfile, maiComplianceConfiguration001, nasAddVesselsToVoi, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, maiComplianceConfiguration001, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -46287,16 +46151,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1.454545454545453</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -46323,7 +46187,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, areaInvestigation, hideHistoricalRiskIndicators, nasAddVesselsToVoi, nasExportLargeCsv, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, areaInvestigation, hideHistoricalRiskIndicators, nasExportLargeCsv, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -46332,16 +46196,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>7</v>
+        <v>10.15384615384615</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -46368,7 +46232,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, smugglingAndComplianceRisksSearchAPI, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, smugglingAndComplianceRisksSearchAPI, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -46377,16 +46241,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>12.25</v>
+        <v>15.5</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -46781,7 +46645,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -46790,16 +46654,16 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>5</v>
+        <v>10.76470588235294</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -46826,7 +46690,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -46835,16 +46699,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>5</v>
+        <v>10.76470588235294</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -46871,7 +46735,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -46880,16 +46744,16 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>12.46153846153846</v>
+        <v>18.76923076923077</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -46977,7 +46841,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -46986,7 +46850,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -46995,7 +46859,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -47022,7 +46886,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -47079,7 +46943,7 @@
         <v>6</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -47112,7 +46976,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -47121,7 +46985,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -47130,7 +46994,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>21.81818181818182</v>
+        <v>18.45454545454545</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -47169,7 +47033,7 @@
         <v>3</v>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -47268,7 +47132,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -47277,7 +47141,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -47286,7 +47150,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>14.66666666666667</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -47313,7 +47177,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed, Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed, sendHeartbeat, Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -47322,16 +47186,16 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>21.11111111111111</v>
+        <v>18</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -47358,7 +47222,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -47403,7 +47267,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -47412,7 +47276,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -47421,7 +47285,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>16.5</v>
+        <v>13.25</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -47460,7 +47324,7 @@
         <v>3</v>
       </c>
       <c r="G172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -47493,7 +47357,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
+          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, vesselsLists, Companies Add-on</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -47502,7 +47366,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -47511,7 +47375,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>7.652173913043478</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -47538,7 +47402,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -47547,7 +47411,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -47556,7 +47420,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>12.62068965517241</v>
+        <v>9.586206896551722</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -47595,7 +47459,7 @@
         <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -47628,7 +47492,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -47673,7 +47537,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -47755,7 +47619,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -47764,7 +47628,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -47773,7 +47637,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>15.2</v>
+        <v>12</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -47800,7 +47664,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -47809,7 +47673,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -47818,7 +47682,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>17.92307692307692</v>
+        <v>14.76923076923077</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -47845,7 +47709,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -47902,7 +47766,7 @@
         <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -47947,7 +47811,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -48027,7 +47891,7 @@
         <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -48072,7 +47936,7 @@
         <v>6</v>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -48100,12 +47964,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, nasExportLargeCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -48114,16 +47978,16 @@
         </is>
       </c>
       <c r="F187" t="n">
+        <v>2</v>
+      </c>
+      <c r="G187" t="n">
         <v>1</v>
       </c>
-      <c r="G187" t="n">
-        <v>3</v>
-      </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>21.07692307692308</v>
+        <v>17.92307692307692</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -48259,7 +48123,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -48432,7 +48296,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, turnOffODRErrorEmails, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -48477,7 +48341,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -48486,7 +48350,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -48495,7 +48359,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>23.07692307692308</v>
+        <v>19.92307692307692</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -48557,7 +48421,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -48602,7 +48466,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, News Feed, hideComplianceRisk, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification, News Feed</t>
+          <t>Companies Add-on, STS Classification, News Feed, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -48682,7 +48546,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -48691,7 +48555,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -48700,7 +48564,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>16</v>
+        <v>12.75</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -48727,7 +48591,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, sendHeartbeat, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -48736,7 +48600,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -48745,7 +48609,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>10.88888888888889</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -48772,7 +48636,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vesselsLists, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -48781,7 +48645,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -48790,7 +48654,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>9.655172413793103</v>
+        <v>6.620689655172413</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -48887,7 +48751,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -48896,7 +48760,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -48905,7 +48769,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>16.76923076923077</v>
+        <v>13.61538461538462</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -48932,7 +48796,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -48941,7 +48805,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -48950,7 +48814,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>11.41176470588236</v>
+        <v>8.529411764705884</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -49012,7 +48876,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -49021,7 +48885,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -49030,7 +48894,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>15.2</v>
+        <v>12</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -49057,7 +48921,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, sendHeartbeat, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -49066,7 +48930,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -49075,7 +48939,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>4.347826086956522</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -49102,7 +48966,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -49147,7 +49011,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -49192,7 +49056,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -49237,7 +49101,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, newAdvancedSearch, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -49282,7 +49146,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, sendHeartbeat, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -49327,7 +49191,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -49417,7 +49281,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -49462,7 +49326,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -49507,7 +49371,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -49516,7 +49380,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -49525,7 +49389,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>22.17391304347826</v>
+        <v>18.8695652173913</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -49552,7 +49416,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -49561,7 +49425,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -49570,7 +49434,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -49597,7 +49461,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, hideMapTimelineOnVesselProfile, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -49606,7 +49470,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -49615,7 +49479,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>16.68965517241379</v>
+        <v>13.6551724137931</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -49642,7 +49506,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, nasAddVesselsToVoi, useRefreshToken, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideNasActivitiesForm, sendHeartbeat, useRefreshToken, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -49651,7 +49515,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -49660,7 +49524,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>6.451612903225804</v>
+        <v>9.41935483870968</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -49687,7 +49551,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -49696,7 +49560,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -49705,7 +49569,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>17.6</v>
+        <v>14.4</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -49732,7 +49596,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -49741,16 +49605,16 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>12.95652173913043</v>
+        <v>9.652173913043478</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -49777,7 +49641,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -49786,7 +49650,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -49795,7 +49659,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>7.8125</v>
+        <v>4.875</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -49822,7 +49686,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -49831,7 +49695,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -49840,7 +49704,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>20.32258064516129</v>
+        <v>17.35483870967742</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -49867,7 +49731,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>STS Classification, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, STS Classification</t>
+          <t>STS Classification, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, STS Classification</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -49876,16 +49740,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -49912,7 +49776,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -49921,7 +49785,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -49930,7 +49794,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>18</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -49957,7 +49821,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -50041,7 +49905,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -50078,7 +49942,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -50111,21 +49975,21 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
+          <t>nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
+        <v>3</v>
+      </c>
+      <c r="G235" t="n">
         <v>4</v>
       </c>
-      <c r="G235" t="n">
-        <v>5</v>
-      </c>
       <c r="H235" t="n">
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>4.352941176470587</v>
+        <v>8.117647058823529</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -50187,7 +50051,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on</t>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -50232,7 +50096,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -50241,7 +50105,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -50250,7 +50114,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>17.61538461538462</v>
+        <v>14.46153846153846</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -50277,7 +50141,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -50286,7 +50150,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -50295,7 +50159,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>14.46153846153846</v>
+        <v>17.61538461538462</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -50322,7 +50186,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -50402,7 +50266,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, enableODRPermissionsForAllUsers, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -50411,16 +50275,16 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>6.25</v>
+        <v>12.75</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -50447,7 +50311,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -50456,16 +50320,16 @@
         </is>
       </c>
       <c r="F243" t="n">
+        <v>3</v>
+      </c>
+      <c r="G243" t="n">
         <v>2</v>
       </c>
-      <c r="G243" t="n">
-        <v>1</v>
-      </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>12.15384615384615</v>
+        <v>9</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -50492,7 +50356,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -50501,7 +50365,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -50510,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>21.11111111111111</v>
+        <v>18</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -50572,7 +50436,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -50581,7 +50445,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -50590,7 +50454,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>14.88888888888889</v>
+        <v>18</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -50617,7 +50481,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, sendHeartbeat, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -50629,7 +50493,7 @@
         <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -50662,7 +50526,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, vesselsLists, Companies Add-on, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -50707,7 +50571,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -50716,16 +50580,16 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -50752,7 +50616,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, vesselsLists, Companies Add-on</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -50797,7 +50661,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -50806,7 +50670,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -50815,7 +50679,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>15.28571428571429</v>
+        <v>18.35714285714286</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -50912,7 +50776,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -50921,7 +50785,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -50930,7 +50794,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>16.32258064516129</v>
+        <v>13.35483870967742</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -50957,7 +50821,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>MAI Expert, nasAddVesselsToVoi, riskRanking, MAI Expert</t>
+          <t>MAI Expert, riskRanking, sendHeartbeat, MAI Expert</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -51002,7 +50866,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -51047,7 +50911,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -51056,7 +50920,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -51065,7 +50929,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -51162,7 +51026,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, CDD Screening</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -51171,7 +51035,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -51180,7 +51044,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>14.21428571428571</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -51207,7 +51071,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -51322,7 +51186,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -51618,7 +51482,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -51688,7 +51552,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, riskRanking, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -51697,7 +51561,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -51706,7 +51570,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>10.46153846153846</v>
+        <v>13.61538461538462</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -51733,7 +51597,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -51813,7 +51677,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -51822,7 +51686,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -51831,7 +51695,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>18</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -51893,7 +51757,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -51902,7 +51766,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
@@ -51911,7 +51775,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>14.52941176470588</v>
+        <v>11.64705882352941</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -51938,7 +51802,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, sendHeartbeat, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -51947,7 +51811,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -51956,7 +51820,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>8.071428571428569</v>
+        <v>5</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -51983,7 +51847,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, hideMapTimelineOnVesselProfile, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -52163,12 +52027,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -52177,16 +52041,16 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>9.837837837837839</v>
+        <v>7.027027027027025</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -52213,7 +52077,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, iuuFishing, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, iuuFishing, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -52222,16 +52086,16 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>5.454545454545453</v>
+        <v>8.363636363636363</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -52258,7 +52122,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, analyticsProxy, nasAddVesselsToVoi, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, analyticsProxy, nasAddVesselsToVoi, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -52267,7 +52131,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -52276,7 +52140,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>13.28571428571429</v>
+        <v>10.21428571428571</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -52303,7 +52167,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns, hideHistoricalRiskIndicators, sendHeartbeat, Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -52312,7 +52176,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -52321,7 +52185,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -52343,12 +52207,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -52357,16 +52221,16 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>13.09090909090909</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -52428,7 +52292,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, areaMapper, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, planetOverlay, planetQuota, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, areaMapper, enableODRPermissionsForAllUsers, organizationDefinedRisk, planetOverlay, planetQuota, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -52573,12 +52437,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -52587,16 +52451,16 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G296" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>2.046511627906977</v>
+        <v>0</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -52658,7 +52522,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, nasCompanyToggles, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -52667,10 +52531,10 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -52703,7 +52567,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -52712,7 +52576,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -52721,7 +52585,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>9.8125</v>
+        <v>12.75</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -52820,7 +52684,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -52829,7 +52693,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -52838,7 +52702,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>8.875</v>
+        <v>5.9375</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -52900,7 +52764,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, windwardOwnershipData, Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportMediumCsv, organizationDefinedRisk, windwardOwnershipData, Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -52909,7 +52773,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G304" t="n">
         <v>5</v>
@@ -52918,7 +52782,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>4.516129032258064</v>
+        <v>7.483870967741936</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -53097,7 +52961,7 @@
         <v>3</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -53142,7 +53006,7 @@
         <v>3</v>
       </c>
       <c r="G310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -53175,7 +53039,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -53184,7 +53048,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -53193,7 +53057,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>7.142857142857142</v>
+        <v>4.285714285714285</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
@@ -53640,7 +53504,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, voiNoLimit, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, sendHeartbeat, voiNoLimit, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -53649,7 +53513,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -53658,7 +53522,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -53685,7 +53549,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Wet Cargo, hideBorderSecurityRisk, nasAddVesselsToVoi, Wet Cargo</t>
+          <t>Wet Cargo, hideBorderSecurityRisk, sendHeartbeat, Wet Cargo</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -53730,7 +53594,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -53739,7 +53603,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326" t="n">
         <v>0</v>
@@ -53748,7 +53612,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>22.8</v>
+        <v>19.6</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
@@ -53775,7 +53639,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -53784,7 +53648,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -53793,7 +53657,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>14.62068965517241</v>
+        <v>11.58620689655172</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -53820,7 +53684,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -53829,7 +53693,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
@@ -53838,7 +53702,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>23.07692307692308</v>
+        <v>19.92307692307692</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -53865,7 +53729,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasAddVesselsToVoi, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, vesselsLists, voiNoLimit, Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, sendHeartbeat, vesselsLists, voiNoLimit, Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -53877,7 +53741,7 @@
         <v>9</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -53910,7 +53774,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -53919,16 +53783,16 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>15.56521739130435</v>
+        <v>12.26086956521739</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -53990,7 +53854,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on</t>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, sendHeartbeat, Companies Add-on</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -53999,7 +53863,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -54008,7 +53872,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>11.72727272727273</v>
+        <v>8.363636363636363</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -54103,7 +53967,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -54673,7 +54537,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasCompanyToggles, sendHeartbeat, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -54682,7 +54546,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -54691,7 +54555,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>12.57142857142857</v>
+        <v>16</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -54718,7 +54582,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, sendHeartbeat, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -54727,7 +54591,7 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G352" t="n">
         <v>5</v>
@@ -54736,7 +54600,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>6.956521739130434</v>
+        <v>10.26086956521739</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -54833,7 +54697,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -54913,7 +54777,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -54925,7 +54789,7 @@
         <v>3</v>
       </c>
       <c r="G357" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -54958,7 +54822,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -54967,7 +54831,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -54976,7 +54840,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>7.41935483870968</v>
+        <v>10.38709677419355</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -55038,7 +54902,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasAddVesselsToVoi, nasExportMediumCsv, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasAddVesselsToVoi, nasExportMediumCsv, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -55047,7 +54911,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -55056,7 +54920,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -55083,7 +54947,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, riskRanking, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, riskRanking, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -55092,16 +54956,16 @@
         </is>
       </c>
       <c r="F361" t="n">
+        <v>1</v>
+      </c>
+      <c r="G361" t="n">
         <v>3</v>
       </c>
-      <c r="G361" t="n">
-        <v>4</v>
-      </c>
       <c r="H361" t="n">
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>14</v>
+        <v>20.85714285714285</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -55227,7 +55091,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">

--- a/data/updated_migration.xlsx
+++ b/data/updated_migration.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH363"/>
+  <dimension ref="A1:AI363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,6 +606,11 @@
       <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Approval Comment</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Under trial</t>
         </is>
       </c>
     </row>
@@ -708,11 +713,26 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Manual Review</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>1765209126</v>
+      </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>omer check</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -814,6 +834,7 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -929,6 +950,7 @@
           <t>Omer check</t>
         </is>
       </c>
+      <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1026,6 +1048,7 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -1123,6 +1146,7 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1224,6 +1248,7 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1339,6 +1364,7 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1428,6 +1454,7 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1525,6 +1552,7 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1640,6 +1668,7 @@
           <t>Omer Check</t>
         </is>
       </c>
+      <c r="AI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1737,6 +1766,7 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1834,6 +1864,7 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1927,6 +1958,7 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2020,6 +2052,7 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2113,6 +2146,7 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2206,6 +2240,7 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2289,6 +2324,7 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2376,6 +2412,7 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2463,6 +2500,7 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2550,6 +2588,7 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2637,6 +2676,7 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2724,6 +2764,7 @@
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2811,6 +2852,7 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2898,6 +2940,7 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2993,6 +3036,7 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3080,6 +3124,7 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3177,6 +3222,7 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3274,6 +3320,7 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3361,6 +3408,7 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3462,6 +3510,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3559,6 +3608,7 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3656,6 +3706,7 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3757,6 +3808,7 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3864,6 +3916,7 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3967,6 +4020,7 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4070,6 +4124,7 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4173,6 +4228,7 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4274,6 +4330,7 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4375,6 +4432,7 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4472,6 +4530,7 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4560,6 +4619,7 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4653,6 +4713,7 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4746,6 +4807,7 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4833,6 +4895,7 @@
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4920,6 +4983,7 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5017,6 +5081,7 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5114,6 +5179,7 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5207,6 +5273,7 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5294,6 +5361,7 @@
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5391,6 +5459,7 @@
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5488,6 +5557,7 @@
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5589,6 +5659,7 @@
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5686,6 +5757,7 @@
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5787,6 +5859,7 @@
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5884,6 +5957,7 @@
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5977,6 +6051,7 @@
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6070,6 +6145,7 @@
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6163,6 +6239,7 @@
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6260,6 +6337,7 @@
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6357,6 +6435,7 @@
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6472,6 +6551,7 @@
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6569,6 +6649,7 @@
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6662,6 +6743,7 @@
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6749,6 +6831,7 @@
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6836,6 +6919,7 @@
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6923,6 +7007,7 @@
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7016,6 +7101,7 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7103,6 +7189,7 @@
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7200,6 +7287,7 @@
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7297,6 +7385,7 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7394,6 +7483,7 @@
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7491,6 +7581,7 @@
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7588,6 +7679,7 @@
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7685,6 +7777,7 @@
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7786,6 +7879,7 @@
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7887,6 +7981,7 @@
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7988,6 +8083,7 @@
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8085,6 +8181,7 @@
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8186,6 +8283,7 @@
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8297,6 +8395,7 @@
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8394,6 +8493,7 @@
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8491,6 +8591,7 @@
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8588,6 +8689,7 @@
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8685,6 +8787,7 @@
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8782,6 +8885,7 @@
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8883,6 +8987,7 @@
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8980,6 +9085,7 @@
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9077,6 +9183,7 @@
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9164,6 +9271,7 @@
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9275,6 +9383,7 @@
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9362,6 +9471,7 @@
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9449,6 +9559,7 @@
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9536,6 +9647,7 @@
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9623,6 +9735,7 @@
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9710,6 +9823,7 @@
       <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9803,6 +9917,7 @@
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9900,6 +10015,7 @@
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10007,6 +10123,7 @@
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10100,6 +10217,7 @@
       <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10197,6 +10315,7 @@
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10294,6 +10413,7 @@
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10391,6 +10511,7 @@
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10488,6 +10609,7 @@
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10585,6 +10707,7 @@
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
       <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10686,6 +10809,7 @@
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10787,6 +10911,7 @@
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10874,6 +10999,7 @@
       <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
+      <c r="AI108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10961,6 +11087,7 @@
       <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
       <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11058,6 +11185,7 @@
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
       <c r="AH110" t="inlineStr"/>
+      <c r="AI110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11145,6 +11273,7 @@
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
       <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="e">
@@ -11228,6 +11357,7 @@
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11315,6 +11445,7 @@
       <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="inlineStr"/>
       <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11402,6 +11533,7 @@
       <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="inlineStr"/>
       <c r="AH114" t="inlineStr"/>
+      <c r="AI114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11489,6 +11621,7 @@
       <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="inlineStr"/>
       <c r="AH115" t="inlineStr"/>
+      <c r="AI115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11572,6 +11705,7 @@
       <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr"/>
+      <c r="AI116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11673,6 +11807,7 @@
       <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="inlineStr"/>
       <c r="AH117" t="inlineStr"/>
+      <c r="AI117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="e">
@@ -11748,6 +11883,7 @@
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="e">
@@ -11823,6 +11959,7 @@
       <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr"/>
+      <c r="AI119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="e">
@@ -11898,6 +12035,7 @@
       <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="inlineStr"/>
       <c r="AH120" t="inlineStr"/>
+      <c r="AI120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="e">
@@ -11973,6 +12111,7 @@
       <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="inlineStr"/>
       <c r="AH121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="e">
@@ -12048,6 +12187,7 @@
       <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="inlineStr"/>
       <c r="AH122" t="inlineStr"/>
+      <c r="AI122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="e">
@@ -12123,6 +12263,7 @@
       <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="inlineStr"/>
       <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="e">
@@ -12198,6 +12339,7 @@
       <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="inlineStr"/>
       <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="e">
@@ -12273,6 +12415,7 @@
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="e">
@@ -12348,6 +12491,7 @@
       <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="inlineStr"/>
       <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="e">
@@ -12423,6 +12567,7 @@
       <c r="AF127" t="inlineStr"/>
       <c r="AG127" t="inlineStr"/>
       <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="e">
@@ -12498,6 +12643,7 @@
       <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="inlineStr"/>
       <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12599,6 +12745,7 @@
       <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="inlineStr"/>
       <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12696,6 +12843,7 @@
       <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="inlineStr"/>
       <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -12789,6 +12937,7 @@
       <c r="AF131" t="inlineStr"/>
       <c r="AG131" t="inlineStr"/>
       <c r="AH131" t="inlineStr"/>
+      <c r="AI131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -12882,6 +13031,7 @@
       <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="inlineStr"/>
       <c r="AH132" t="inlineStr"/>
+      <c r="AI132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12983,6 +13133,7 @@
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13084,6 +13235,7 @@
       <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="inlineStr"/>
       <c r="AH134" t="inlineStr"/>
+      <c r="AI134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13185,6 +13337,7 @@
       <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="inlineStr"/>
       <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13282,6 +13435,7 @@
       <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="inlineStr"/>
       <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13379,6 +13533,7 @@
       <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="inlineStr"/>
       <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13480,6 +13635,7 @@
       <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="inlineStr"/>
       <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13581,6 +13737,7 @@
       <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="inlineStr"/>
       <c r="AH139" t="inlineStr"/>
+      <c r="AI139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13682,6 +13839,7 @@
       <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="inlineStr"/>
       <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13783,6 +13941,7 @@
       <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="inlineStr"/>
       <c r="AH141" t="inlineStr"/>
+      <c r="AI141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13880,6 +14039,7 @@
       <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="inlineStr"/>
       <c r="AH142" t="inlineStr"/>
+      <c r="AI142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13977,6 +14137,7 @@
       <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="inlineStr"/>
       <c r="AH143" t="inlineStr"/>
+      <c r="AI143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14070,6 +14231,7 @@
       <c r="AF144" t="inlineStr"/>
       <c r="AG144" t="inlineStr"/>
       <c r="AH144" t="inlineStr"/>
+      <c r="AI144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14163,6 +14325,7 @@
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -14246,6 +14409,7 @@
       <c r="AF146" t="inlineStr"/>
       <c r="AG146" t="inlineStr"/>
       <c r="AH146" t="inlineStr"/>
+      <c r="AI146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -14329,6 +14493,7 @@
       <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="inlineStr"/>
       <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -14412,6 +14577,7 @@
       <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="inlineStr"/>
       <c r="AH148" t="inlineStr"/>
+      <c r="AI148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -14495,6 +14661,7 @@
       <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="inlineStr"/>
       <c r="AH149" t="inlineStr"/>
+      <c r="AI149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -14578,6 +14745,7 @@
       <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="inlineStr"/>
       <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -14661,6 +14829,7 @@
       <c r="AF151" t="inlineStr"/>
       <c r="AG151" t="inlineStr"/>
       <c r="AH151" t="inlineStr"/>
+      <c r="AI151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -14744,6 +14913,7 @@
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -14827,6 +14997,7 @@
       <c r="AF153" t="inlineStr"/>
       <c r="AG153" t="inlineStr"/>
       <c r="AH153" t="inlineStr"/>
+      <c r="AI153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -14910,6 +15081,7 @@
       <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="inlineStr"/>
       <c r="AH154" t="inlineStr"/>
+      <c r="AI154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14993,6 +15165,7 @@
       <c r="AF155" t="inlineStr"/>
       <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="inlineStr"/>
+      <c r="AI155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15090,6 +15263,7 @@
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15187,6 +15361,7 @@
       <c r="AF157" t="inlineStr"/>
       <c r="AG157" t="inlineStr"/>
       <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15280,6 +15455,7 @@
       <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="inlineStr"/>
       <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="e">
@@ -15342,6 +15518,7 @@
       <c r="AF159" t="inlineStr"/>
       <c r="AG159" t="inlineStr"/>
       <c r="AH159" t="inlineStr"/>
+      <c r="AI159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15441,6 +15618,7 @@
       <c r="AF160" t="inlineStr"/>
       <c r="AG160" t="inlineStr"/>
       <c r="AH160" t="inlineStr"/>
+      <c r="AI160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15564,6 +15742,7 @@
       <c r="AF161" t="inlineStr"/>
       <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15673,6 +15852,7 @@
       <c r="AF162" t="inlineStr"/>
       <c r="AG162" t="inlineStr"/>
       <c r="AH162" t="inlineStr"/>
+      <c r="AI162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="e">
@@ -15765,6 +15945,7 @@
       <c r="AF163" t="inlineStr"/>
       <c r="AG163" t="inlineStr"/>
       <c r="AH163" t="inlineStr"/>
+      <c r="AI163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15873,6 +16054,7 @@
       <c r="AF164" t="inlineStr"/>
       <c r="AG164" t="inlineStr"/>
       <c r="AH164" t="inlineStr"/>
+      <c r="AI164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16000,6 +16182,7 @@
       <c r="AF165" t="inlineStr"/>
       <c r="AG165" t="inlineStr"/>
       <c r="AH165" t="inlineStr"/>
+      <c r="AI165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16100,6 +16283,7 @@
       <c r="AF166" t="inlineStr"/>
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16188,6 +16372,7 @@
       <c r="AF167" t="inlineStr"/>
       <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="inlineStr"/>
+      <c r="AI167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16299,6 +16484,7 @@
       <c r="AF168" t="inlineStr"/>
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="inlineStr"/>
+      <c r="AI168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16406,6 +16592,7 @@
       <c r="AF169" t="inlineStr"/>
       <c r="AG169" t="inlineStr"/>
       <c r="AH169" t="inlineStr"/>
+      <c r="AI169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16515,6 +16702,7 @@
       <c r="AF170" t="inlineStr"/>
       <c r="AG170" t="inlineStr"/>
       <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16630,6 +16818,7 @@
       <c r="AF171" t="inlineStr"/>
       <c r="AG171" t="inlineStr"/>
       <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16745,6 +16934,7 @@
       <c r="AF172" t="inlineStr"/>
       <c r="AG172" t="inlineStr"/>
       <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16856,6 +17046,7 @@
       <c r="AF173" t="inlineStr"/>
       <c r="AG173" t="inlineStr"/>
       <c r="AH173" t="inlineStr"/>
+      <c r="AI173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16971,6 +17162,7 @@
       <c r="AF174" t="inlineStr"/>
       <c r="AG174" t="inlineStr"/>
       <c r="AH174" t="inlineStr"/>
+      <c r="AI174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17068,6 +17260,7 @@
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17165,6 +17358,7 @@
       <c r="AF176" t="inlineStr"/>
       <c r="AG176" t="inlineStr"/>
       <c r="AH176" t="inlineStr"/>
+      <c r="AI176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17262,6 +17456,7 @@
       <c r="AF177" t="inlineStr"/>
       <c r="AG177" t="inlineStr"/>
       <c r="AH177" t="inlineStr"/>
+      <c r="AI177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17359,6 +17554,7 @@
       <c r="AF178" t="inlineStr"/>
       <c r="AG178" t="inlineStr"/>
       <c r="AH178" t="inlineStr"/>
+      <c r="AI178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17470,6 +17666,7 @@
       <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="inlineStr"/>
       <c r="AH179" t="inlineStr"/>
+      <c r="AI179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17585,6 +17782,7 @@
       <c r="AF180" t="inlineStr"/>
       <c r="AG180" t="inlineStr"/>
       <c r="AH180" t="inlineStr"/>
+      <c r="AI180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17682,6 +17880,7 @@
       <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17809,6 +18008,7 @@
       <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="inlineStr"/>
       <c r="AH182" t="inlineStr"/>
+      <c r="AI182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17932,6 +18132,7 @@
       <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="inlineStr"/>
       <c r="AH183" t="inlineStr"/>
+      <c r="AI183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -18029,6 +18230,7 @@
       <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -18156,6 +18358,7 @@
       <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="inlineStr"/>
       <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18273,6 +18476,7 @@
       <c r="AF186" t="inlineStr"/>
       <c r="AG186" t="inlineStr"/>
       <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18370,6 +18574,7 @@
       <c r="AF187" t="inlineStr"/>
       <c r="AG187" t="inlineStr"/>
       <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18467,6 +18672,7 @@
       <c r="AF188" t="inlineStr"/>
       <c r="AG188" t="inlineStr"/>
       <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18564,6 +18770,7 @@
       <c r="AF189" t="inlineStr"/>
       <c r="AG189" t="inlineStr"/>
       <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18661,6 +18868,7 @@
       <c r="AF190" t="inlineStr"/>
       <c r="AG190" t="inlineStr"/>
       <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18756,6 +18964,7 @@
       <c r="AF191" t="inlineStr"/>
       <c r="AG191" t="inlineStr"/>
       <c r="AH191" t="inlineStr"/>
+      <c r="AI191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18853,6 +19062,7 @@
       <c r="AF192" t="inlineStr"/>
       <c r="AG192" t="inlineStr"/>
       <c r="AH192" t="inlineStr"/>
+      <c r="AI192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18946,6 +19156,7 @@
       <c r="AF193" t="inlineStr"/>
       <c r="AG193" t="inlineStr"/>
       <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -19043,6 +19254,7 @@
       <c r="AF194" t="inlineStr"/>
       <c r="AG194" t="inlineStr"/>
       <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -19136,6 +19348,7 @@
       <c r="AF195" t="inlineStr"/>
       <c r="AG195" t="inlineStr"/>
       <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19247,6 +19460,7 @@
       <c r="AF196" t="inlineStr"/>
       <c r="AG196" t="inlineStr"/>
       <c r="AH196" t="inlineStr"/>
+      <c r="AI196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19370,6 +19584,7 @@
       <c r="AF197" t="inlineStr"/>
       <c r="AG197" t="inlineStr"/>
       <c r="AH197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19463,6 +19678,7 @@
       <c r="AF198" t="inlineStr"/>
       <c r="AG198" t="inlineStr"/>
       <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -19574,6 +19790,7 @@
       <c r="AF199" t="inlineStr"/>
       <c r="AG199" t="inlineStr"/>
       <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19667,6 +19884,7 @@
       <c r="AF200" t="inlineStr"/>
       <c r="AG200" t="inlineStr"/>
       <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -19760,6 +19978,7 @@
       <c r="AF201" t="inlineStr"/>
       <c r="AG201" t="inlineStr"/>
       <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -19883,6 +20102,7 @@
       <c r="AF202" t="inlineStr"/>
       <c r="AG202" t="inlineStr"/>
       <c r="AH202" t="inlineStr"/>
+      <c r="AI202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19998,6 +20218,7 @@
       <c r="AF203" t="inlineStr"/>
       <c r="AG203" t="inlineStr"/>
       <c r="AH203" t="inlineStr"/>
+      <c r="AI203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -20113,6 +20334,7 @@
       <c r="AF204" t="inlineStr"/>
       <c r="AG204" t="inlineStr"/>
       <c r="AH204" t="inlineStr"/>
+      <c r="AI204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -20206,6 +20428,7 @@
       <c r="AF205" t="inlineStr"/>
       <c r="AG205" t="inlineStr"/>
       <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -20299,6 +20522,7 @@
       <c r="AF206" t="inlineStr"/>
       <c r="AG206" t="inlineStr"/>
       <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20410,6 +20634,7 @@
       <c r="AF207" t="inlineStr"/>
       <c r="AG207" t="inlineStr"/>
       <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20533,6 +20758,7 @@
       <c r="AF208" t="inlineStr"/>
       <c r="AG208" t="inlineStr"/>
       <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -20626,6 +20852,7 @@
       <c r="AF209" t="inlineStr"/>
       <c r="AG209" t="inlineStr"/>
       <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -20749,6 +20976,7 @@
       <c r="AF210" t="inlineStr"/>
       <c r="AG210" t="inlineStr"/>
       <c r="AH210" t="inlineStr"/>
+      <c r="AI210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -20876,6 +21104,7 @@
       <c r="AF211" t="inlineStr"/>
       <c r="AG211" t="inlineStr"/>
       <c r="AH211" t="inlineStr"/>
+      <c r="AI211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20973,6 +21202,7 @@
       <c r="AF212" t="inlineStr"/>
       <c r="AG212" t="inlineStr"/>
       <c r="AH212" t="inlineStr"/>
+      <c r="AI212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -21084,6 +21314,7 @@
       <c r="AF213" t="inlineStr"/>
       <c r="AG213" t="inlineStr"/>
       <c r="AH213" t="inlineStr"/>
+      <c r="AI213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -21181,6 +21412,7 @@
       <c r="AF214" t="inlineStr"/>
       <c r="AG214" t="inlineStr"/>
       <c r="AH214" t="inlineStr"/>
+      <c r="AI214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -21274,6 +21506,7 @@
       <c r="AF215" t="inlineStr"/>
       <c r="AG215" t="inlineStr"/>
       <c r="AH215" t="inlineStr"/>
+      <c r="AI215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -21367,6 +21600,7 @@
       <c r="AF216" t="inlineStr"/>
       <c r="AG216" t="inlineStr"/>
       <c r="AH216" t="inlineStr"/>
+      <c r="AI216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -21474,6 +21708,7 @@
       <c r="AF217" t="inlineStr"/>
       <c r="AG217" t="inlineStr"/>
       <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21571,6 +21806,7 @@
       <c r="AF218" t="inlineStr"/>
       <c r="AG218" t="inlineStr"/>
       <c r="AH218" t="inlineStr"/>
+      <c r="AI218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -21664,6 +21900,7 @@
       <c r="AF219" t="inlineStr"/>
       <c r="AG219" t="inlineStr"/>
       <c r="AH219" t="inlineStr"/>
+      <c r="AI219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -21787,6 +22024,7 @@
       <c r="AF220" t="inlineStr"/>
       <c r="AG220" t="inlineStr"/>
       <c r="AH220" t="inlineStr"/>
+      <c r="AI220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -21884,6 +22122,7 @@
       <c r="AF221" t="inlineStr"/>
       <c r="AG221" t="inlineStr"/>
       <c r="AH221" t="inlineStr"/>
+      <c r="AI221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22007,6 +22246,7 @@
       <c r="AF222" t="inlineStr"/>
       <c r="AG222" t="inlineStr"/>
       <c r="AH222" t="inlineStr"/>
+      <c r="AI222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -22112,6 +22352,7 @@
       <c r="AF223" t="inlineStr"/>
       <c r="AG223" t="inlineStr"/>
       <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -22209,6 +22450,7 @@
       <c r="AF224" t="inlineStr"/>
       <c r="AG224" t="inlineStr"/>
       <c r="AH224" t="inlineStr"/>
+      <c r="AI224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -22328,6 +22570,7 @@
       <c r="AF225" t="inlineStr"/>
       <c r="AG225" t="inlineStr"/>
       <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -22421,6 +22664,7 @@
       <c r="AF226" t="inlineStr"/>
       <c r="AG226" t="inlineStr"/>
       <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -22544,6 +22788,7 @@
       <c r="AF227" t="inlineStr"/>
       <c r="AG227" t="inlineStr"/>
       <c r="AH227" t="inlineStr"/>
+      <c r="AI227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -22637,6 +22882,7 @@
       <c r="AF228" t="inlineStr"/>
       <c r="AG228" t="inlineStr"/>
       <c r="AH228" t="inlineStr"/>
+      <c r="AI228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -22732,6 +22978,7 @@
       <c r="AF229" t="inlineStr"/>
       <c r="AG229" t="inlineStr"/>
       <c r="AH229" t="inlineStr"/>
+      <c r="AI229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -22851,6 +23098,7 @@
       <c r="AF230" t="inlineStr"/>
       <c r="AG230" t="inlineStr"/>
       <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -22950,6 +23198,7 @@
       <c r="AF231" t="inlineStr"/>
       <c r="AG231" t="inlineStr"/>
       <c r="AH231" t="inlineStr"/>
+      <c r="AI231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23043,6 +23292,7 @@
       <c r="AF232" t="inlineStr"/>
       <c r="AG232" t="inlineStr"/>
       <c r="AH232" t="inlineStr"/>
+      <c r="AI232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -23140,6 +23390,7 @@
       <c r="AF233" t="inlineStr"/>
       <c r="AG233" t="inlineStr"/>
       <c r="AH233" t="inlineStr"/>
+      <c r="AI233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -23237,6 +23488,7 @@
       <c r="AF234" t="inlineStr"/>
       <c r="AG234" t="inlineStr"/>
       <c r="AH234" t="inlineStr"/>
+      <c r="AI234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -23334,6 +23586,7 @@
       <c r="AF235" t="inlineStr"/>
       <c r="AG235" t="inlineStr"/>
       <c r="AH235" t="inlineStr"/>
+      <c r="AI235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -23433,6 +23686,7 @@
       <c r="AF236" t="inlineStr"/>
       <c r="AG236" t="inlineStr"/>
       <c r="AH236" t="inlineStr"/>
+      <c r="AI236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -23526,6 +23780,7 @@
       <c r="AF237" t="inlineStr"/>
       <c r="AG237" t="inlineStr"/>
       <c r="AH237" t="inlineStr"/>
+      <c r="AI237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -23633,6 +23888,7 @@
       <c r="AF238" t="inlineStr"/>
       <c r="AG238" t="inlineStr"/>
       <c r="AH238" t="inlineStr"/>
+      <c r="AI238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -23732,6 +23988,7 @@
       <c r="AF239" t="inlineStr"/>
       <c r="AG239" t="inlineStr"/>
       <c r="AH239" t="inlineStr"/>
+      <c r="AI239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -23825,6 +24082,7 @@
       <c r="AF240" t="inlineStr"/>
       <c r="AG240" t="inlineStr"/>
       <c r="AH240" t="inlineStr"/>
+      <c r="AI240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -23918,6 +24176,7 @@
       <c r="AF241" t="inlineStr"/>
       <c r="AG241" t="inlineStr"/>
       <c r="AH241" t="inlineStr"/>
+      <c r="AI241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -24017,6 +24276,7 @@
       <c r="AF242" t="inlineStr"/>
       <c r="AG242" t="inlineStr"/>
       <c r="AH242" t="inlineStr"/>
+      <c r="AI242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -24110,6 +24370,7 @@
       <c r="AF243" t="inlineStr"/>
       <c r="AG243" t="inlineStr"/>
       <c r="AH243" t="inlineStr"/>
+      <c r="AI243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -24203,6 +24464,7 @@
       <c r="AF244" t="inlineStr"/>
       <c r="AG244" t="inlineStr"/>
       <c r="AH244" t="inlineStr"/>
+      <c r="AI244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -24296,6 +24558,7 @@
       <c r="AF245" t="inlineStr"/>
       <c r="AG245" t="inlineStr"/>
       <c r="AH245" t="inlineStr"/>
+      <c r="AI245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -24391,6 +24654,7 @@
       <c r="AF246" t="inlineStr"/>
       <c r="AG246" t="inlineStr"/>
       <c r="AH246" t="inlineStr"/>
+      <c r="AI246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -24484,6 +24748,7 @@
       <c r="AF247" t="inlineStr"/>
       <c r="AG247" t="inlineStr"/>
       <c r="AH247" t="inlineStr"/>
+      <c r="AI247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -24577,6 +24842,7 @@
       <c r="AF248" t="inlineStr"/>
       <c r="AG248" t="inlineStr"/>
       <c r="AH248" t="inlineStr"/>
+      <c r="AI248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -24670,6 +24936,7 @@
       <c r="AF249" t="inlineStr"/>
       <c r="AG249" t="inlineStr"/>
       <c r="AH249" t="inlineStr"/>
+      <c r="AI249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -24763,6 +25030,7 @@
       <c r="AF250" t="inlineStr"/>
       <c r="AG250" t="inlineStr"/>
       <c r="AH250" t="inlineStr"/>
+      <c r="AI250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -24858,6 +25126,7 @@
       <c r="AF251" t="inlineStr"/>
       <c r="AG251" t="inlineStr"/>
       <c r="AH251" t="inlineStr"/>
+      <c r="AI251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -24957,6 +25226,7 @@
       <c r="AF252" t="inlineStr"/>
       <c r="AG252" t="inlineStr"/>
       <c r="AH252" t="inlineStr"/>
+      <c r="AI252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -25056,6 +25326,7 @@
       <c r="AF253" t="inlineStr"/>
       <c r="AG253" t="inlineStr"/>
       <c r="AH253" t="inlineStr"/>
+      <c r="AI253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -25155,6 +25426,7 @@
       <c r="AF254" t="inlineStr"/>
       <c r="AG254" t="inlineStr"/>
       <c r="AH254" t="inlineStr"/>
+      <c r="AI254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -25248,6 +25520,7 @@
       <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="inlineStr"/>
       <c r="AH255" t="inlineStr"/>
+      <c r="AI255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -25345,6 +25618,7 @@
       <c r="AF256" t="inlineStr"/>
       <c r="AG256" t="inlineStr"/>
       <c r="AH256" t="inlineStr"/>
+      <c r="AI256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -25452,6 +25726,7 @@
       <c r="AF257" t="inlineStr"/>
       <c r="AG257" t="inlineStr"/>
       <c r="AH257" t="inlineStr"/>
+      <c r="AI257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -25551,6 +25826,7 @@
       <c r="AF258" t="inlineStr"/>
       <c r="AG258" t="inlineStr"/>
       <c r="AH258" t="inlineStr"/>
+      <c r="AI258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -25647,6 +25923,7 @@
       <c r="AF259" t="inlineStr"/>
       <c r="AG259" t="inlineStr"/>
       <c r="AH259" t="inlineStr"/>
+      <c r="AI259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -25760,6 +26037,7 @@
       <c r="AF260" t="inlineStr"/>
       <c r="AG260" t="inlineStr"/>
       <c r="AH260" t="inlineStr"/>
+      <c r="AI260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -25857,6 +26135,7 @@
       <c r="AF261" t="inlineStr"/>
       <c r="AG261" t="inlineStr"/>
       <c r="AH261" t="inlineStr"/>
+      <c r="AI261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -25956,6 +26235,7 @@
       <c r="AF262" t="inlineStr"/>
       <c r="AG262" t="inlineStr"/>
       <c r="AH262" t="inlineStr"/>
+      <c r="AI262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -26049,6 +26329,7 @@
       <c r="AF263" t="inlineStr"/>
       <c r="AG263" t="inlineStr"/>
       <c r="AH263" t="inlineStr"/>
+      <c r="AI263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -26142,6 +26423,7 @@
       <c r="AF264" t="inlineStr"/>
       <c r="AG264" t="inlineStr"/>
       <c r="AH264" t="inlineStr"/>
+      <c r="AI264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -26229,6 +26511,7 @@
       <c r="AF265" t="inlineStr"/>
       <c r="AG265" t="inlineStr"/>
       <c r="AH265" t="inlineStr"/>
+      <c r="AI265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -26316,6 +26599,7 @@
       <c r="AF266" t="inlineStr"/>
       <c r="AG266" t="inlineStr"/>
       <c r="AH266" t="inlineStr"/>
+      <c r="AI266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -26416,6 +26700,7 @@
       <c r="AF267" t="inlineStr"/>
       <c r="AG267" t="inlineStr"/>
       <c r="AH267" t="inlineStr"/>
+      <c r="AI267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -26509,6 +26794,7 @@
       <c r="AF268" t="inlineStr"/>
       <c r="AG268" t="inlineStr"/>
       <c r="AH268" t="inlineStr"/>
+      <c r="AI268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -26608,6 +26894,7 @@
       <c r="AF269" t="inlineStr"/>
       <c r="AG269" t="inlineStr"/>
       <c r="AH269" t="inlineStr"/>
+      <c r="AI269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -26703,6 +26990,7 @@
       <c r="AF270" t="inlineStr"/>
       <c r="AG270" t="inlineStr"/>
       <c r="AH270" t="inlineStr"/>
+      <c r="AI270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -26790,6 +27078,7 @@
       <c r="AF271" t="inlineStr"/>
       <c r="AG271" t="inlineStr"/>
       <c r="AH271" t="inlineStr"/>
+      <c r="AI271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -26877,6 +27166,7 @@
       <c r="AF272" t="inlineStr"/>
       <c r="AG272" t="inlineStr"/>
       <c r="AH272" t="inlineStr"/>
+      <c r="AI272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -26964,6 +27254,7 @@
       <c r="AF273" t="inlineStr"/>
       <c r="AG273" t="inlineStr"/>
       <c r="AH273" t="inlineStr"/>
+      <c r="AI273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -27061,6 +27352,7 @@
       <c r="AF274" t="inlineStr"/>
       <c r="AG274" t="inlineStr"/>
       <c r="AH274" t="inlineStr"/>
+      <c r="AI274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -27154,6 +27446,7 @@
       <c r="AF275" t="inlineStr"/>
       <c r="AG275" t="inlineStr"/>
       <c r="AH275" t="inlineStr"/>
+      <c r="AI275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -27247,6 +27540,7 @@
       <c r="AF276" t="inlineStr"/>
       <c r="AG276" t="inlineStr"/>
       <c r="AH276" t="inlineStr"/>
+      <c r="AI276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -27354,6 +27648,7 @@
       <c r="AF277" t="inlineStr"/>
       <c r="AG277" t="inlineStr"/>
       <c r="AH277" t="inlineStr"/>
+      <c r="AI277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="e">
@@ -27433,6 +27728,7 @@
       <c r="AF278" t="inlineStr"/>
       <c r="AG278" t="inlineStr"/>
       <c r="AH278" t="inlineStr"/>
+      <c r="AI278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -27540,6 +27836,7 @@
       <c r="AF279" t="inlineStr"/>
       <c r="AG279" t="inlineStr"/>
       <c r="AH279" t="inlineStr"/>
+      <c r="AI279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -27648,6 +27945,7 @@
       <c r="AF280" t="inlineStr"/>
       <c r="AG280" t="inlineStr"/>
       <c r="AH280" t="inlineStr"/>
+      <c r="AI280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -27741,6 +28039,7 @@
       <c r="AF281" t="inlineStr"/>
       <c r="AG281" t="inlineStr"/>
       <c r="AH281" t="inlineStr"/>
+      <c r="AI281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -27828,6 +28127,7 @@
       <c r="AF282" t="inlineStr"/>
       <c r="AG282" t="inlineStr"/>
       <c r="AH282" t="inlineStr"/>
+      <c r="AI282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -27925,6 +28225,7 @@
       <c r="AF283" t="inlineStr"/>
       <c r="AG283" t="inlineStr"/>
       <c r="AH283" t="inlineStr"/>
+      <c r="AI283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -28018,6 +28319,7 @@
       <c r="AF284" t="inlineStr"/>
       <c r="AG284" t="inlineStr"/>
       <c r="AH284" t="inlineStr"/>
+      <c r="AI284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -28111,6 +28413,7 @@
       <c r="AF285" t="inlineStr"/>
       <c r="AG285" t="inlineStr"/>
       <c r="AH285" t="inlineStr"/>
+      <c r="AI285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -28212,6 +28515,7 @@
       <c r="AF286" t="inlineStr"/>
       <c r="AG286" t="inlineStr"/>
       <c r="AH286" t="inlineStr"/>
+      <c r="AI286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -28309,6 +28613,7 @@
       <c r="AF287" t="inlineStr"/>
       <c r="AG287" t="inlineStr"/>
       <c r="AH287" t="inlineStr"/>
+      <c r="AI287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -28406,6 +28711,7 @@
       <c r="AF288" t="inlineStr"/>
       <c r="AG288" t="inlineStr"/>
       <c r="AH288" t="inlineStr"/>
+      <c r="AI288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -28507,6 +28813,7 @@
       <c r="AF289" t="inlineStr"/>
       <c r="AG289" t="inlineStr"/>
       <c r="AH289" t="inlineStr"/>
+      <c r="AI289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -28608,6 +28915,7 @@
       <c r="AF290" t="inlineStr"/>
       <c r="AG290" t="inlineStr"/>
       <c r="AH290" t="inlineStr"/>
+      <c r="AI290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -28709,6 +29017,7 @@
       <c r="AF291" t="inlineStr"/>
       <c r="AG291" t="inlineStr"/>
       <c r="AH291" t="inlineStr"/>
+      <c r="AI291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -28810,6 +29119,7 @@
       <c r="AF292" t="inlineStr"/>
       <c r="AG292" t="inlineStr"/>
       <c r="AH292" t="inlineStr"/>
+      <c r="AI292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -28911,6 +29221,7 @@
       <c r="AF293" t="inlineStr"/>
       <c r="AG293" t="inlineStr"/>
       <c r="AH293" t="inlineStr"/>
+      <c r="AI293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -29008,6 +29319,7 @@
       <c r="AF294" t="inlineStr"/>
       <c r="AG294" t="inlineStr"/>
       <c r="AH294" t="inlineStr"/>
+      <c r="AI294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -29101,6 +29413,7 @@
       <c r="AF295" t="inlineStr"/>
       <c r="AG295" t="inlineStr"/>
       <c r="AH295" t="inlineStr"/>
+      <c r="AI295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -29202,6 +29515,7 @@
       <c r="AF296" t="inlineStr"/>
       <c r="AG296" t="inlineStr"/>
       <c r="AH296" t="inlineStr"/>
+      <c r="AI296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -29295,6 +29609,7 @@
       <c r="AF297" t="inlineStr"/>
       <c r="AG297" t="inlineStr"/>
       <c r="AH297" t="inlineStr"/>
+      <c r="AI297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -29392,6 +29707,7 @@
       <c r="AF298" t="inlineStr"/>
       <c r="AG298" t="inlineStr"/>
       <c r="AH298" t="inlineStr"/>
+      <c r="AI298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -29489,6 +29805,7 @@
       <c r="AF299" t="inlineStr"/>
       <c r="AG299" t="inlineStr"/>
       <c r="AH299" t="inlineStr"/>
+      <c r="AI299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -29572,6 +29889,7 @@
       <c r="AF300" t="inlineStr"/>
       <c r="AG300" t="inlineStr"/>
       <c r="AH300" t="inlineStr"/>
+      <c r="AI300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -29669,6 +29987,7 @@
       <c r="AF301" t="inlineStr"/>
       <c r="AG301" t="inlineStr"/>
       <c r="AH301" t="inlineStr"/>
+      <c r="AI301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -29766,6 +30085,7 @@
       <c r="AF302" t="inlineStr"/>
       <c r="AG302" t="inlineStr"/>
       <c r="AH302" t="inlineStr"/>
+      <c r="AI302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -29863,6 +30183,7 @@
       <c r="AF303" t="inlineStr"/>
       <c r="AG303" t="inlineStr"/>
       <c r="AH303" t="inlineStr"/>
+      <c r="AI303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -29960,6 +30281,7 @@
       <c r="AF304" t="inlineStr"/>
       <c r="AG304" t="inlineStr"/>
       <c r="AH304" t="inlineStr"/>
+      <c r="AI304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -30047,6 +30369,7 @@
       <c r="AF305" t="inlineStr"/>
       <c r="AG305" t="inlineStr"/>
       <c r="AH305" t="inlineStr"/>
+      <c r="AI305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -30134,6 +30457,7 @@
       <c r="AF306" t="inlineStr"/>
       <c r="AG306" t="inlineStr"/>
       <c r="AH306" t="inlineStr"/>
+      <c r="AI306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -30229,6 +30553,7 @@
       <c r="AF307" t="inlineStr"/>
       <c r="AG307" t="inlineStr"/>
       <c r="AH307" t="inlineStr"/>
+      <c r="AI307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -30322,6 +30647,7 @@
       <c r="AF308" t="inlineStr"/>
       <c r="AG308" t="inlineStr"/>
       <c r="AH308" t="inlineStr"/>
+      <c r="AI308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -30419,6 +30745,7 @@
       <c r="AF309" t="inlineStr"/>
       <c r="AG309" t="inlineStr"/>
       <c r="AH309" t="inlineStr"/>
+      <c r="AI309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -30516,6 +30843,7 @@
       <c r="AF310" t="inlineStr"/>
       <c r="AG310" t="inlineStr"/>
       <c r="AH310" t="inlineStr"/>
+      <c r="AI310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -30609,6 +30937,7 @@
       <c r="AF311" t="inlineStr"/>
       <c r="AG311" t="inlineStr"/>
       <c r="AH311" t="inlineStr"/>
+      <c r="AI311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -30710,6 +31039,7 @@
       <c r="AF312" t="inlineStr"/>
       <c r="AG312" t="inlineStr"/>
       <c r="AH312" t="inlineStr"/>
+      <c r="AI312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -30811,6 +31141,7 @@
       <c r="AF313" t="inlineStr"/>
       <c r="AG313" t="inlineStr"/>
       <c r="AH313" t="inlineStr"/>
+      <c r="AI313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -30912,6 +31243,7 @@
       <c r="AF314" t="inlineStr"/>
       <c r="AG314" t="inlineStr"/>
       <c r="AH314" t="inlineStr"/>
+      <c r="AI314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -31013,6 +31345,7 @@
       <c r="AF315" t="inlineStr"/>
       <c r="AG315" t="inlineStr"/>
       <c r="AH315" t="inlineStr"/>
+      <c r="AI315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -31106,6 +31439,7 @@
       <c r="AF316" t="inlineStr"/>
       <c r="AG316" t="inlineStr"/>
       <c r="AH316" t="inlineStr"/>
+      <c r="AI316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -31203,6 +31537,7 @@
       <c r="AF317" t="inlineStr"/>
       <c r="AG317" t="inlineStr"/>
       <c r="AH317" t="inlineStr"/>
+      <c r="AI317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -31300,6 +31635,7 @@
       <c r="AF318" t="inlineStr"/>
       <c r="AG318" t="inlineStr"/>
       <c r="AH318" t="inlineStr"/>
+      <c r="AI318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -31401,6 +31737,7 @@
       <c r="AF319" t="inlineStr"/>
       <c r="AG319" t="inlineStr"/>
       <c r="AH319" t="inlineStr"/>
+      <c r="AI319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -31494,6 +31831,7 @@
       <c r="AF320" t="inlineStr"/>
       <c r="AG320" t="inlineStr"/>
       <c r="AH320" t="inlineStr"/>
+      <c r="AI320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -31595,6 +31933,7 @@
       <c r="AF321" t="inlineStr"/>
       <c r="AG321" t="inlineStr"/>
       <c r="AH321" t="inlineStr"/>
+      <c r="AI321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -31688,6 +32027,7 @@
       <c r="AF322" t="inlineStr"/>
       <c r="AG322" t="inlineStr"/>
       <c r="AH322" t="inlineStr"/>
+      <c r="AI322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -31785,6 +32125,7 @@
       <c r="AF323" t="inlineStr"/>
       <c r="AG323" t="inlineStr"/>
       <c r="AH323" t="inlineStr"/>
+      <c r="AI323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -31878,6 +32219,7 @@
       <c r="AF324" t="inlineStr"/>
       <c r="AG324" t="inlineStr"/>
       <c r="AH324" t="inlineStr"/>
+      <c r="AI324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -31971,6 +32313,7 @@
       <c r="AF325" t="inlineStr"/>
       <c r="AG325" t="inlineStr"/>
       <c r="AH325" t="inlineStr"/>
+      <c r="AI325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -32064,6 +32407,7 @@
       <c r="AF326" t="inlineStr"/>
       <c r="AG326" t="inlineStr"/>
       <c r="AH326" t="inlineStr"/>
+      <c r="AI326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -32157,6 +32501,7 @@
       <c r="AF327" t="inlineStr"/>
       <c r="AG327" t="inlineStr"/>
       <c r="AH327" t="inlineStr"/>
+      <c r="AI327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -32250,6 +32595,7 @@
       <c r="AF328" t="inlineStr"/>
       <c r="AG328" t="inlineStr"/>
       <c r="AH328" t="inlineStr"/>
+      <c r="AI328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -32343,6 +32689,7 @@
       <c r="AF329" t="inlineStr"/>
       <c r="AG329" t="inlineStr"/>
       <c r="AH329" t="inlineStr"/>
+      <c r="AI329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -32436,6 +32783,7 @@
       <c r="AF330" t="inlineStr"/>
       <c r="AG330" t="inlineStr"/>
       <c r="AH330" t="inlineStr"/>
+      <c r="AI330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -32519,6 +32867,7 @@
       <c r="AF331" t="inlineStr"/>
       <c r="AG331" t="inlineStr"/>
       <c r="AH331" t="inlineStr"/>
+      <c r="AI331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -32612,6 +32961,7 @@
       <c r="AF332" t="inlineStr"/>
       <c r="AG332" t="inlineStr"/>
       <c r="AH332" t="inlineStr"/>
+      <c r="AI332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -32707,6 +33057,7 @@
       <c r="AF333" t="inlineStr"/>
       <c r="AG333" t="inlineStr"/>
       <c r="AH333" t="inlineStr"/>
+      <c r="AI333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -32802,6 +33153,7 @@
       <c r="AF334" t="inlineStr"/>
       <c r="AG334" t="inlineStr"/>
       <c r="AH334" t="inlineStr"/>
+      <c r="AI334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -32895,6 +33247,7 @@
       <c r="AF335" t="inlineStr"/>
       <c r="AG335" t="inlineStr"/>
       <c r="AH335" t="inlineStr"/>
+      <c r="AI335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -32988,6 +33341,7 @@
       <c r="AF336" t="inlineStr"/>
       <c r="AG336" t="inlineStr"/>
       <c r="AH336" t="inlineStr"/>
+      <c r="AI336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -33081,6 +33435,7 @@
       <c r="AF337" t="inlineStr"/>
       <c r="AG337" t="inlineStr"/>
       <c r="AH337" t="inlineStr"/>
+      <c r="AI337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -33174,6 +33529,7 @@
       <c r="AF338" t="inlineStr"/>
       <c r="AG338" t="inlineStr"/>
       <c r="AH338" t="inlineStr"/>
+      <c r="AI338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -33261,6 +33617,7 @@
       <c r="AF339" t="inlineStr"/>
       <c r="AG339" t="inlineStr"/>
       <c r="AH339" t="inlineStr"/>
+      <c r="AI339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -33348,6 +33705,7 @@
       <c r="AF340" t="inlineStr"/>
       <c r="AG340" t="inlineStr"/>
       <c r="AH340" t="inlineStr"/>
+      <c r="AI340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -33435,6 +33793,7 @@
       <c r="AF341" t="inlineStr"/>
       <c r="AG341" t="inlineStr"/>
       <c r="AH341" t="inlineStr"/>
+      <c r="AI341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -33522,6 +33881,7 @@
       <c r="AF342" t="inlineStr"/>
       <c r="AG342" t="inlineStr"/>
       <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -33609,6 +33969,7 @@
       <c r="AF343" t="inlineStr"/>
       <c r="AG343" t="inlineStr"/>
       <c r="AH343" t="inlineStr"/>
+      <c r="AI343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -33696,6 +34057,7 @@
       <c r="AF344" t="inlineStr"/>
       <c r="AG344" t="inlineStr"/>
       <c r="AH344" t="inlineStr"/>
+      <c r="AI344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -33797,6 +34159,7 @@
       <c r="AF345" t="inlineStr"/>
       <c r="AG345" t="inlineStr"/>
       <c r="AH345" t="inlineStr"/>
+      <c r="AI345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -33894,6 +34257,7 @@
       <c r="AF346" t="inlineStr"/>
       <c r="AG346" t="inlineStr"/>
       <c r="AH346" t="inlineStr"/>
+      <c r="AI346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -33995,6 +34359,7 @@
       <c r="AF347" t="inlineStr"/>
       <c r="AG347" t="inlineStr"/>
       <c r="AH347" t="inlineStr"/>
+      <c r="AI347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -34092,6 +34457,7 @@
       <c r="AF348" t="inlineStr"/>
       <c r="AG348" t="inlineStr"/>
       <c r="AH348" t="inlineStr"/>
+      <c r="AI348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -34193,6 +34559,7 @@
       <c r="AF349" t="inlineStr"/>
       <c r="AG349" t="inlineStr"/>
       <c r="AH349" t="inlineStr"/>
+      <c r="AI349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -34294,6 +34661,7 @@
       <c r="AF350" t="inlineStr"/>
       <c r="AG350" t="inlineStr"/>
       <c r="AH350" t="inlineStr"/>
+      <c r="AI350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -34391,6 +34759,7 @@
       <c r="AF351" t="inlineStr"/>
       <c r="AG351" t="inlineStr"/>
       <c r="AH351" t="inlineStr"/>
+      <c r="AI351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -34492,6 +34861,7 @@
       <c r="AF352" t="inlineStr"/>
       <c r="AG352" t="inlineStr"/>
       <c r="AH352" t="inlineStr"/>
+      <c r="AI352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -34587,6 +34957,7 @@
       <c r="AF353" t="inlineStr"/>
       <c r="AG353" t="inlineStr"/>
       <c r="AH353" t="inlineStr"/>
+      <c r="AI353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -34680,6 +35051,7 @@
       <c r="AF354" t="inlineStr"/>
       <c r="AG354" t="inlineStr"/>
       <c r="AH354" t="inlineStr"/>
+      <c r="AI354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -34777,6 +35149,7 @@
       <c r="AF355" t="inlineStr"/>
       <c r="AG355" t="inlineStr"/>
       <c r="AH355" t="inlineStr"/>
+      <c r="AI355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -34870,6 +35243,7 @@
       <c r="AF356" t="inlineStr"/>
       <c r="AG356" t="inlineStr"/>
       <c r="AH356" t="inlineStr"/>
+      <c r="AI356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -34967,6 +35341,7 @@
       <c r="AF357" t="inlineStr"/>
       <c r="AG357" t="inlineStr"/>
       <c r="AH357" t="inlineStr"/>
+      <c r="AI357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -35064,6 +35439,7 @@
       <c r="AF358" t="inlineStr"/>
       <c r="AG358" t="inlineStr"/>
       <c r="AH358" t="inlineStr"/>
+      <c r="AI358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -35157,6 +35533,7 @@
       <c r="AF359" t="inlineStr"/>
       <c r="AG359" t="inlineStr"/>
       <c r="AH359" t="inlineStr"/>
+      <c r="AI359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -35250,6 +35627,7 @@
       <c r="AF360" t="inlineStr"/>
       <c r="AG360" t="inlineStr"/>
       <c r="AH360" t="inlineStr"/>
+      <c r="AI360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -35339,6 +35717,7 @@
       <c r="AF361" t="inlineStr"/>
       <c r="AG361" t="inlineStr"/>
       <c r="AH361" t="inlineStr"/>
+      <c r="AI361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -35426,6 +35805,7 @@
       <c r="AF362" t="inlineStr"/>
       <c r="AG362" t="inlineStr"/>
       <c r="AH362" t="inlineStr"/>
+      <c r="AI362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -35523,6 +35903,7 @@
       <c r="AF363" t="inlineStr"/>
       <c r="AG363" t="inlineStr"/>
       <c r="AH363" t="inlineStr"/>
+      <c r="AI363" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35535,7 +35916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35581,47 +35962,47 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>add-ons to compatability</t>
+          <t>features on the house</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>features on the house</t>
+          <t>bloat_costly</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bloat_costly</t>
+          <t>gaFeatures</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gaFeatures</t>
+          <t>GA present in account</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>GA present in account</t>
+          <t>GA will appear with plan</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>GA will appear with plan</t>
+          <t>irrelevantFeatures</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>irrelevantFeatures</t>
+          <t>Gained by plan (not currently in project)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Gained by plan (not currently in project)</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>Under trial</t>
         </is>
       </c>
     </row>
@@ -35661,26 +36042,26 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk"]}</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk"]}</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>Omer check</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -35718,24 +36099,77 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideMapModule"]}</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideMapModule"]}</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>Omer Check</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metro Shipping Ltd.
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Freight Forwarder</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Manual Review</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1765209126</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Manual Review</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"Granted by GA": [], "Final plan": []}</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>omer check</t>
         </is>
       </c>
     </row>
@@ -35750,7 +36184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40494,7 +40928,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>darkFleetVOI</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
@@ -40506,7 +40940,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>grayFleetVOI</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
@@ -40518,7 +40952,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>darkFleetVOI</t>
         </is>
       </c>
     </row>
@@ -40530,7 +40964,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>grayFleetVOI</t>
         </is>
       </c>
     </row>
@@ -40542,7 +40976,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>nasAgGridTable</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
@@ -40554,7 +40988,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
@@ -40566,7 +41000,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>newNasRiskDesign</t>
+          <t>nasAgGridTable</t>
         </is>
       </c>
     </row>
@@ -40578,7 +41012,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
@@ -40590,7 +41024,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>searchDraftBreadthFilters</t>
+          <t>newNasRiskDesign</t>
         </is>
       </c>
     </row>
@@ -40602,7 +41036,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -40614,7 +41048,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>trafficLanes</t>
+          <t>searchDraftBreadthFilters</t>
         </is>
       </c>
     </row>
@@ -40626,7 +41060,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>uncertaintyArea</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
@@ -40638,7 +41072,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
@@ -40650,7 +41084,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>trafficLanes</t>
         </is>
       </c>
     </row>
@@ -40661,6 +41095,42 @@
         </is>
       </c>
       <c r="B409" t="inlineStr">
+        <is>
+          <t>uncertaintyArea</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>userAlreadyLoggedInWarning</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>warRiskArea</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
         <is>
           <t>weatherLayer</t>
         </is>
@@ -40809,7 +41279,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12.21428571428571</v>
+        <v>10.07142857142857</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -40854,7 +41324,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.26086956521739</v>
+        <v>13.65217391304348</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -40881,7 +41351,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -40890,7 +41360,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -40899,7 +41369,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.647058823529413</v>
+        <v>3.882352941176471</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -40926,7 +41396,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -40935,7 +41405,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -40944,7 +41414,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.529411764705884</v>
+        <v>6.764705882352942</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -41006,7 +41476,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -41015,7 +41485,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -41024,7 +41494,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.75</v>
+        <v>12.25</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -41121,7 +41591,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -41130,7 +41600,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -41271,7 +41741,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -41280,7 +41750,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -41289,7 +41759,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.28571428571429</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -41334,7 +41804,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -41400,7 +41870,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -41437,7 +41907,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -41686,7 +42156,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -41695,7 +42165,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -41801,7 +42271,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -41810,7 +42280,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -41819,7 +42289,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>13.09090909090909</v>
+        <v>13.27272727272727</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -42594,7 +43064,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>10.25</v>
+        <v>7.75</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -42639,7 +43109,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>14.26086956521739</v>
+        <v>11.65217391304348</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -42666,7 +43136,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -42675,7 +43145,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -42684,7 +43154,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7.586206896551722</v>
+        <v>7.517241379310345</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -42746,7 +43216,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, sendHeartbeat, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -42755,7 +43225,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -42764,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>8.800000000000001</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -42791,7 +43261,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, nasCompanyToggles, organizationDefinedRisk, riskRanking, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, nasCompanyToggles, organizationDefinedRisk, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -42800,7 +43270,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -42836,7 +43306,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, sendHeartbeat, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -42845,7 +43315,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -42854,7 +43324,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>7.142857142857142</v>
+        <v>7</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -42881,7 +43351,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, sendHeartbeat, vesselsLists, vlaMaiExpert, Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, vesselsLists, vlaMaiExpert, Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -42890,7 +43360,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -42961,7 +43431,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -42970,7 +43440,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -42979,7 +43449,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.444444444444443</v>
+        <v>2.222222222222221</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -43006,7 +43476,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -43015,7 +43485,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -43024,7 +43494,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -43051,7 +43521,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -43060,7 +43530,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -43069,7 +43539,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>6.551724137931036</v>
+        <v>6.482758620689657</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -43131,7 +43601,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -43140,7 +43610,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -43149,7 +43619,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>9.600000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -43180,7 +43650,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -43217,7 +43687,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -43254,7 +43724,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -43287,7 +43757,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -43296,7 +43766,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -43305,7 +43775,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>17.42857142857143</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -43336,7 +43806,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -43634,7 +44104,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -43706,7 +44176,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Companies Add-on, Export Center, Underwater Cables, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, Export Center, Underwater Cables, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, Export Center, Underwater Cables</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -43715,7 +44185,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -43724,7 +44194,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -43786,7 +44256,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -43795,7 +44265,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -43804,7 +44274,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>8.888888888888889</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -44024,7 +44494,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>17.81818181818182</v>
+        <v>15.09090909090909</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -44051,7 +44521,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -44060,7 +44530,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -44069,7 +44539,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>7.777777777777779</v>
+        <v>7.555555555555555</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -44096,7 +44566,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -44105,7 +44575,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -44114,7 +44584,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -44145,7 +44615,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -44196,7 +44666,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>10.26086956521739</v>
+        <v>7.652173913043478</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -44262,7 +44732,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -44299,7 +44769,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -44336,7 +44806,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -44373,7 +44843,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -44476,7 +44946,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -44485,7 +44955,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -44556,7 +45026,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideHistoricalRiskIndicators, sendHeartbeat, Companies Add-on</t>
+          <t>Companies Add-on, hideHistoricalRiskIndicators, Companies Add-on</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -44565,7 +45035,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -44574,7 +45044,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>12.95652173913043</v>
+        <v>12.34782608695652</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -44636,7 +45106,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -44645,7 +45115,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -44654,7 +45124,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>7.142857142857142</v>
+        <v>7.428571428571427</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -44681,7 +45151,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -44690,7 +45160,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -44699,7 +45169,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>5.555555555555555</v>
+        <v>5.333333333333332</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -45160,7 +45630,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>8.875</v>
+        <v>7</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -45617,7 +46087,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -45626,7 +46096,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -45635,7 +46105,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>7.586206896551722</v>
+        <v>7.517241379310345</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -45732,7 +46202,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, sendHeartbeat, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -45741,7 +46211,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -45750,7 +46220,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>9.555555555555555</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -45795,7 +46265,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -45875,7 +46345,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>21.25</v>
+        <v>18.75</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -45937,7 +46407,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, sendHeartbeat, Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, UBO, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, Companies Add-on, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -45946,7 +46416,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -45955,7 +46425,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>2.516129032258064</v>
+        <v>2.580645161290324</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -46000,7 +46470,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1.9375</v>
+        <v>0.0625</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -46115,7 +46585,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>17.2</v>
+        <v>14.8</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -46160,7 +46630,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1.454545454545453</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -46205,7 +46675,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>10.15384615384615</v>
+        <v>7.846153846153847</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -46250,7 +46720,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -46663,7 +47133,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>10.76470588235294</v>
+        <v>9</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -46708,7 +47178,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>10.76470588235294</v>
+        <v>9</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -46753,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>18.76923076923077</v>
+        <v>16.46153846153846</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -46841,7 +47311,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -46850,7 +47320,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -46886,7 +47356,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -46895,7 +47365,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -46904,7 +47374,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>7.777777777777779</v>
+        <v>7.555555555555555</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -46949,7 +47419,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>4.764705882352942</v>
+        <v>3</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -46976,7 +47446,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -46985,7 +47455,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -46994,7 +47464,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>18.45454545454545</v>
+        <v>17.72727272727273</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -47039,7 +47509,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>14.45454545454545</v>
+        <v>11.72727272727273</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -47132,7 +47602,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -47141,7 +47611,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -47150,7 +47620,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>11.55555555555556</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -47177,7 +47647,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed, sendHeartbeat, Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed, Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -47186,7 +47656,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -47195,7 +47665,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -47222,7 +47692,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -47231,7 +47701,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -47240,7 +47710,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>10.95652173913043</v>
+        <v>10.34782608695652</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -47267,7 +47737,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -47276,7 +47746,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -47285,7 +47755,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>13.25</v>
+        <v>12.75</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -47330,7 +47800,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>13.09090909090909</v>
+        <v>10.36363636363636</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -47357,7 +47827,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, vesselsLists, Companies Add-on</t>
+          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -47366,7 +47836,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -47375,7 +47845,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>4.347826086956522</v>
+        <v>3.739130434782609</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -47402,7 +47872,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -47411,7 +47881,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -47420,7 +47890,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>9.586206896551722</v>
+        <v>9.517241379310345</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -47465,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>14.4</v>
+        <v>12</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -47492,7 +47962,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -47501,7 +47971,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -47510,7 +47980,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>13.30769230769231</v>
+        <v>13</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -47537,7 +48007,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -47546,7 +48016,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -47555,7 +48025,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>11.72727272727273</v>
+        <v>11</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -47619,7 +48089,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -47628,7 +48098,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -47637,7 +48107,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -47664,7 +48134,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -47673,7 +48143,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -47682,7 +48152,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>14.76923076923077</v>
+        <v>14.46153846153846</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -47709,7 +48179,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -47718,7 +48188,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -47727,7 +48197,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>12.26086956521739</v>
+        <v>11.65217391304348</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -47772,7 +48242,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>15.56521739130435</v>
+        <v>12.95652173913043</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -47817,7 +48287,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -47897,7 +48367,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>17.92307692307692</v>
+        <v>15.61538461538462</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -47942,7 +48412,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>0.2727272727272734</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -47969,7 +48439,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, nasExportLargeCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -47978,7 +48448,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -47987,7 +48457,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>17.92307692307692</v>
+        <v>17.61538461538462</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -48123,7 +48593,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -48296,7 +48766,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, turnOffODRErrorEmails, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -48305,7 +48775,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -48314,7 +48784,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>2.482758620689657</v>
+        <v>2.413793103448276</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -48341,7 +48811,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -48350,7 +48820,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -48359,7 +48829,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>19.92307692307692</v>
+        <v>19.61538461538462</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -48421,7 +48891,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -48430,7 +48900,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -48439,7 +48909,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>14.26086956521739</v>
+        <v>13.65217391304348</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -48466,7 +48936,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, News Feed, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, STS Classification, News Feed</t>
+          <t>Companies Add-on, STS Classification, News Feed, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -48475,16 +48945,16 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>6.444444444444443</v>
+        <v>7.333333333333332</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -48546,7 +49016,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -48555,16 +49025,16 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -48591,7 +49061,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, sendHeartbeat, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -48600,7 +49070,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -48609,7 +49079,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>7.777777777777779</v>
+        <v>7.555555555555555</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -48636,7 +49106,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vesselsLists, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -48645,7 +49115,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -48654,7 +49124,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>6.620689655172413</v>
+        <v>6.551724137931036</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -48751,7 +49221,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -48760,7 +49230,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -48769,7 +49239,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>13.61538461538462</v>
+        <v>13.30769230769231</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -48796,7 +49266,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -48805,7 +49275,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -48814,7 +49284,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>8.529411764705884</v>
+        <v>8.764705882352942</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -48876,7 +49346,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -48885,7 +49355,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -48894,7 +49364,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -48921,7 +49391,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, sendHeartbeat, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -48930,7 +49400,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -48939,7 +49409,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1.043478260869565</v>
+        <v>0.4347826086956523</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -48966,7 +49436,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -48975,7 +49445,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -48984,7 +49454,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -49011,7 +49481,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -49020,7 +49490,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -49056,7 +49526,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -49065,7 +49535,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -49074,7 +49544,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -49101,7 +49571,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -49110,7 +49580,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -49119,7 +49589,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>15.09090909090909</v>
+        <v>14.36363636363636</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -49146,7 +49616,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, sendHeartbeat, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -49155,7 +49625,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -49164,7 +49634,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>7.142857142857142</v>
+        <v>7</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -49191,7 +49661,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -49200,7 +49670,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -49254,7 +49724,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>10.36363636363636</v>
+        <v>7.636363636363637</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -49281,7 +49751,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -49290,7 +49760,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -49299,7 +49769,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>6.875</v>
+        <v>7</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -49326,7 +49796,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, nasAddVesselsToVoi, sendHeartbeat, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -49335,7 +49805,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -49344,7 +49814,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>14.21428571428571</v>
+        <v>14.07142857142857</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -49371,7 +49841,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -49380,16 +49850,16 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>18.8695652173913</v>
+        <v>19.56521739130435</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -49416,7 +49886,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -49425,7 +49895,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -49461,7 +49931,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, hideMapTimelineOnVesselProfile, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -49470,7 +49940,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -49479,7 +49949,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>13.6551724137931</v>
+        <v>13.58620689655172</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -49506,7 +49976,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideNasActivitiesForm, sendHeartbeat, useRefreshToken, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideNasActivitiesForm, useRefreshToken, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -49515,7 +49985,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -49524,7 +49994,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>9.41935483870968</v>
+        <v>9.483870967741936</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -49551,7 +50021,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasExportMediumCsv, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -49560,7 +50030,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -49569,7 +50039,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -49596,7 +50066,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -49605,7 +50075,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G226" t="n">
         <v>4</v>
@@ -49614,7 +50084,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>9.652173913043478</v>
+        <v>9.043478260869565</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -49641,7 +50111,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -49650,7 +50120,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -49659,7 +50129,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>4.875</v>
+        <v>5</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -49686,7 +50156,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -49695,7 +50165,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -49704,7 +50174,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>17.35483870967742</v>
+        <v>17.41935483870968</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -49731,7 +50201,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>STS Classification, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, STS Classification</t>
+          <t>STS Classification, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, STS Classification</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -49740,16 +50210,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -49776,7 +50246,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -49785,7 +50255,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -49794,7 +50264,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>14.88888888888889</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -49821,7 +50291,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center, nasExportMediumCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -49830,7 +50300,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G231" t="n">
         <v>4</v>
@@ -49839,7 +50309,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>14.76923076923077</v>
+        <v>14.46153846153846</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -49905,7 +50375,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -49942,7 +50412,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -49989,7 +50459,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>8.117647058823529</v>
+        <v>4.588235294117649</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -50051,7 +50521,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on</t>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -50060,7 +50530,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -50069,7 +50539,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -50096,7 +50566,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -50105,7 +50575,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -50114,7 +50584,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>14.46153846153846</v>
+        <v>14.15384615384615</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -50141,7 +50611,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Companies Add-on, MAI Expert, Wet Cargo</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -50150,7 +50620,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -50159,7 +50629,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>17.61538461538462</v>
+        <v>17.30769230769231</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -50186,7 +50656,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -50195,7 +50665,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -50204,7 +50674,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>12.21428571428571</v>
+        <v>12.07142857142857</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -50284,7 +50754,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>12.75</v>
+        <v>10.25</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -50311,7 +50781,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -50320,7 +50790,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -50329,7 +50799,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>9</v>
+        <v>8.692307692307692</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -50356,7 +50826,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -50365,7 +50835,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -50374,7 +50844,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -50436,7 +50906,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -50445,7 +50915,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -50454,7 +50924,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -50481,7 +50951,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, sendHeartbeat, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -50490,7 +50960,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -50499,7 +50969,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -50526,7 +50996,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, vesselsLists, Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -50535,7 +51005,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -50571,7 +51041,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -50580,7 +51050,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -50589,7 +51059,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -50616,7 +51086,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, vesselsLists, Companies Add-on</t>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -50625,7 +51095,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -50634,7 +51104,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>6.444444444444443</v>
+        <v>6.222222222222221</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -50661,7 +51131,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -50670,7 +51140,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -50679,7 +51149,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>18.35714285714286</v>
+        <v>18.21428571428571</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -50776,7 +51246,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -50785,7 +51255,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -50794,7 +51264,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>13.35483870967742</v>
+        <v>13.41935483870968</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -50821,7 +51291,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>MAI Expert, riskRanking, sendHeartbeat, MAI Expert</t>
+          <t>MAI Expert, riskRanking, MAI Expert</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -50830,7 +51300,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -50839,7 +51309,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -50866,7 +51336,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -50875,7 +51345,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -50884,7 +51354,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>6.071428571428569</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -50911,7 +51381,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -50920,7 +51390,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -51026,7 +51496,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, CDD Screening</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -51035,7 +51505,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -51044,7 +51514,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>11.14285714285714</v>
+        <v>11</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -51071,7 +51541,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -51080,7 +51550,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -51089,7 +51559,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>11.14285714285714</v>
+        <v>11</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -51186,7 +51656,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -51195,7 +51665,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -51204,7 +51674,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>11.14285714285714</v>
+        <v>11</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -51445,7 +51915,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -51482,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -51519,7 +51989,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -51552,7 +52022,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, riskRanking, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, riskRanking, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -51561,7 +52031,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -51570,7 +52040,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>13.61538461538462</v>
+        <v>13.30769230769231</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -51597,7 +52067,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -51606,7 +52076,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -51615,7 +52085,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>18.35714285714286</v>
+        <v>18.21428571428571</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -51677,7 +52147,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, sendHeartbeat, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -51686,7 +52156,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -51695,7 +52165,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>14.88888888888889</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -51757,7 +52227,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -51766,7 +52236,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
@@ -51775,7 +52245,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>11.64705882352941</v>
+        <v>11.88235294117647</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -51802,7 +52272,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, sendHeartbeat, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -51811,7 +52281,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -51820,7 +52290,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>5</v>
+        <v>4.857142857142856</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -51847,7 +52317,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -51856,7 +52326,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -51865,7 +52335,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>16.32258064516129</v>
+        <v>16.38709677419355</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -52032,7 +52502,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -52041,7 +52511,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -52050,7 +52520,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>7.027027027027025</v>
+        <v>7.405405405405405</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -52095,7 +52565,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>8.363636363636363</v>
+        <v>6.545454545454547</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -52122,7 +52592,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, analyticsProxy, nasAddVesselsToVoi, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, analyticsProxy, nasAddVesselsToVoi, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -52131,7 +52601,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -52140,7 +52610,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>10.21428571428571</v>
+        <v>10.07142857142857</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -52167,7 +52637,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns, hideHistoricalRiskIndicators, sendHeartbeat, Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns, hideHistoricalRiskIndicators, Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -52176,7 +52646,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -52212,7 +52682,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -52221,7 +52691,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -52230,7 +52700,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>10.18181818181818</v>
+        <v>10.36363636363636</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -52292,7 +52762,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, areaMapper, enableODRPermissionsForAllUsers, organizationDefinedRisk, planetOverlay, planetQuota, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, areaMapper, enableODRPermissionsForAllUsers, organizationDefinedRisk, planetOverlay, planetQuota, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -52301,7 +52771,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -52310,7 +52780,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>1.405405405405405</v>
+        <v>1.783783783783784</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -52442,7 +52912,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -52451,7 +52921,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -52567,7 +53037,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, organizationDefinedRisk, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -52576,7 +53046,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -52585,7 +53055,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>12.75</v>
+        <v>12.875</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -52684,7 +53154,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -52693,7 +53163,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -52702,7 +53172,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>5.9375</v>
+        <v>6.0625</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -52782,7 +53252,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>7.483870967741936</v>
+        <v>5.548387096774194</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -52967,7 +53437,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>11.64705882352941</v>
+        <v>9.882352941176471</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
@@ -53012,7 +53482,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>10.875</v>
+        <v>9</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
@@ -53039,7 +53509,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, sendHeartbeat, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -53048,7 +53518,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -53057,7 +53527,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>4.285714285714285</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
@@ -53504,7 +53974,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, sendHeartbeat, voiNoLimit, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, voiNoLimit, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -53513,7 +53983,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -53549,7 +54019,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Wet Cargo, hideBorderSecurityRisk, sendHeartbeat, Wet Cargo</t>
+          <t>Wet Cargo, hideBorderSecurityRisk, Wet Cargo</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -53558,7 +54028,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -53567,7 +54037,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>12.66666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
@@ -53594,7 +54064,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -53603,7 +54073,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326" t="n">
         <v>0</v>
@@ -53612,7 +54082,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
@@ -53639,7 +54109,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, STS Classification</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -53648,7 +54118,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -53657,7 +54127,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>11.58620689655172</v>
+        <v>11.51724137931035</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -53684,7 +54154,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -53693,7 +54163,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
@@ -53702,7 +54172,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>19.92307692307692</v>
+        <v>19.61538461538462</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -53729,7 +54199,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, sendHeartbeat, vesselsLists, voiNoLimit, Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, vesselsLists, voiNoLimit, Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -53738,7 +54208,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -53774,7 +54244,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -53783,7 +54253,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -53792,7 +54262,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>12.26086956521739</v>
+        <v>11.65217391304348</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -53854,7 +54324,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, sendHeartbeat, Companies Add-on</t>
+          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -53863,7 +54333,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -53872,7 +54342,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>8.363636363636363</v>
+        <v>7.636363636363637</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -53903,7 +54373,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -53967,7 +54437,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -53976,16 +54446,16 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G335" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>16</v>
+        <v>16.33333333333334</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -54537,7 +55007,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasCompanyToggles, sendHeartbeat, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, nasCompanyToggles, Companies Add-on, MAI Expert</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -54546,7 +55016,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -54555,7 +55025,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>16</v>
+        <v>15.14285714285714</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -54582,7 +55052,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, sendHeartbeat, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -54591,7 +55061,7 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G352" t="n">
         <v>5</v>
@@ -54600,7 +55070,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>10.26086956521739</v>
+        <v>9.652173913043478</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -54697,7 +55167,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -54706,7 +55176,7 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -54715,7 +55185,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>5.142857142857142</v>
+        <v>5</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -54777,7 +55247,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -54786,7 +55256,7 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G357" t="n">
         <v>4</v>
@@ -54795,7 +55265,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>13.56521739130435</v>
+        <v>12.95652173913043</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -54822,7 +55292,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -54831,7 +55301,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -54840,7 +55310,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>10.38709677419355</v>
+        <v>10.4516129032258</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -54902,7 +55372,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasAddVesselsToVoi, nasExportMediumCsv, sendHeartbeat, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasAddVesselsToVoi, nasExportMediumCsv, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -54911,7 +55381,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -54965,7 +55435,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>20.85714285714285</v>
+        <v>18</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -55091,7 +55561,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">

--- a/data/updated_migration.xlsx
+++ b/data/updated_migration.xlsx
@@ -713,26 +713,12 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Manual Review</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AF2" t="n">
-        <v>1765209126</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>omer check</t>
-        </is>
-      </c>
+      <c r="AI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -927,29 +913,11 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Commodity Trader Core</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AF4" t="n">
-        <v>1765120173</v>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>riskRanking, Companies Add-on, UBO</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Omer check</t>
-        </is>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1645,29 +1613,11 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>Bunkering Core</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="AF11" t="n">
-        <v>1765120257</v>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Omer Check</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -6430,10 +6380,24 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Insurer Advanced</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Omer</t>
+        </is>
+      </c>
+      <c r="AF61" t="n">
+        <v>1765718538</v>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>hideHistoricalRiskIndicators, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+        </is>
+      </c>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
     </row>
@@ -35916,7 +35880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36009,23 +35973,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">LITASCO S.A.
+          <t xml:space="preserve">Generali Hong Kong
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commodity Trader</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>riskRanking, Companies Add-on, UBO</t>
+          <t>hideHistoricalRiskIndicators, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -36034,11 +35998,11 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1765120173</v>
+        <v>1765718538</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -36053,125 +36017,11 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideBorderSecurityRisk", "hideMapModule", "hideSafetyRisk"]}</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Omer check</t>
-        </is>
-      </c>
+          <t>{"Granted by GA": [], "Final plan": []}</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arte Bunkering
-</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bunkering</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bunkering Core</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, sendHeartbeat, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1765120257</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Bunkering Core</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>{"Granted by GA": ["weatherLayer"], "Final plan": ["hideMapModule"]}</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Omer Check</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Metro Shipping Ltd.
-</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Freight Forwarder</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Manual Review</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Omer</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1765209126</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Manual Review</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>{"Granted by GA": [], "Final plan": []}</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>omer check</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36184,7 +36034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36236,7 +36086,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
@@ -36248,7 +36098,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36260,7 +36110,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36272,67 +36122,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shipowners Core</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shipowners Core</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shipowners Core</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shipowners Core</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shipowners Core</t>
+          <t>Shipowners Advanced</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
@@ -36344,7 +36194,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
@@ -36356,7 +36206,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
@@ -36368,7 +36218,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
@@ -36380,7 +36230,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
@@ -36392,7 +36242,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
@@ -36404,7 +36254,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
@@ -36416,7 +36266,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36428,7 +36278,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36440,7 +36290,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36452,151 +36302,151 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Shipowners Advanced</t>
+          <t>Shipowners Premium</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
@@ -36608,7 +36458,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>newNotificationUI</t>
         </is>
       </c>
     </row>
@@ -36620,7 +36470,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
@@ -36632,7 +36482,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
@@ -36644,7 +36494,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
@@ -36656,7 +36506,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
@@ -36668,1334 +36518,1334 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Core</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>newNotificationUI</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shipowners Premium</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Advanced</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>advancedSearchOwners</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bunkering Core</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>stsClassification</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Bunkering Premium</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bunkering Advanced</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>advancedSearchOwners</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Advanced</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>nasTransmissionInAreaActivityType</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>stsClassification</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Bunkering Premium</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Insurer Premium</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>hideMapModule</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Insurer Core</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Core</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -38007,7 +37857,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -38019,7 +37869,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -38031,91 +37881,91 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Commodity Trader Advanced</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -38127,7 +37977,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -38139,7 +37989,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -38151,7 +38001,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -38163,7 +38013,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -38175,7 +38025,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -38187,967 +38037,967 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Commodity Trader Premium</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Insurer Premium</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>nasPremiumCsvColumns</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>hideMapModule</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Commodity Trader Core</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Core</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Commodity Trader Advanced</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>hideBorderSecurityRisk</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>mapMarkers</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>visualLinkAnalysis</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Commodity Trader Premium</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>wetCargoData</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Financial Institutions Premium</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -39159,7 +39009,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -39171,1966 +39021,802 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>nasPremiumCsvColumns</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>hideSafetyRisk</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>vesselsLists</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Advanced</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>cddScreening</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>companyProfile</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>enableExportCompanyPdfReport</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>exploreCompanies</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>hideMapTimelineOnVesselProfile</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>hideSafetyRisk</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>liveChat</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>maiExpertVesselAdverseMedia</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>maiExpertVesselSummary</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>nasAddVesselsToVoi</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>newAdvancedSearch</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>maiExpertVesselAdverseMedia</t>
+          <t>portProfile</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>maiExpertVesselSummary</t>
+          <t>portStateControl</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>nasAccidentsActivity</t>
+          <t>savedQueriesNotifications</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi</t>
+          <t>uboData</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>newAdvancedSearch</t>
+          <t>vesselsLists</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>Oil &amp; Energy Premium</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>newNasSideBarDesign</t>
+          <t>wetCargoData</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>portProfile</t>
+          <t>activitySequences</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>portStateControl</t>
+          <t>complianceLabel</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>savedQueriesNotifications</t>
+          <t>complianceMode</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>softAoi</t>
+          <t>darkFleetVOI</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>uboData</t>
+          <t>grayFleetVOI</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>userAlreadyLoggedInWarning</t>
+          <t>mapMarkers</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>visualLinkAnalysis</t>
+          <t>nasAccidentsActivity</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>warRiskArea</t>
+          <t>nasAgGridTable</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Financial Institutions Advanced</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>weatherLayer</t>
+          <t>nasTransmissionInAreaActivityType</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>cddScreening</t>
+          <t>newNasRiskDesign</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>companyProfile</t>
+          <t>newNasSideBarDesign</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>complianceLabel</t>
+          <t>searchDraftBreadthFilters</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>complianceMode</t>
+          <t>sendHeartbeat</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>enableExportCompanyPdfReport</t>
+          <t>softAoi</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>exploreCompanies</t>
+          <t>trafficLanes</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>hideMapTimelineOnVesselProfile</t>
+          <t>uncertaintyArea</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>hideRuleEngine</t>
+          <t>userAlreadyLoggedInWarning</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>liveChat</t>
+          <t>warRiskArea</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Financial Institutions Premium</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
-        <is>
-          <t>maiExpertVesselAdverseMedia</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>maiExpertVesselSummary</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>nasAccidentsActivity</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>nasAddVesselsToVoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>newAdvancedSearch</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>newNasSideBarDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>portProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>portStateControl</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>savedQueriesNotifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>softAoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>uboData</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>userAlreadyLoggedInWarning</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>visualLinkAnalysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>warRiskArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>weatherLayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Financial Institutions Premium</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>wetCargoData</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>complianceLabel</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>complianceMode</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>hideMapTimelineOnVesselProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>hideRuleEngine</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>hideSafetyRisk</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>liveChat</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>nasAccidentsActivity</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>nasAddVesselsToVoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>newAdvancedSearch</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>newNasSideBarDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>portProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>portStateControl</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>savedQueriesNotifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>softAoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>userAlreadyLoggedInWarning</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>warRiskArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Core</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>weatherLayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>companyProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>complianceLabel</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>complianceMode</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>enableExportCompanyPdfReport</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>exploreCompanies</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>hideBorderSecurityRisk</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>hideMapTimelineOnVesselProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>hideRuleEngine</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>hideSafetyRisk</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>liveChat</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>maiExpertVesselAdverseMedia</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>maiExpertVesselSummary</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>nasAddVesselsToVoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>newAdvancedSearch</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>newNasSideBarDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>portProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>portStateControl</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>savedQueriesNotifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>userAlreadyLoggedInWarning</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>vesselsLists</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>weatherLayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Advanced</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>wetCargoData</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>cddScreening</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>companyProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>complianceLabel</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>complianceMode</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>enableExportCompanyPdfReport</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>exploreCompanies</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>hideBorderSecurityRisk</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>hideMapTimelineOnVesselProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>hideRuleEngine</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>hideSafetyRisk</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>liveChat</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>maiExpertVesselAdverseMedia</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>maiExpertVesselSummary</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>nasAddVesselsToVoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>newAdvancedSearch</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>newNasSideBarDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>portProfile</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>portStateControl</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>savedQueriesNotifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>uboData</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>userAlreadyLoggedInWarning</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>vesselsLists</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>weatherLayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Oil &amp; Energy Premium</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>wetCargoData</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>activitySequences</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>complianceLabel</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>complianceMode</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>darkFleetVOI</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>grayFleetVOI</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>mapMarkers</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>nasAccidentsActivity</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>nasAgGridTable</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>nasTransmissionInAreaActivityType</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>newNasRiskDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>newNasSideBarDesign</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>searchDraftBreadthFilters</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>sendHeartbeat</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>softAoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>trafficLanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>uncertaintyArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>userAlreadyLoggedInWarning</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>warRiskArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
         <is>
           <t>weatherLayer</t>
         </is>
@@ -41261,19 +39947,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -41306,19 +39992,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, riskRanking, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, Hide RULE ENGINE, riskRanking, Companies Add-on, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -41351,19 +40037,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -41396,19 +40082,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, exportTrackVoyages, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, exportTrackVoyages, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -41476,7 +40162,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -41485,16 +40171,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.25</v>
+        <v>15.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -41591,12 +40277,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -41741,12 +40427,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -41786,12 +40472,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Export Center, Companies Add-on, UBO, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Export Center, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -41870,7 +40556,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -41907,7 +40593,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -42156,12 +40842,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -42271,12 +40957,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -43046,19 +41732,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Companies Add-on, Underwater Cables, hideHistoricalRiskIndicators, nasAddVesselsToVoi, vesselsLists, Companies Add-on, Underwater Cables</t>
+          <t>Companies Add-on, Underwater Cables, Hide RULE ENGINE, hideHistoricalRiskIndicators, nasAddVesselsToVoi, vesselsLists, Companies Add-on, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Companies Add-on, Underwater Cables</t>
+          <t>Companies Add-on, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -43091,19 +41777,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Companies Add-on, Wet Cargo, Underwater Cables, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, Wet Cargo, Underwater Cables</t>
+          <t>Companies Add-on, Wet Cargo, Underwater Cables, Hide RULE ENGINE, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, Wet Cargo, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Companies Add-on, Wet Cargo, Underwater Cables</t>
+          <t>Companies Add-on, Wet Cargo, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -43136,19 +41822,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -43216,19 +41902,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -43261,19 +41947,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, nasCompanyToggles, organizationDefinedRisk, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, Hide RULE ENGINE, nasCompanyToggles, organizationDefinedRisk, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F56" t="n">
         <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -43306,19 +41992,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, Hide RULE ENGINE, nasAddVesselsToVoi, nasCompanyToggles, planetOverlay, vlaMaiExpert, Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Export Center, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -43351,19 +42037,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, vesselsLists, vlaMaiExpert, Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, Visual Link Analysis, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, vesselsLists, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -43431,19 +42117,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -43476,7 +42162,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -43485,16 +42171,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>11.6</v>
+        <v>14.8</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -43521,12 +42207,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -43613,7 +42299,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -43650,7 +42336,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -43687,7 +42373,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -43724,7 +42410,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -43757,19 +42443,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasCompanyToggles, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, nasCompanyToggles, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -43806,7 +42492,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -44086,19 +42772,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F77" t="n">
         <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -44131,19 +42817,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasExportLargeCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, nasCompanyToggles, nasExportLargeCsv, newAdvancedSearch, organizationDefinedRisk, savedQueriesNotifications, Companies Add-on, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F78" t="n">
         <v>8</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -44176,19 +42862,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Companies Add-on, Export Center, Underwater Cables, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, Export Center, Underwater Cables, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, Export Center, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Companies Add-on, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, Export Center, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F79" t="n">
         <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -44256,16 +42942,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -44274,7 +42960,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>8.666666666666668</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -44476,19 +43162,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -44521,19 +43207,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F88" t="n">
         <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -44566,19 +43252,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F89" t="n">
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -44615,7 +43301,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -44648,19 +43334,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Hide RULE ENGINE, hideHistoricalRiskIndicators, hideMapModule, hideMapTimelineOnVesselProfile, hideNotificationsCenter, Companies Add-on, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -44732,7 +43418,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -44769,7 +43455,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -44806,7 +43492,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -44843,7 +43529,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -44946,16 +43632,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, exportTrackVoyages, hideBorderSecurityRisk, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, exportTrackVoyages, maiExpertLanguageSettings, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -44964,7 +43650,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1.548387096774194</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -45026,19 +43712,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideHistoricalRiskIndicators, Companies Add-on</t>
+          <t>Companies Add-on, Hide RULE ENGINE, hideHistoricalRiskIndicators, Companies Add-on, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Companies Add-on</t>
+          <t>Companies Add-on, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -45106,19 +43792,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasExportLargeCsv, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F103" t="n">
         <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -45151,19 +43837,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, nasCompanyToggles, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F104" t="n">
         <v>4</v>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -45612,12 +44298,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, maiExpertLanguageSettings, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE, enableODRPermissionsForAllUsers, maiExpertLanguageSettings, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -46042,7 +44728,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, mapScale, nasAddVesselsToVoi, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, turnOffTransmissionRuleEngine, voiNoLimit, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, IdentityTampering, areaInvestigation, courseDeviationActivity, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, mapScale, nasExportMediumCsv, organizationDefinedRisk, portCallsRuleEngine, previewResultsMap, turnOffTransmissionRuleEngine, voiNoLimit, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -46051,10 +44737,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -46087,19 +44773,19 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Hide RULE ENGINE, adverseMediaWithinVesselSummary, areaInvestigation, hideHistoricalRiskIndicators, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F130" t="n">
         <v>4</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -46202,19 +44888,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, Hide RULE ENGINE, hideHistoricalRiskIndicators, nasExportLargeCsv, Companies Add-on, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F133" t="n">
         <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -46247,19 +44933,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F134" t="n">
         <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -46327,19 +45013,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -46407,19 +45093,19 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification, hideHistoricalRiskIndicators, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, UBO, STS Classification, Hide RULE ENGINE, hideHistoricalRiskIndicators, nasExportLargeCsv, planetOverlay, planetQuota, planetQuotaEnforced, Companies Add-on, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F138" t="n">
         <v>5</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -46452,19 +45138,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, maiComplianceConfiguration001, nasExportMediumCsv, organizationDefinedRisk, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, maiComplianceConfiguration001, nasExportMediumCsv, organizationDefinedRisk, voiRemoveCounter, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F139" t="n">
         <v>7</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -46567,19 +45253,19 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F142" t="n">
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -46612,19 +45298,19 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, maiComplianceConfiguration001, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, voiRemoveCounter, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, adverseMediaWithinVesselSummary, enableODRPermissionsForAllUsers, fleetMonitoring, maiComplianceConfiguration001, organizationDefinedRisk, smugglingAndComplianceRisksSearchAPI, voiRemoveCounter, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F143" t="n">
         <v>7</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -46657,19 +45343,19 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, areaInvestigation, hideHistoricalRiskIndicators, nasExportLargeCsv, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, Hide RULE ENGINE, areaInvestigation, hideHistoricalRiskIndicators, nasExportLargeCsv, Companies Add-on, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F144" t="n">
         <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -46702,19 +45388,19 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, smugglingAndComplianceRisksSearchAPI, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, Hide RULE ENGINE, smugglingAndComplianceRisksSearchAPI, Companies Add-on, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -47115,19 +45801,19 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F156" t="n">
         <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -47160,19 +45846,19 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F157" t="n">
         <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -47205,19 +45891,19 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F158" t="n">
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -47311,16 +45997,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -47329,7 +46015,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -47356,16 +46042,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, maiExpertLanguageSettings, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, enableODRPermissionsForAllUsers, maiExpertLanguageSettings, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -47374,7 +46060,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>7.555555555555555</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -47401,16 +46087,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed, exportTrackVoyages, hideBorderSecurityRisk, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed, Hide RULE ENGINE, exportTrackVoyages, nasAddVesselsToVoi, nasCompanyToggles, organizationDefinedRisk, riskRanking, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Export Center, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -47419,7 +46105,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -47446,12 +46132,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -47491,19 +46177,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, nasCompanyToggles, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE, hideMapModule, hideMapTimelineOnVesselProfile, nasCompanyToggles, Companies Add-on, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F165" t="n">
         <v>3</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -47602,19 +46288,19 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F168" t="n">
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -47647,12 +46333,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed, Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, News Feed, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -47692,12 +46378,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -47737,19 +46423,19 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE, hideMapModule, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F171" t="n">
         <v>3</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -47782,16 +46468,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, CDD Screening, STS Classification, hideBorderSecurityRisk, hideMapModule, vesselShare, Companies Add-on, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE, hideMapModule, vesselShare, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -47800,7 +46486,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>10.36363636363636</v>
+        <v>13.72727272727273</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -47827,12 +46513,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Companies Add-on, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -47872,12 +46558,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -47917,12 +46603,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, containersOfInterest, nasCompanyToggles, ofvMapLandEvents, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, Hide RULE ENGINE, containersOfInterest, nasCompanyToggles, ofvMapLandEvents, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -47962,25 +46648,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>13</v>
+        <v>16.15384615384615</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -48007,19 +46693,19 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F177" t="n">
         <v>2</v>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -48089,12 +46775,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -48134,19 +46820,19 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F180" t="n">
         <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -48179,19 +46865,19 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F181" t="n">
         <v>2</v>
       </c>
       <c r="G181" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -48224,19 +46910,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F182" t="n">
         <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -48269,19 +46955,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F183" t="n">
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -48349,19 +47035,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F185" t="n">
         <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -48394,19 +47080,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, useRefreshToken, Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, useRefreshToken, Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo</t>
+          <t>Companies Add-on, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F186" t="n">
         <v>6</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -48439,19 +47125,19 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, Hide RULE ENGINE, nasExportLargeCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F187" t="n">
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -48593,7 +47279,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -48766,12 +47452,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, turnOffODRErrorEmails, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -48811,12 +47497,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -48891,19 +47577,19 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F199" t="n">
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -48936,12 +47622,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, News Feed, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, News Feed, Hide RULE ENGINE, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -49016,19 +47702,19 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F202" t="n">
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -49061,19 +47747,19 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE, hideHistoricalRiskIndicators, hideMapTimelineOnVesselProfile, nasCompanyToggles, useRefreshToken, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F203" t="n">
         <v>4</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -49106,12 +47792,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -49221,19 +47907,19 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F207" t="n">
         <v>2</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -49266,19 +47952,19 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE, exportTrackVoyages, hideMapTimelineOnVesselProfile, nasExportLargeCsv, nasExportMediumCsv, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Export Center, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F208" t="n">
         <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -49346,19 +48032,19 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, riskRanking, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F210" t="n">
         <v>2</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -49391,19 +48077,19 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, savedQueriesNotifications, Companies Add-on, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO</t>
+          <t>Companies Add-on, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F211" t="n">
         <v>5</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -49436,19 +48122,19 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F212" t="n">
         <v>3</v>
       </c>
       <c r="G212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -49481,12 +48167,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, STS Classification, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -49526,19 +48212,19 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F214" t="n">
         <v>2</v>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -49571,19 +48257,19 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, newAdvancedSearch, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F215" t="n">
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -49616,19 +48302,19 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE, nasAddVesselsToVoi, nasExportLargeCsv, newAdvancedSearch, useRefreshToken, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F216" t="n">
         <v>4</v>
       </c>
       <c r="G216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -49661,12 +48347,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, STS Classification, News Feed, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -49706,19 +48392,19 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, nasAddVesselsToVoi, nasCompanyToggles, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F218" t="n">
         <v>3</v>
       </c>
       <c r="G218" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -49751,12 +48437,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE, nasAddVesselsToVoi, nasExportLargeCsv, nasExportMediumCsv, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Underwater Cables, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -49796,19 +48482,19 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE, nasAddVesselsToVoi, Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F220" t="n">
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -49836,24 +48522,24 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -49886,12 +48572,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, hideNasActivitiesForm, riskRanking, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -49931,12 +48617,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -49976,12 +48662,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideNasActivitiesForm, useRefreshToken, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE, hideNasActivitiesForm, useRefreshToken, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -50021,12 +48707,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasExportMediumCsv, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -50066,12 +48752,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -50111,16 +48797,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -50129,7 +48815,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>5</v>
+        <v>7.9375</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -50151,24 +48837,24 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Export Center, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F228" t="n">
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -50201,12 +48887,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>STS Classification, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, STS Classification</t>
+          <t>HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE, hideComplianceRisk, nasAddVesselsToVoi, newAdvancedSearch, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>STS Classification</t>
+          <t>HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -50246,12 +48932,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -50291,19 +48977,19 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Export Center, Hide RULE ENGINE, nasExportMediumCsv, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F231" t="n">
         <v>2</v>
       </c>
       <c r="G231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -50375,7 +49061,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -50412,7 +49098,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -50445,15 +49131,19 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>nasAddVesselsToVoi, newAdvancedSearch, riskRanking</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
+          <t>Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, riskRanking, Hide RULE ENGINE</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Hide RULE ENGINE</t>
+        </is>
+      </c>
       <c r="F235" t="n">
         <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -50521,12 +49211,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -50566,12 +49256,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -50611,12 +49301,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -50656,12 +49346,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Export Center, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, Export Center</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Export Center, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -50736,19 +49426,19 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, enableODRPermissionsForAllUsers, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo</t>
+          <t>Companies Add-on, MAI Expert, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F242" t="n">
         <v>3</v>
       </c>
       <c r="G242" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -50781,12 +49471,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Companies Add-on, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -50821,24 +49511,24 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F244" t="n">
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -50906,12 +49596,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -50951,12 +49641,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -50996,12 +49686,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, STS Classification, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -51041,12 +49731,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -51086,12 +49776,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -51131,12 +49821,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F251" t="n">
@@ -51241,24 +49931,24 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Oil &amp; Energy Advanced</t>
+          <t>Oil &amp; Energy Core</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F254" t="n">
         <v>2</v>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -51291,19 +49981,19 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>MAI Expert, riskRanking, MAI Expert</t>
+          <t>MAI Expert, Hide RULE ENGINE, riskRanking, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>MAI Expert</t>
+          <t>MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F255" t="n">
         <v>1</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -51336,12 +50026,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -51381,12 +50071,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -51496,12 +50186,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, hideMapModule, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, Hide RULE ENGINE, hideMapModule, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -51541,12 +50231,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -51656,12 +50346,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -51915,7 +50605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -51952,7 +50642,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -51989,7 +50679,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -52022,19 +50712,19 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, riskRanking, vesselsLists, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE, riskRanking, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F274" t="n">
         <v>2</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -52067,12 +50757,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -52147,12 +50837,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, hideMapTimelineOnVesselProfile, Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -52227,12 +50917,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -52272,12 +50962,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, CDD Screening, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, UBO, CDD Screening, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -52317,12 +51007,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -52502,12 +51192,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -52547,16 +51237,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, enableODRPermissionsForAllUsers, hideBorderSecurityRisk, iuuFishing, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, iuuFishing, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
@@ -52565,7 +51255,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>6.545454545454547</v>
+        <v>9.454545454545453</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -52587,21 +51277,21 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Financial Institutions Core</t>
+          <t>Financial Institutions Advanced</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, analyticsProxy, nasAddVesselsToVoi, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE, analyticsProxy, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -52610,7 +51300,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>10.07142857142857</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -52637,12 +51327,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns, hideHistoricalRiskIndicators, Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, NAS Premium CSV Columns, Hide RULE ENGINE, hideHistoricalRiskIndicators, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -52682,12 +51372,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, Hide RULE ENGINE, hideHistoricalRiskIndicators, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -52757,17 +51447,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Insurer Advanced</t>
+          <t>Insurer Core</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, areaMapper, enableODRPermissionsForAllUsers, organizationDefinedRisk, planetOverlay, planetQuota, vesselsLists, Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, Hide RULE ENGINE, areaMapper, enableODRPermissionsForAllUsers, organizationDefinedRisk, planetOverlay, planetQuota, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, STS Classification, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -52912,12 +51602,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, Hide RULE ENGINE, areaInvestigation, enableODRPermissionsForAllUsers, fraudulentFlagRegistries, nasCompanyToggles, nasExportLargeCsv, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Visual Link Analysis, STS Classification, Export Center, News Feed, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -52992,12 +51682,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, nasCompanyToggles, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE, enableODRPermissionsForAllUsers, exportTrackVoyages, fraudulentFlagRegistries, nasCompanyToggles, organizationDefinedRisk, planetObjectDetection, planetQuotaEnforced, riskRanking, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Visual Link Analysis, STS Classification, News Feed, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -53037,19 +51727,19 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, Hide RULE ENGINE, organizationDefinedRisk, vlaMaiExpert, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, CDD Screening, Visual Link Analysis, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F299" t="n">
         <v>2</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -53154,19 +51844,19 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, hideMapTimelineOnVesselProfile, organizationDefinedRisk, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F302" t="n">
         <v>4</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -53234,19 +51924,19 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportMediumCsv, organizationDefinedRisk, windwardOwnershipData, Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasExportMediumCsv, organizationDefinedRisk, windwardOwnershipData, Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F304" t="n">
         <v>4</v>
       </c>
       <c r="G304" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -53419,19 +52109,19 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasVesselsExportExtraLargeCSV, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasVesselsExportExtraLargeCSV, organizationDefinedRisk, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F309" t="n">
         <v>3</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -53464,19 +52154,19 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns, enableODRPermissionsForAllUsers, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasExportLargeCsv, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, NAS Premium CSV Columns, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F310" t="n">
         <v>3</v>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -53509,19 +52199,19 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, nasCompanyToggles, nasExportMediumCsv, riskRanking, vlaMaiExpert, Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Visual Link Analysis, STS Classification, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F311" t="n">
         <v>5</v>
       </c>
       <c r="G311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -53974,12 +52664,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, voiNoLimit, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, voiNoLimit, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -54019,16 +52709,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Wet Cargo, hideBorderSecurityRisk, Wet Cargo</t>
+          <t>HIDE SAFETY AND BORDER SECURITY RISK, Wet Cargo, Hide RULE ENGINE, HIDE SAFETY AND BORDER SECURITY RISK, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Wet Cargo</t>
+          <t>HIDE SAFETY AND BORDER SECURITY RISK, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -54037,7 +52727,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>11.33333333333333</v>
+        <v>15</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
@@ -54064,12 +52754,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -54109,12 +52799,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE, hideMapTimelineOnVesselProfile, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -54154,12 +52844,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening, Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, CDD Screening</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, CDD Screening, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -54199,12 +52889,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, vesselsLists, voiNoLimit, Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, STS Classification, Hide RULE ENGINE, courseDeviationActivity, maiExpertCompanySummary, nasExportLargeCsv, portCallsRuleEngine, previewResultsMap, savedQueriesCronJob, vesselsLists, voiNoLimit, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -54244,12 +52934,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -54324,12 +53014,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Companies Add-on, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE, nasAddVesselsToVoi, newAdvancedSearch, savedQueriesNotifications, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Companies Add-on</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -54373,7 +53063,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -54449,7 +53139,7 @@
         <v>1</v>
       </c>
       <c r="G335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -55007,19 +53697,19 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, nasCompanyToggles, Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE, nasCompanyToggles, Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert</t>
+          <t>Companies Add-on, MAI Expert, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F351" t="n">
         <v>1</v>
       </c>
       <c r="G351" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -55052,19 +53742,19 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, Companies Add-on, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Companies Add-on, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F352" t="n">
         <v>3</v>
       </c>
       <c r="G352" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -55167,19 +53857,19 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE, enableODRPermissionsForAllUsers, nasAddVesselsToVoi, nasExportMediumCsv, newAdvancedSearch, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F355" t="n">
         <v>5</v>
       </c>
       <c r="G355" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -55247,19 +53937,19 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F357" t="n">
         <v>2</v>
       </c>
       <c r="G357" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -55292,19 +53982,19 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, Hide RULE ENGINE, enableODRPermissionsForAllUsers, organizationDefinedRisk, riskRanking, Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables</t>
+          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, Export Center, Underwater Cables, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F358" t="n">
         <v>3</v>
       </c>
       <c r="G358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -55372,12 +54062,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification, nasAddVesselsToVoi, nasExportMediumCsv, vesselsLists, Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE, nasAddVesselsToVoi, nasExportMediumCsv, vesselsLists, Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, Wet Cargo, STS Classification</t>
+          <t>Companies Add-on, HIDE SAFETY AND BORDER SECURITY RISK, MAI Expert, UBO, Wet Cargo, STS Classification, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -55417,19 +54107,19 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO, riskRanking, Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE, riskRanking, Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Companies Add-on, MAI Expert, UBO</t>
+          <t>Companies Add-on, MAI Expert, UBO, Hide RULE ENGINE</t>
         </is>
       </c>
       <c r="F361" t="n">
         <v>1</v>
       </c>
       <c r="G361" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -55561,7 +54251,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
